--- a/resultados/Venda de Drone/Sem SPAD 1 Drones/vel05/field_64ha_100ha_6%_6m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Sem SPAD 1 Drones/vel05/field_64ha_100ha_6%_6m_0_TSP/Planilha_Unificada.xlsx
@@ -7127,28 +7127,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>7166.388719986288</v>
+        <v>7743.740647842939</v>
       </c>
       <c r="AB2" t="n">
-        <v>9805.369205442759</v>
+        <v>10595.32758410568</v>
       </c>
       <c r="AC2" t="n">
-        <v>8869.558530397046</v>
+        <v>9584.124390113893</v>
       </c>
       <c r="AD2" t="n">
-        <v>7166388.719986289</v>
+        <v>7743740.647842939</v>
       </c>
       <c r="AE2" t="n">
-        <v>9805369.20544276</v>
+        <v>10595327.58410568</v>
       </c>
       <c r="AF2" t="n">
         <v>1.390056386152797e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>113</v>
+        <v>112.91015625</v>
       </c>
       <c r="AH2" t="n">
-        <v>8869558.530397046</v>
+        <v>9584124.390113894</v>
       </c>
     </row>
     <row r="3">
@@ -7233,28 +7233,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>3505.46499272636</v>
+        <v>3867.470463665203</v>
       </c>
       <c r="AB3" t="n">
-        <v>4796.331853249297</v>
+        <v>5291.643709142081</v>
       </c>
       <c r="AC3" t="n">
-        <v>4338.576672869038</v>
+        <v>4786.616660409952</v>
       </c>
       <c r="AD3" t="n">
-        <v>3505464.99272636</v>
+        <v>3867470.463665203</v>
       </c>
       <c r="AE3" t="n">
-        <v>4796331.853249297</v>
+        <v>5291643.709142081</v>
       </c>
       <c r="AF3" t="n">
         <v>2.196944822582456e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>72</v>
+        <v>71.43880208333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>4338576.672869038</v>
+        <v>4786616.660409952</v>
       </c>
     </row>
     <row r="4">
@@ -7339,28 +7339,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2875.232124212095</v>
+        <v>3188.430639444462</v>
       </c>
       <c r="AB4" t="n">
-        <v>3934.019438636172</v>
+        <v>4362.551464520433</v>
       </c>
       <c r="AC4" t="n">
-        <v>3558.562144843547</v>
+        <v>3946.195675625874</v>
       </c>
       <c r="AD4" t="n">
-        <v>2875232.124212095</v>
+        <v>3188430.639444462</v>
       </c>
       <c r="AE4" t="n">
-        <v>3934019.438636172</v>
+        <v>4362551.464520433</v>
       </c>
       <c r="AF4" t="n">
         <v>2.507694507242698e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>63</v>
+        <v>62.58463541666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>3558562.144843547</v>
+        <v>3946195.675625874</v>
       </c>
     </row>
     <row r="5">
@@ -7445,28 +7445,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>2614.19264962047</v>
+        <v>2917.534312744927</v>
       </c>
       <c r="AB5" t="n">
-        <v>3576.853713251047</v>
+        <v>3991.899159227641</v>
       </c>
       <c r="AC5" t="n">
-        <v>3235.483815003948</v>
+        <v>3610.917906136463</v>
       </c>
       <c r="AD5" t="n">
-        <v>2614192.64962047</v>
+        <v>2917534.312744927</v>
       </c>
       <c r="AE5" t="n">
-        <v>3576853.713251047</v>
+        <v>3991899.159227641</v>
       </c>
       <c r="AF5" t="n">
         <v>2.671627622501787e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>59</v>
+        <v>58.75</v>
       </c>
       <c r="AH5" t="n">
-        <v>3235483.815003948</v>
+        <v>3610917.906136462</v>
       </c>
     </row>
     <row r="6">
@@ -7551,28 +7551,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>2467.957404263229</v>
+        <v>2751.790355684551</v>
       </c>
       <c r="AB6" t="n">
-        <v>3376.768199109553</v>
+        <v>3765.120965070299</v>
       </c>
       <c r="AC6" t="n">
-        <v>3054.494181510343</v>
+        <v>3405.783104544311</v>
       </c>
       <c r="AD6" t="n">
-        <v>2467957.404263229</v>
+        <v>2751790.355684551</v>
       </c>
       <c r="AE6" t="n">
-        <v>3376768.199109553</v>
+        <v>3765120.965070299</v>
       </c>
       <c r="AF6" t="n">
         <v>2.776255522534792e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>57</v>
+        <v>56.53645833333334</v>
       </c>
       <c r="AH6" t="n">
-        <v>3054494.181510343</v>
+        <v>3405783.104544311</v>
       </c>
     </row>
     <row r="7">
@@ -7657,28 +7657,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>2378.141207400666</v>
+        <v>2652.118317743935</v>
       </c>
       <c r="AB7" t="n">
-        <v>3253.877716151236</v>
+        <v>3628.745285539967</v>
       </c>
       <c r="AC7" t="n">
-        <v>2943.332193767696</v>
+        <v>3282.42292846389</v>
       </c>
       <c r="AD7" t="n">
-        <v>2378141.207400666</v>
+        <v>2652118.317743935</v>
       </c>
       <c r="AE7" t="n">
-        <v>3253877.716151236</v>
+        <v>3628745.285539967</v>
       </c>
       <c r="AF7" t="n">
         <v>2.845927096519905e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>56</v>
+        <v>55.14973958333334</v>
       </c>
       <c r="AH7" t="n">
-        <v>2943332.193767696</v>
+        <v>3282422.92846389</v>
       </c>
     </row>
     <row r="8">
@@ -7763,28 +7763,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>2309.539741553132</v>
+        <v>2583.48268647762</v>
       </c>
       <c r="AB8" t="n">
-        <v>3160.014164095558</v>
+        <v>3534.834986851042</v>
       </c>
       <c r="AC8" t="n">
-        <v>2858.426847381893</v>
+        <v>3197.475296877908</v>
       </c>
       <c r="AD8" t="n">
-        <v>2309539.741553131</v>
+        <v>2583482.68647762</v>
       </c>
       <c r="AE8" t="n">
-        <v>3160014.164095558</v>
+        <v>3534834.986851042</v>
       </c>
       <c r="AF8" t="n">
         <v>2.897758890315057e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>55</v>
+        <v>54.16015625</v>
       </c>
       <c r="AH8" t="n">
-        <v>2858426.847381894</v>
+        <v>3197475.296877909</v>
       </c>
     </row>
     <row r="9">
@@ -7869,28 +7869,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>2256.4483106701</v>
+        <v>2520.63689974302</v>
       </c>
       <c r="AB9" t="n">
-        <v>3087.372126132766</v>
+        <v>3448.846608880325</v>
       </c>
       <c r="AC9" t="n">
-        <v>2792.717663568532</v>
+        <v>3119.693529015273</v>
       </c>
       <c r="AD9" t="n">
-        <v>2256448.3106701</v>
+        <v>2520636.89974302</v>
       </c>
       <c r="AE9" t="n">
-        <v>3087372.126132766</v>
+        <v>3448846.608880325</v>
       </c>
       <c r="AF9" t="n">
         <v>2.936090309912404e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>54</v>
+        <v>53.45703125</v>
       </c>
       <c r="AH9" t="n">
-        <v>2792717.663568532</v>
+        <v>3119693.529015273</v>
       </c>
     </row>
     <row r="10">
@@ -7975,28 +7975,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>2210.971602379928</v>
+        <v>2484.94770169334</v>
       </c>
       <c r="AB10" t="n">
-        <v>3025.148887559376</v>
+        <v>3400.015073612454</v>
       </c>
       <c r="AC10" t="n">
-        <v>2736.432923553726</v>
+        <v>3075.522406937879</v>
       </c>
       <c r="AD10" t="n">
-        <v>2210971.602379928</v>
+        <v>2484947.70169334</v>
       </c>
       <c r="AE10" t="n">
-        <v>3025148.887559376</v>
+        <v>3400015.073612454</v>
       </c>
       <c r="AF10" t="n">
         <v>2.967189386189495e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>53</v>
+        <v>52.89713541666666</v>
       </c>
       <c r="AH10" t="n">
-        <v>2736432.923553726</v>
+        <v>3075522.406937879</v>
       </c>
     </row>
     <row r="11">
@@ -8081,28 +8081,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>2180.596420747536</v>
+        <v>2444.750844401678</v>
       </c>
       <c r="AB11" t="n">
-        <v>2983.588223991328</v>
+        <v>3345.015960105814</v>
       </c>
       <c r="AC11" t="n">
-        <v>2698.838751385967</v>
+        <v>3025.772331632575</v>
       </c>
       <c r="AD11" t="n">
-        <v>2180596.420747536</v>
+        <v>2444750.844401679</v>
       </c>
       <c r="AE11" t="n">
-        <v>2983588.223991327</v>
+        <v>3345015.960105814</v>
       </c>
       <c r="AF11" t="n">
         <v>2.992261509699709e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>53</v>
+        <v>52.45442708333334</v>
       </c>
       <c r="AH11" t="n">
-        <v>2698838.751385967</v>
+        <v>3025772.331632575</v>
       </c>
     </row>
     <row r="12">
@@ -8187,28 +8187,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>2157.136862917644</v>
+        <v>2411.571096138999</v>
       </c>
       <c r="AB12" t="n">
-        <v>2951.489822005821</v>
+        <v>3299.617964745628</v>
       </c>
       <c r="AC12" t="n">
-        <v>2669.803775835567</v>
+        <v>2984.70705723308</v>
       </c>
       <c r="AD12" t="n">
-        <v>2157136.862917644</v>
+        <v>2411571.096138999</v>
       </c>
       <c r="AE12" t="n">
-        <v>2951489.822005821</v>
+        <v>3299617.964745628</v>
       </c>
       <c r="AF12" t="n">
         <v>3.011788836664394e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>53</v>
+        <v>52.109375</v>
       </c>
       <c r="AH12" t="n">
-        <v>2669803.775835567</v>
+        <v>2984707.05723308</v>
       </c>
     </row>
     <row r="13">
@@ -8293,28 +8293,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>2122.877713818452</v>
+        <v>2387.099457280299</v>
       </c>
       <c r="AB13" t="n">
-        <v>2904.614942801319</v>
+        <v>3266.134788846641</v>
       </c>
       <c r="AC13" t="n">
-        <v>2627.402569313036</v>
+        <v>2954.419468647961</v>
       </c>
       <c r="AD13" t="n">
-        <v>2122877.713818452</v>
+        <v>2387099.457280299</v>
       </c>
       <c r="AE13" t="n">
-        <v>2904614.942801319</v>
+        <v>3266134.788846641</v>
       </c>
       <c r="AF13" t="n">
         <v>3.029869694965028e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>52</v>
+        <v>51.796875</v>
       </c>
       <c r="AH13" t="n">
-        <v>2627402.569313036</v>
+        <v>2954419.468647961</v>
       </c>
     </row>
     <row r="14">
@@ -8399,28 +8399,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>2104.451074813859</v>
+        <v>2368.672818275706</v>
       </c>
       <c r="AB14" t="n">
-        <v>2879.402802389295</v>
+        <v>3240.922648434617</v>
       </c>
       <c r="AC14" t="n">
-        <v>2604.596640196475</v>
+        <v>2931.6135395314</v>
       </c>
       <c r="AD14" t="n">
-        <v>2104451.074813859</v>
+        <v>2368672.818275706</v>
       </c>
       <c r="AE14" t="n">
-        <v>2879402.802389295</v>
+        <v>3240922.648434617</v>
       </c>
       <c r="AF14" t="n">
         <v>3.042405756720136e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>52</v>
+        <v>51.58854166666666</v>
       </c>
       <c r="AH14" t="n">
-        <v>2604596.640196475</v>
+        <v>2931613.539531399</v>
       </c>
     </row>
     <row r="15">
@@ -8505,28 +8505,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>2085.112299361668</v>
+        <v>2339.512367164243</v>
       </c>
       <c r="AB15" t="n">
-        <v>2852.942636649047</v>
+        <v>3201.024032755601</v>
       </c>
       <c r="AC15" t="n">
-        <v>2580.661795537401</v>
+        <v>2895.522791734732</v>
       </c>
       <c r="AD15" t="n">
-        <v>2085112.299361668</v>
+        <v>2339512.367164243</v>
       </c>
       <c r="AE15" t="n">
-        <v>2852942.636649047</v>
+        <v>3201024.032755601</v>
       </c>
       <c r="AF15" t="n">
         <v>3.055906130917943e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>52</v>
+        <v>51.36067708333334</v>
       </c>
       <c r="AH15" t="n">
-        <v>2580661.795537401</v>
+        <v>2895522.791734732</v>
       </c>
     </row>
     <row r="16">
@@ -8611,28 +8611,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>2067.794452062046</v>
+        <v>2322.194519864621</v>
       </c>
       <c r="AB16" t="n">
-        <v>2829.247593964204</v>
+        <v>3177.328990070755</v>
       </c>
       <c r="AC16" t="n">
-        <v>2559.228174470197</v>
+        <v>2874.089170667528</v>
       </c>
       <c r="AD16" t="n">
-        <v>2067794.452062046</v>
+        <v>2322194.519864621</v>
       </c>
       <c r="AE16" t="n">
-        <v>2829247.593964204</v>
+        <v>3177328.990070756</v>
       </c>
       <c r="AF16" t="n">
         <v>3.067477880230349e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>52</v>
+        <v>51.16536458333334</v>
       </c>
       <c r="AH16" t="n">
-        <v>2559228.174470197</v>
+        <v>2874089.170667528</v>
       </c>
     </row>
     <row r="17">
@@ -8717,28 +8717,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>2051.360079837605</v>
+        <v>2305.760147640179</v>
       </c>
       <c r="AB17" t="n">
-        <v>2806.76136085339</v>
+        <v>3154.842756959941</v>
       </c>
       <c r="AC17" t="n">
-        <v>2538.887995887853</v>
+        <v>2853.748992085184</v>
       </c>
       <c r="AD17" t="n">
-        <v>2051360.079837605</v>
+        <v>2305760.147640179</v>
       </c>
       <c r="AE17" t="n">
-        <v>2806761.36085339</v>
+        <v>3154842.756959941</v>
       </c>
       <c r="AF17" t="n">
         <v>3.075915614103979e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>52</v>
+        <v>51.02864583333334</v>
       </c>
       <c r="AH17" t="n">
-        <v>2538887.995887853</v>
+        <v>2853748.992085184</v>
       </c>
     </row>
     <row r="18">
@@ -8823,28 +8823,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>2025.316594208403</v>
+        <v>2289.504172251468</v>
       </c>
       <c r="AB18" t="n">
-        <v>2771.12751485802</v>
+        <v>3132.600614270086</v>
       </c>
       <c r="AC18" t="n">
-        <v>2506.654994141864</v>
+        <v>2833.629608276607</v>
       </c>
       <c r="AD18" t="n">
-        <v>2025316.594208403</v>
+        <v>2289504.172251469</v>
       </c>
       <c r="AE18" t="n">
-        <v>2771127.51485802</v>
+        <v>3132600.614270086</v>
       </c>
       <c r="AF18" t="n">
         <v>3.086040894752334e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>51</v>
+        <v>50.859375</v>
       </c>
       <c r="AH18" t="n">
-        <v>2506654.994141864</v>
+        <v>2833629.608276607</v>
       </c>
     </row>
     <row r="19">
@@ -8929,28 +8929,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>2010.106825184217</v>
+        <v>2264.574212794496</v>
       </c>
       <c r="AB19" t="n">
-        <v>2750.316837871477</v>
+        <v>3098.490343908866</v>
       </c>
       <c r="AC19" t="n">
-        <v>2487.830458958948</v>
+        <v>2802.774774244598</v>
       </c>
       <c r="AD19" t="n">
-        <v>2010106.825184217</v>
+        <v>2264574.212794496</v>
       </c>
       <c r="AE19" t="n">
-        <v>2750316.837871477</v>
+        <v>3098490.343908866</v>
       </c>
       <c r="AF19" t="n">
         <v>3.095201862957989e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>51</v>
+        <v>50.70963541666666</v>
       </c>
       <c r="AH19" t="n">
-        <v>2487830.458958948</v>
+        <v>2802774.774244598</v>
       </c>
     </row>
     <row r="20">
@@ -9035,28 +9035,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>1996.947051303753</v>
+        <v>2251.414438914032</v>
       </c>
       <c r="AB20" t="n">
-        <v>2732.311054679977</v>
+        <v>3080.484560717365</v>
       </c>
       <c r="AC20" t="n">
-        <v>2471.543122443969</v>
+        <v>2786.487437729619</v>
       </c>
       <c r="AD20" t="n">
-        <v>1996947.051303753</v>
+        <v>2251414.438914032</v>
       </c>
       <c r="AE20" t="n">
-        <v>2732311.054679977</v>
+        <v>3080484.560717365</v>
       </c>
       <c r="AF20" t="n">
         <v>3.101710971946218e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>51</v>
+        <v>50.59895833333334</v>
       </c>
       <c r="AH20" t="n">
-        <v>2471543.122443969</v>
+        <v>2786487.437729619</v>
       </c>
     </row>
     <row r="21">
@@ -9141,28 +9141,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>1985.03265888709</v>
+        <v>2239.500046497369</v>
       </c>
       <c r="AB21" t="n">
-        <v>2716.009257349602</v>
+        <v>3064.182763386989</v>
       </c>
       <c r="AC21" t="n">
-        <v>2456.79714577109</v>
+        <v>2771.741461056738</v>
       </c>
       <c r="AD21" t="n">
-        <v>1985032.65888709</v>
+        <v>2239500.046497369</v>
       </c>
       <c r="AE21" t="n">
-        <v>2716009.257349602</v>
+        <v>3064182.763386989</v>
       </c>
       <c r="AF21" t="n">
         <v>3.106050377938369e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>51</v>
+        <v>50.53385416666666</v>
       </c>
       <c r="AH21" t="n">
-        <v>2456797.145771089</v>
+        <v>2771741.461056738</v>
       </c>
     </row>
     <row r="22">
@@ -9247,28 +9247,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>1969.542432005195</v>
+        <v>2223.908334388988</v>
       </c>
       <c r="AB22" t="n">
-        <v>2694.814845549213</v>
+        <v>3042.84949502251</v>
       </c>
       <c r="AC22" t="n">
-        <v>2437.625498886386</v>
+        <v>2752.444209883535</v>
       </c>
       <c r="AD22" t="n">
-        <v>1969542.432005194</v>
+        <v>2223908.334388988</v>
       </c>
       <c r="AE22" t="n">
-        <v>2694814.845549213</v>
+        <v>3042849.49502251</v>
       </c>
       <c r="AF22" t="n">
         <v>3.113041643147948e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>51</v>
+        <v>50.41666666666666</v>
       </c>
       <c r="AH22" t="n">
-        <v>2437625.498886385</v>
+        <v>2752444.209883535</v>
       </c>
     </row>
     <row r="23">
@@ -9353,28 +9353,28 @@
         <v>10</v>
       </c>
       <c r="AA23" t="n">
-        <v>1959.685740634991</v>
+        <v>2214.051643018784</v>
       </c>
       <c r="AB23" t="n">
-        <v>2681.328485569967</v>
+        <v>3029.363135043262</v>
       </c>
       <c r="AC23" t="n">
-        <v>2425.426258175334</v>
+        <v>2740.244969172482</v>
       </c>
       <c r="AD23" t="n">
-        <v>1959685.740634991</v>
+        <v>2214051.643018784</v>
       </c>
       <c r="AE23" t="n">
-        <v>2681328.485569966</v>
+        <v>3029363.135043263</v>
       </c>
       <c r="AF23" t="n">
         <v>3.115693502365375e-06</v>
       </c>
       <c r="AG23" t="n">
-        <v>51</v>
+        <v>50.37109375</v>
       </c>
       <c r="AH23" t="n">
-        <v>2425426.258175333</v>
+        <v>2740244.969172482</v>
       </c>
     </row>
     <row r="24">
@@ -9459,28 +9459,28 @@
         <v>10</v>
       </c>
       <c r="AA24" t="n">
-        <v>1946.876856853285</v>
+        <v>2201.242759237079</v>
       </c>
       <c r="AB24" t="n">
-        <v>2663.802805691767</v>
+        <v>3011.837455165062</v>
       </c>
       <c r="AC24" t="n">
-        <v>2409.573204587264</v>
+        <v>2724.391915584412</v>
       </c>
       <c r="AD24" t="n">
-        <v>1946876.856853285</v>
+        <v>2201242.759237079</v>
       </c>
       <c r="AE24" t="n">
-        <v>2663802.805691767</v>
+        <v>3011837.455165062</v>
       </c>
       <c r="AF24" t="n">
         <v>3.121720455132253e-06</v>
       </c>
       <c r="AG24" t="n">
-        <v>51</v>
+        <v>50.27994791666666</v>
       </c>
       <c r="AH24" t="n">
-        <v>2409573.204587264</v>
+        <v>2724391.915584412</v>
       </c>
     </row>
     <row r="25">
@@ -9565,28 +9565,28 @@
         <v>10</v>
       </c>
       <c r="AA25" t="n">
-        <v>1935.428954739789</v>
+        <v>2189.794857123579</v>
       </c>
       <c r="AB25" t="n">
-        <v>2648.139280974283</v>
+        <v>2996.173930447402</v>
       </c>
       <c r="AC25" t="n">
-        <v>2395.404584684921</v>
+        <v>2710.223295682024</v>
       </c>
       <c r="AD25" t="n">
-        <v>1935428.954739789</v>
+        <v>2189794.857123579</v>
       </c>
       <c r="AE25" t="n">
-        <v>2648139.280974283</v>
+        <v>2996173.930447402</v>
       </c>
       <c r="AF25" t="n">
         <v>3.12437231434968e-06</v>
       </c>
       <c r="AG25" t="n">
-        <v>51</v>
+        <v>50.234375</v>
       </c>
       <c r="AH25" t="n">
-        <v>2395404.584684921</v>
+        <v>2710223.295682024</v>
       </c>
     </row>
     <row r="26">
@@ -9671,28 +9671,28 @@
         <v>10</v>
       </c>
       <c r="AA26" t="n">
-        <v>1924.197318229628</v>
+        <v>2178.563220613419</v>
       </c>
       <c r="AB26" t="n">
-        <v>2632.77166039625</v>
+        <v>2980.806309869369</v>
       </c>
       <c r="AC26" t="n">
-        <v>2381.503628246265</v>
+        <v>2696.322339243367</v>
       </c>
       <c r="AD26" t="n">
-        <v>1924197.318229628</v>
+        <v>2178563.220613419</v>
       </c>
       <c r="AE26" t="n">
-        <v>2632771.66039625</v>
+        <v>2980806.309869369</v>
       </c>
       <c r="AF26" t="n">
         <v>3.127747407899132e-06</v>
       </c>
       <c r="AG26" t="n">
-        <v>51</v>
+        <v>50.18229166666666</v>
       </c>
       <c r="AH26" t="n">
-        <v>2381503.628246265</v>
+        <v>2696322.339243367</v>
       </c>
     </row>
     <row r="27">
@@ -9777,28 +9777,28 @@
         <v>10</v>
       </c>
       <c r="AA27" t="n">
-        <v>1924.605958800861</v>
+        <v>2169.251670751865</v>
       </c>
       <c r="AB27" t="n">
-        <v>2633.330780453761</v>
+        <v>2968.065836552204</v>
       </c>
       <c r="AC27" t="n">
-        <v>2382.009386670216</v>
+        <v>2684.797798818226</v>
       </c>
       <c r="AD27" t="n">
-        <v>1924605.958800861</v>
+        <v>2169251.670751865</v>
       </c>
       <c r="AE27" t="n">
-        <v>2633330.780453761</v>
+        <v>2968065.836552204</v>
       </c>
       <c r="AF27" t="n">
         <v>3.129434954673857e-06</v>
       </c>
       <c r="AG27" t="n">
-        <v>51</v>
+        <v>50.15625</v>
       </c>
       <c r="AH27" t="n">
-        <v>2382009.386670216</v>
+        <v>2684797.798818226</v>
       </c>
     </row>
     <row r="28">
@@ -9883,28 +9883,28 @@
         <v>10</v>
       </c>
       <c r="AA28" t="n">
-        <v>1927.206560110684</v>
+        <v>2171.852272061689</v>
       </c>
       <c r="AB28" t="n">
-        <v>2636.889037896294</v>
+        <v>2971.624093994737</v>
       </c>
       <c r="AC28" t="n">
-        <v>2385.228049016479</v>
+        <v>2688.016461164489</v>
       </c>
       <c r="AD28" t="n">
-        <v>1927206.560110684</v>
+        <v>2171852.272061689</v>
       </c>
       <c r="AE28" t="n">
-        <v>2636889.037896294</v>
+        <v>2971624.093994737</v>
       </c>
       <c r="AF28" t="n">
         <v>3.129917110895207e-06</v>
       </c>
       <c r="AG28" t="n">
-        <v>51</v>
+        <v>50.14322916666666</v>
       </c>
       <c r="AH28" t="n">
-        <v>2385228.049016479</v>
+        <v>2688016.461164489</v>
       </c>
     </row>
     <row r="29">
@@ -9989,28 +9989,28 @@
         <v>10</v>
       </c>
       <c r="AA29" t="n">
-        <v>1932.765398829715</v>
+        <v>2177.411110780719</v>
       </c>
       <c r="AB29" t="n">
-        <v>2644.494886270327</v>
+        <v>2979.22994236877</v>
       </c>
       <c r="AC29" t="n">
-        <v>2392.108005896571</v>
+        <v>2694.89641804458</v>
       </c>
       <c r="AD29" t="n">
-        <v>1932765.398829715</v>
+        <v>2177411.110780719</v>
       </c>
       <c r="AE29" t="n">
-        <v>2644494.886270327</v>
+        <v>2979229.94236877</v>
       </c>
       <c r="AF29" t="n">
         <v>3.129676032784533e-06</v>
       </c>
       <c r="AG29" t="n">
-        <v>51</v>
+        <v>50.14973958333334</v>
       </c>
       <c r="AH29" t="n">
-        <v>2392108.005896571</v>
+        <v>2694896.41804458</v>
       </c>
     </row>
     <row r="30">
@@ -10095,28 +10095,28 @@
         <v>10</v>
       </c>
       <c r="AA30" t="n">
-        <v>1936.784172235545</v>
+        <v>2181.42988418655</v>
       </c>
       <c r="AB30" t="n">
-        <v>2649.993549339954</v>
+        <v>2984.728605438397</v>
       </c>
       <c r="AC30" t="n">
-        <v>2397.081884280254</v>
+        <v>2699.870296428264</v>
       </c>
       <c r="AD30" t="n">
-        <v>1936784.172235545</v>
+        <v>2181429.88418655</v>
       </c>
       <c r="AE30" t="n">
-        <v>2649993.549339954</v>
+        <v>2984728.605438397</v>
       </c>
       <c r="AF30" t="n">
         <v>3.129917110895207e-06</v>
       </c>
       <c r="AG30" t="n">
-        <v>51</v>
+        <v>50.14973958333334</v>
       </c>
       <c r="AH30" t="n">
-        <v>2397081.884280254</v>
+        <v>2699870.296428264</v>
       </c>
     </row>
     <row r="31">
@@ -10201,28 +10201,28 @@
         <v>10</v>
       </c>
       <c r="AA31" t="n">
-        <v>1942.909860185468</v>
+        <v>2187.555572136473</v>
       </c>
       <c r="AB31" t="n">
-        <v>2658.374985839318</v>
+        <v>2993.110041937761</v>
       </c>
       <c r="AC31" t="n">
-        <v>2404.663408243539</v>
+        <v>2707.451820391549</v>
       </c>
       <c r="AD31" t="n">
-        <v>1942909.860185469</v>
+        <v>2187555.572136472</v>
       </c>
       <c r="AE31" t="n">
-        <v>2658374.985839318</v>
+        <v>2993110.041937761</v>
       </c>
       <c r="AF31" t="n">
         <v>3.129676032784533e-06</v>
       </c>
       <c r="AG31" t="n">
-        <v>51</v>
+        <v>50.14973958333334</v>
       </c>
       <c r="AH31" t="n">
-        <v>2404663.408243539</v>
+        <v>2707451.820391549</v>
       </c>
     </row>
   </sheetData>
@@ -10498,28 +10498,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>5089.983840153353</v>
+        <v>5564.160932444604</v>
       </c>
       <c r="AB2" t="n">
-        <v>6964.340444337001</v>
+        <v>7613.130461226834</v>
       </c>
       <c r="AC2" t="n">
-        <v>6299.673566842418</v>
+        <v>6886.543975102769</v>
       </c>
       <c r="AD2" t="n">
-        <v>5089983.840153352</v>
+        <v>5564160.932444604</v>
       </c>
       <c r="AE2" t="n">
-        <v>6964340.444337001</v>
+        <v>7613130.461226834</v>
       </c>
       <c r="AF2" t="n">
         <v>1.802171162684555e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>96</v>
+        <v>95.28645833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>6299673.566842418</v>
+        <v>6886543.975102769</v>
       </c>
     </row>
     <row r="3">
@@ -10604,28 +10604,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2885.1674703739</v>
+        <v>3214.170490832311</v>
       </c>
       <c r="AB3" t="n">
-        <v>3947.613417571293</v>
+        <v>4397.76986475139</v>
       </c>
       <c r="AC3" t="n">
-        <v>3570.858733508369</v>
+        <v>3978.052881168122</v>
       </c>
       <c r="AD3" t="n">
-        <v>2885167.470373901</v>
+        <v>3214170.490832311</v>
       </c>
       <c r="AE3" t="n">
-        <v>3947613.417571293</v>
+        <v>4397769.86475139</v>
       </c>
       <c r="AF3" t="n">
         <v>2.593786452382499e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>67</v>
+        <v>66.2109375</v>
       </c>
       <c r="AH3" t="n">
-        <v>3570858.733508369</v>
+        <v>3978052.881168122</v>
       </c>
     </row>
     <row r="4">
@@ -10710,28 +10710,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2446.377279196836</v>
+        <v>2746.304486786142</v>
       </c>
       <c r="AB4" t="n">
-        <v>3347.241319945788</v>
+        <v>3757.61495722404</v>
       </c>
       <c r="AC4" t="n">
-        <v>3027.785306252734</v>
+        <v>3398.993459552151</v>
       </c>
       <c r="AD4" t="n">
-        <v>2446377.279196837</v>
+        <v>2746304.486786142</v>
       </c>
       <c r="AE4" t="n">
-        <v>3347241.319945788</v>
+        <v>3757614.95722404</v>
       </c>
       <c r="AF4" t="n">
         <v>2.888432996398694e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>60</v>
+        <v>59.453125</v>
       </c>
       <c r="AH4" t="n">
-        <v>3027785.306252734</v>
+        <v>3398993.459552151</v>
       </c>
     </row>
     <row r="5">
@@ -10816,28 +10816,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>2254.975433145487</v>
+        <v>2535.575707853357</v>
       </c>
       <c r="AB5" t="n">
-        <v>3085.35687012482</v>
+        <v>3469.286545190589</v>
       </c>
       <c r="AC5" t="n">
-        <v>2790.894740765555</v>
+        <v>3138.182706491715</v>
       </c>
       <c r="AD5" t="n">
-        <v>2254975.433145487</v>
+        <v>2535575.707853357</v>
       </c>
       <c r="AE5" t="n">
-        <v>3085356.87012482</v>
+        <v>3469286.545190589</v>
       </c>
       <c r="AF5" t="n">
         <v>3.04406545921835e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>57</v>
+        <v>56.41276041666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>2790894.740765555</v>
+        <v>3138182.706491715</v>
       </c>
     </row>
     <row r="6">
@@ -10922,28 +10922,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>2145.004391263476</v>
+        <v>2416.025602047725</v>
       </c>
       <c r="AB6" t="n">
-        <v>2934.889639041715</v>
+        <v>3305.712816248879</v>
       </c>
       <c r="AC6" t="n">
-        <v>2654.787891035053</v>
+        <v>2990.220224663039</v>
       </c>
       <c r="AD6" t="n">
-        <v>2145004.391263477</v>
+        <v>2416025.602047726</v>
       </c>
       <c r="AE6" t="n">
-        <v>2934889.639041715</v>
+        <v>3305712.816248879</v>
       </c>
       <c r="AF6" t="n">
         <v>3.137444936910143e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>55</v>
+        <v>54.73958333333334</v>
       </c>
       <c r="AH6" t="n">
-        <v>2654787.891035053</v>
+        <v>2990220.224663039</v>
       </c>
     </row>
     <row r="7">
@@ -11028,28 +11028,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>2073.60378349634</v>
+        <v>2344.590828861808</v>
       </c>
       <c r="AB7" t="n">
-        <v>2837.196177522219</v>
+        <v>3207.972608096129</v>
       </c>
       <c r="AC7" t="n">
-        <v>2566.418156369343</v>
+        <v>2901.808204797147</v>
       </c>
       <c r="AD7" t="n">
-        <v>2073603.78349634</v>
+        <v>2344590.828861808</v>
       </c>
       <c r="AE7" t="n">
-        <v>2837196.177522219</v>
+        <v>3207972.608096129</v>
       </c>
       <c r="AF7" t="n">
         <v>3.200225489708581e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>54</v>
+        <v>53.66536458333334</v>
       </c>
       <c r="AH7" t="n">
-        <v>2566418.156369343</v>
+        <v>2901808.204797147</v>
       </c>
     </row>
     <row r="8">
@@ -11134,28 +11134,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>2017.918616097264</v>
+        <v>2288.871496043951</v>
       </c>
       <c r="AB8" t="n">
-        <v>2761.005274830599</v>
+        <v>3131.734958771257</v>
       </c>
       <c r="AC8" t="n">
-        <v>2497.498806496008</v>
+        <v>2832.84656972363</v>
       </c>
       <c r="AD8" t="n">
-        <v>2017918.616097264</v>
+        <v>2288871.496043951</v>
       </c>
       <c r="AE8" t="n">
-        <v>2761005.274830599</v>
+        <v>3131734.958771257</v>
       </c>
       <c r="AF8" t="n">
         <v>3.246915228554478e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>53</v>
+        <v>52.890625</v>
       </c>
       <c r="AH8" t="n">
-        <v>2497498.806496007</v>
+        <v>2832846.56972363</v>
       </c>
     </row>
     <row r="9">
@@ -11240,28 +11240,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1979.159214002406</v>
+        <v>2240.398390410061</v>
       </c>
       <c r="AB9" t="n">
-        <v>2707.972950940276</v>
+        <v>3065.411917160472</v>
       </c>
       <c r="AC9" t="n">
-        <v>2449.527813166443</v>
+        <v>2772.853306119207</v>
       </c>
       <c r="AD9" t="n">
-        <v>1979159.214002406</v>
+        <v>2240398.390410061</v>
       </c>
       <c r="AE9" t="n">
-        <v>2707972.950940276</v>
+        <v>3065411.917160472</v>
       </c>
       <c r="AF9" t="n">
         <v>3.28437253316531e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>53</v>
+        <v>52.29166666666666</v>
       </c>
       <c r="AH9" t="n">
-        <v>2449527.813166443</v>
+        <v>2772853.306119207</v>
       </c>
     </row>
     <row r="10">
@@ -11346,28 +11346,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1938.720515902351</v>
+        <v>2200.027012117711</v>
       </c>
       <c r="AB10" t="n">
-        <v>2652.64294017033</v>
+        <v>3010.174016321364</v>
       </c>
       <c r="AC10" t="n">
-        <v>2399.478420968223</v>
+        <v>2722.887233009306</v>
       </c>
       <c r="AD10" t="n">
-        <v>1938720.515902351</v>
+        <v>2200027.012117711</v>
       </c>
       <c r="AE10" t="n">
-        <v>2652642.94017033</v>
+        <v>3010174.016321364</v>
       </c>
       <c r="AF10" t="n">
         <v>3.312597403541078e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>52</v>
+        <v>51.84244791666666</v>
       </c>
       <c r="AH10" t="n">
-        <v>2399478.420968223</v>
+        <v>2722887.233009306</v>
       </c>
     </row>
     <row r="11">
@@ -11452,28 +11452,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1912.564092813637</v>
+        <v>2173.870589028994</v>
       </c>
       <c r="AB11" t="n">
-        <v>2616.854568160407</v>
+        <v>2974.385644311265</v>
       </c>
       <c r="AC11" t="n">
-        <v>2367.105640953631</v>
+        <v>2690.514452994667</v>
       </c>
       <c r="AD11" t="n">
-        <v>1912564.092813637</v>
+        <v>2173870.589028995</v>
       </c>
       <c r="AE11" t="n">
-        <v>2616854.568160407</v>
+        <v>2974385.644311265</v>
       </c>
       <c r="AF11" t="n">
         <v>3.333436326528795e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>52</v>
+        <v>51.51692708333334</v>
       </c>
       <c r="AH11" t="n">
-        <v>2367105.640953631</v>
+        <v>2690514.452994667</v>
       </c>
     </row>
     <row r="12">
@@ -11558,28 +11558,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1886.035883040189</v>
+        <v>2137.628675716515</v>
       </c>
       <c r="AB12" t="n">
-        <v>2580.55750120636</v>
+        <v>2924.797859636758</v>
       </c>
       <c r="AC12" t="n">
-        <v>2334.272715126424</v>
+        <v>2645.659256892603</v>
       </c>
       <c r="AD12" t="n">
-        <v>1886035.883040189</v>
+        <v>2137628.675716515</v>
       </c>
       <c r="AE12" t="n">
-        <v>2580557.501206359</v>
+        <v>2924797.859636758</v>
       </c>
       <c r="AF12" t="n">
         <v>3.353483898010649e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>52</v>
+        <v>51.2109375</v>
       </c>
       <c r="AH12" t="n">
-        <v>2334272.715126424</v>
+        <v>2645659.256892603</v>
       </c>
     </row>
     <row r="13">
@@ -11664,28 +11664,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1856.243849108475</v>
+        <v>2117.516179905052</v>
       </c>
       <c r="AB13" t="n">
-        <v>2539.794726049212</v>
+        <v>2897.279055566822</v>
       </c>
       <c r="AC13" t="n">
-        <v>2297.400282019361</v>
+        <v>2620.766808860218</v>
       </c>
       <c r="AD13" t="n">
-        <v>1856243.849108475</v>
+        <v>2117516.179905052</v>
       </c>
       <c r="AE13" t="n">
-        <v>2539794.726049212</v>
+        <v>2897279.055566822</v>
       </c>
       <c r="AF13" t="n">
         <v>3.368783360457327e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>51</v>
+        <v>50.9765625</v>
       </c>
       <c r="AH13" t="n">
-        <v>2297400.282019361</v>
+        <v>2620766.808860218</v>
       </c>
     </row>
     <row r="14">
@@ -11770,28 +11770,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>1837.37019856671</v>
+        <v>2089.03031105074</v>
       </c>
       <c r="AB14" t="n">
-        <v>2513.970964731272</v>
+        <v>2858.303433092512</v>
       </c>
       <c r="AC14" t="n">
-        <v>2274.041104237728</v>
+        <v>2585.510965092226</v>
       </c>
       <c r="AD14" t="n">
-        <v>1837370.19856671</v>
+        <v>2089030.31105074</v>
       </c>
       <c r="AE14" t="n">
-        <v>2513970.964731271</v>
+        <v>2858303.433092512</v>
       </c>
       <c r="AF14" t="n">
         <v>3.379598497704116e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>51</v>
+        <v>50.81380208333334</v>
       </c>
       <c r="AH14" t="n">
-        <v>2274041.104237728</v>
+        <v>2585510.965092226</v>
       </c>
     </row>
     <row r="15">
@@ -11876,28 +11876,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>1815.149504804973</v>
+        <v>2066.809617289003</v>
       </c>
       <c r="AB15" t="n">
-        <v>2483.567631218642</v>
+        <v>2827.900099579882</v>
       </c>
       <c r="AC15" t="n">
-        <v>2246.539422204197</v>
+        <v>2558.009283058695</v>
       </c>
       <c r="AD15" t="n">
-        <v>1815149.504804973</v>
+        <v>2066809.617289003</v>
       </c>
       <c r="AE15" t="n">
-        <v>2483567.631218642</v>
+        <v>2827900.099579882</v>
       </c>
       <c r="AF15" t="n">
         <v>3.392260121797919e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>51</v>
+        <v>50.625</v>
       </c>
       <c r="AH15" t="n">
-        <v>2246539.422204197</v>
+        <v>2558009.283058695</v>
       </c>
     </row>
     <row r="16">
@@ -11982,28 +11982,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>1796.136195861258</v>
+        <v>2047.694823118803</v>
       </c>
       <c r="AB16" t="n">
-        <v>2457.552783113861</v>
+        <v>2801.746394911012</v>
       </c>
       <c r="AC16" t="n">
-        <v>2223.007394690468</v>
+        <v>2534.351651256466</v>
       </c>
       <c r="AD16" t="n">
-        <v>1796136.195861258</v>
+        <v>2047694.823118803</v>
       </c>
       <c r="AE16" t="n">
-        <v>2457552.783113861</v>
+        <v>2801746.394911012</v>
       </c>
       <c r="AF16" t="n">
         <v>3.401756339868271e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>51</v>
+        <v>50.48828125</v>
       </c>
       <c r="AH16" t="n">
-        <v>2223007.394690468</v>
+        <v>2534351.651256466</v>
       </c>
     </row>
     <row r="17">
@@ -12088,28 +12088,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>1773.450659323091</v>
+        <v>2025.009286580636</v>
       </c>
       <c r="AB17" t="n">
-        <v>2426.513431207102</v>
+        <v>2770.707043004253</v>
       </c>
       <c r="AC17" t="n">
-        <v>2194.930394965686</v>
+        <v>2506.274651531685</v>
       </c>
       <c r="AD17" t="n">
-        <v>1773450.659323091</v>
+        <v>2025009.286580636</v>
       </c>
       <c r="AE17" t="n">
-        <v>2426513.431207102</v>
+        <v>2770707.043004253</v>
       </c>
       <c r="AF17" t="n">
         <v>3.41151634177391e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>51</v>
+        <v>50.33854166666666</v>
       </c>
       <c r="AH17" t="n">
-        <v>2194930.394965685</v>
+        <v>2506274.651531685</v>
       </c>
     </row>
     <row r="18">
@@ -12194,28 +12194,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>1756.553378200697</v>
+        <v>2008.112005458242</v>
       </c>
       <c r="AB18" t="n">
-        <v>2403.393825720011</v>
+        <v>2747.587437517162</v>
       </c>
       <c r="AC18" t="n">
-        <v>2174.017292177713</v>
+        <v>2485.361548743712</v>
       </c>
       <c r="AD18" t="n">
-        <v>1756553.378200697</v>
+        <v>2008112.005458242</v>
       </c>
       <c r="AE18" t="n">
-        <v>2403393.825720011</v>
+        <v>2747587.437517162</v>
       </c>
       <c r="AF18" t="n">
         <v>3.420484992173687e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>51</v>
+        <v>50.20833333333334</v>
       </c>
       <c r="AH18" t="n">
-        <v>2174017.292177713</v>
+        <v>2485361.548743712</v>
       </c>
     </row>
     <row r="19">
@@ -12300,28 +12300,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>1751.070908602737</v>
+        <v>2002.629535860282</v>
       </c>
       <c r="AB19" t="n">
-        <v>2395.892468946595</v>
+        <v>2740.086080743745</v>
       </c>
       <c r="AC19" t="n">
-        <v>2167.231854366531</v>
+        <v>2478.57611093253</v>
       </c>
       <c r="AD19" t="n">
-        <v>1751070.908602737</v>
+        <v>2002629.535860282</v>
       </c>
       <c r="AE19" t="n">
-        <v>2395892.468946595</v>
+        <v>2740086.080743745</v>
       </c>
       <c r="AF19" t="n">
         <v>3.422859046691275e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>51</v>
+        <v>50.16927083333334</v>
       </c>
       <c r="AH19" t="n">
-        <v>2167231.854366531</v>
+        <v>2478576.11093253</v>
       </c>
     </row>
     <row r="20">
@@ -12406,28 +12406,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>1754.350761952356</v>
+        <v>2005.909389209901</v>
       </c>
       <c r="AB20" t="n">
-        <v>2400.380108996461</v>
+        <v>2744.573720793612</v>
       </c>
       <c r="AC20" t="n">
-        <v>2171.29120034848</v>
+        <v>2482.635456914479</v>
       </c>
       <c r="AD20" t="n">
-        <v>1754350.761952356</v>
+        <v>2005909.389209901</v>
       </c>
       <c r="AE20" t="n">
-        <v>2400380.108996461</v>
+        <v>2744573.720793612</v>
       </c>
       <c r="AF20" t="n">
         <v>3.4223314790207e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>51</v>
+        <v>50.18229166666666</v>
       </c>
       <c r="AH20" t="n">
-        <v>2171291.20034848</v>
+        <v>2482635.456914479</v>
       </c>
     </row>
     <row r="21">
@@ -12512,28 +12512,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>1758.694888274276</v>
+        <v>2010.253515531821</v>
       </c>
       <c r="AB21" t="n">
-        <v>2406.323934279439</v>
+        <v>2750.517546076589</v>
       </c>
       <c r="AC21" t="n">
-        <v>2176.667755288661</v>
+        <v>2488.012011854661</v>
       </c>
       <c r="AD21" t="n">
-        <v>1758694.888274276</v>
+        <v>2010253.515531821</v>
       </c>
       <c r="AE21" t="n">
-        <v>2406323.934279439</v>
+        <v>2750517.546076589</v>
       </c>
       <c r="AF21" t="n">
         <v>3.421803911350124e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>51</v>
+        <v>50.18880208333334</v>
       </c>
       <c r="AH21" t="n">
-        <v>2176667.755288661</v>
+        <v>2488012.011854661</v>
       </c>
     </row>
     <row r="22">
@@ -12618,28 +12618,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>1764.120551350954</v>
+        <v>2015.679178608499</v>
       </c>
       <c r="AB22" t="n">
-        <v>2413.747565864312</v>
+        <v>2757.941177661462</v>
       </c>
       <c r="AC22" t="n">
-        <v>2183.382885894207</v>
+        <v>2494.727142460205</v>
       </c>
       <c r="AD22" t="n">
-        <v>1764120.551350954</v>
+        <v>2015679.178608499</v>
       </c>
       <c r="AE22" t="n">
-        <v>2413747.565864312</v>
+        <v>2757941.177661462</v>
       </c>
       <c r="AF22" t="n">
         <v>3.422067695185412e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>51</v>
+        <v>50.18229166666666</v>
       </c>
       <c r="AH22" t="n">
-        <v>2183382.885894206</v>
+        <v>2494727.142460206</v>
       </c>
     </row>
   </sheetData>
@@ -12915,28 +12915,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2226.326240393929</v>
+        <v>2544.311134318146</v>
       </c>
       <c r="AB2" t="n">
-        <v>3046.157780688955</v>
+        <v>3481.238741059531</v>
       </c>
       <c r="AC2" t="n">
-        <v>2755.436757409183</v>
+        <v>3148.994201561938</v>
       </c>
       <c r="AD2" t="n">
-        <v>2226326.240393929</v>
+        <v>2544311.134318146</v>
       </c>
       <c r="AE2" t="n">
-        <v>3046157.780688955</v>
+        <v>3481238.741059531</v>
       </c>
       <c r="AF2" t="n">
         <v>3.576549534068125e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>68</v>
+        <v>67.01822916666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>2755436.757409182</v>
+        <v>3148994.201561938</v>
       </c>
     </row>
     <row r="3">
@@ -13021,28 +13021,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1673.984619178559</v>
+        <v>1945.157938985362</v>
       </c>
       <c r="AB3" t="n">
-        <v>2290.419606949361</v>
+        <v>2661.45090643157</v>
       </c>
       <c r="AC3" t="n">
-        <v>2071.825174286222</v>
+        <v>2407.445767291548</v>
       </c>
       <c r="AD3" t="n">
-        <v>1673984.619178559</v>
+        <v>1945157.938985362</v>
       </c>
       <c r="AE3" t="n">
-        <v>2290419.606949362</v>
+        <v>2661450.90643157</v>
       </c>
       <c r="AF3" t="n">
         <v>4.264319199462324e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>57</v>
+        <v>56.2109375</v>
       </c>
       <c r="AH3" t="n">
-        <v>2071825.174286222</v>
+        <v>2407445.767291548</v>
       </c>
     </row>
     <row r="4">
@@ -13127,28 +13127,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1513.87863206167</v>
+        <v>1766.375153807801</v>
       </c>
       <c r="AB4" t="n">
-        <v>2071.355531998391</v>
+        <v>2416.83241241181</v>
       </c>
       <c r="AC4" t="n">
-        <v>1873.668267190212</v>
+        <v>2186.173319016821</v>
       </c>
       <c r="AD4" t="n">
-        <v>1513878.63206167</v>
+        <v>1766375.153807801</v>
       </c>
       <c r="AE4" t="n">
-        <v>2071355.531998391</v>
+        <v>2416832.41241181</v>
       </c>
       <c r="AF4" t="n">
         <v>4.507321329633723e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>54</v>
+        <v>53.18359375</v>
       </c>
       <c r="AH4" t="n">
-        <v>1873668.267190211</v>
+        <v>2186173.319016821</v>
       </c>
     </row>
     <row r="5">
@@ -13233,28 +13233,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1422.407340797709</v>
+        <v>1674.937016932763</v>
       </c>
       <c r="AB5" t="n">
-        <v>1946.200475862474</v>
+        <v>2291.722719573487</v>
       </c>
       <c r="AC5" t="n">
-        <v>1760.457833955682</v>
+        <v>2073.003919670431</v>
       </c>
       <c r="AD5" t="n">
-        <v>1422407.340797709</v>
+        <v>1674937.016932763</v>
       </c>
       <c r="AE5" t="n">
-        <v>1946200.475862474</v>
+        <v>2291722.719573487</v>
       </c>
       <c r="AF5" t="n">
         <v>4.628086024627994e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>52</v>
+        <v>51.79036458333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>1760457.833955682</v>
+        <v>2073003.919670431</v>
       </c>
     </row>
     <row r="6">
@@ -13339,28 +13339,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1370.330564699416</v>
+        <v>1613.47160470582</v>
       </c>
       <c r="AB6" t="n">
-        <v>1874.946733339576</v>
+        <v>2207.623030901976</v>
       </c>
       <c r="AC6" t="n">
-        <v>1696.004448613914</v>
+        <v>1996.930587251074</v>
       </c>
       <c r="AD6" t="n">
-        <v>1370330.564699416</v>
+        <v>1613471.60470582</v>
       </c>
       <c r="AE6" t="n">
-        <v>1874946.733339576</v>
+        <v>2207623.030901975</v>
       </c>
       <c r="AF6" t="n">
         <v>4.698777553405127e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>52</v>
+        <v>51.015625</v>
       </c>
       <c r="AH6" t="n">
-        <v>1696004.448613914</v>
+        <v>1996930.587251074</v>
       </c>
     </row>
     <row r="7">
@@ -13445,28 +13445,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1359.458660567993</v>
+        <v>1611.954171284267</v>
       </c>
       <c r="AB7" t="n">
-        <v>1860.071314472403</v>
+        <v>2205.546811550169</v>
       </c>
       <c r="AC7" t="n">
-        <v>1682.548718845643</v>
+        <v>1995.052519360211</v>
       </c>
       <c r="AD7" t="n">
-        <v>1359458.660567993</v>
+        <v>1611954.171284267</v>
       </c>
       <c r="AE7" t="n">
-        <v>1860071.314472403</v>
+        <v>2205546.811550168</v>
       </c>
       <c r="AF7" t="n">
         <v>4.706141254319412e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>51</v>
+        <v>50.9375</v>
       </c>
       <c r="AH7" t="n">
-        <v>1682548.718845643</v>
+        <v>1995052.519360211</v>
       </c>
     </row>
     <row r="8">
@@ -13551,28 +13551,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1366.143615050449</v>
+        <v>1618.639125766722</v>
       </c>
       <c r="AB8" t="n">
-        <v>1869.217964114677</v>
+        <v>2214.693461192442</v>
       </c>
       <c r="AC8" t="n">
-        <v>1690.822425083461</v>
+        <v>2003.32622559803</v>
       </c>
       <c r="AD8" t="n">
-        <v>1366143.615050449</v>
+        <v>1618639.125766722</v>
       </c>
       <c r="AE8" t="n">
-        <v>1869217.964114677</v>
+        <v>2214693.461192442</v>
       </c>
       <c r="AF8" t="n">
         <v>4.705773069273698e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>51</v>
+        <v>50.9375</v>
       </c>
       <c r="AH8" t="n">
-        <v>1690822.425083461</v>
+        <v>2003326.22559803</v>
       </c>
     </row>
   </sheetData>
@@ -13848,28 +13848,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3005.011019564503</v>
+        <v>3374.661438511133</v>
       </c>
       <c r="AB2" t="n">
-        <v>4111.588648698128</v>
+        <v>4617.360659726472</v>
       </c>
       <c r="AC2" t="n">
-        <v>3719.184398717135</v>
+        <v>4176.68623886839</v>
       </c>
       <c r="AD2" t="n">
-        <v>3005011.019564503</v>
+        <v>3374661.438511133</v>
       </c>
       <c r="AE2" t="n">
-        <v>4111588.648698128</v>
+        <v>4617360.659726472</v>
       </c>
       <c r="AF2" t="n">
         <v>2.758991442358917e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>76</v>
+        <v>75.24088541666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>3719184.398717135</v>
+        <v>4176686.23886839</v>
       </c>
     </row>
     <row r="3">
@@ -13954,28 +13954,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2065.65395234562</v>
+        <v>2350.029570973504</v>
       </c>
       <c r="AB3" t="n">
-        <v>2826.318867820007</v>
+        <v>3215.41413499372</v>
       </c>
       <c r="AC3" t="n">
-        <v>2556.578961838709</v>
+        <v>2908.53952281188</v>
       </c>
       <c r="AD3" t="n">
-        <v>2065653.95234562</v>
+        <v>2350029.570973504</v>
       </c>
       <c r="AE3" t="n">
-        <v>2826318.867820007</v>
+        <v>3215414.13499372</v>
       </c>
       <c r="AF3" t="n">
         <v>3.498081025554106e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>60</v>
+        <v>59.34244791666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>2556578.961838709</v>
+        <v>2908539.52281188</v>
       </c>
     </row>
     <row r="4">
@@ -14060,28 +14060,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1838.489933467969</v>
+        <v>2103.900411838893</v>
       </c>
       <c r="AB4" t="n">
-        <v>2515.503035422393</v>
+        <v>2878.649361013411</v>
       </c>
       <c r="AC4" t="n">
-        <v>2275.426956252364</v>
+        <v>2603.915106208043</v>
       </c>
       <c r="AD4" t="n">
-        <v>1838489.933467969</v>
+        <v>2103900.411838893</v>
       </c>
       <c r="AE4" t="n">
-        <v>2515503.035422393</v>
+        <v>2878649.361013411</v>
       </c>
       <c r="AF4" t="n">
         <v>3.758260965108582e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>56</v>
+        <v>55.234375</v>
       </c>
       <c r="AH4" t="n">
-        <v>2275426.956252364</v>
+        <v>2603915.106208043</v>
       </c>
     </row>
     <row r="5">
@@ -14166,28 +14166,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1725.526655607737</v>
+        <v>1981.454563850182</v>
       </c>
       <c r="AB5" t="n">
-        <v>2360.941695065928</v>
+        <v>2711.113549865692</v>
       </c>
       <c r="AC5" t="n">
-        <v>2135.616733291316</v>
+        <v>2452.368677738275</v>
       </c>
       <c r="AD5" t="n">
-        <v>1725526.655607737</v>
+        <v>1981454.563850182</v>
       </c>
       <c r="AE5" t="n">
-        <v>2360941.695065928</v>
+        <v>2711113.549865692</v>
       </c>
       <c r="AF5" t="n">
         <v>3.891539414537222e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>54</v>
+        <v>53.33984375</v>
       </c>
       <c r="AH5" t="n">
-        <v>2135616.733291315</v>
+        <v>2452368.677738274</v>
       </c>
     </row>
     <row r="6">
@@ -14272,28 +14272,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1654.08050648808</v>
+        <v>1909.974249311744</v>
       </c>
       <c r="AB6" t="n">
-        <v>2263.18592185877</v>
+        <v>2613.311030025286</v>
       </c>
       <c r="AC6" t="n">
-        <v>2047.190633877959</v>
+        <v>2363.900293124738</v>
       </c>
       <c r="AD6" t="n">
-        <v>1654080.50648808</v>
+        <v>1909974.249311744</v>
       </c>
       <c r="AE6" t="n">
-        <v>2263185.92185877</v>
+        <v>2613311.030025286</v>
       </c>
       <c r="AF6" t="n">
         <v>3.975715277334259e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>53</v>
+        <v>52.21354166666666</v>
       </c>
       <c r="AH6" t="n">
-        <v>2047190.633877959</v>
+        <v>2363900.293124738</v>
       </c>
     </row>
     <row r="7">
@@ -14378,28 +14378,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1598.416279616135</v>
+        <v>1854.377342247503</v>
       </c>
       <c r="AB7" t="n">
-        <v>2187.023670920202</v>
+        <v>2537.240889017559</v>
       </c>
       <c r="AC7" t="n">
-        <v>1978.297201274577</v>
+        <v>2295.090179609676</v>
       </c>
       <c r="AD7" t="n">
-        <v>1598416.279616135</v>
+        <v>1854377.342247503</v>
       </c>
       <c r="AE7" t="n">
-        <v>2187023.670920202</v>
+        <v>2537240.889017559</v>
       </c>
       <c r="AF7" t="n">
         <v>4.028962887512687e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>52</v>
+        <v>51.5234375</v>
       </c>
       <c r="AH7" t="n">
-        <v>1978297.201274577</v>
+        <v>2295090.179609676</v>
       </c>
     </row>
     <row r="8">
@@ -14484,28 +14484,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1559.302942254096</v>
+        <v>1805.748280368062</v>
       </c>
       <c r="AB8" t="n">
-        <v>2133.5070771828</v>
+        <v>2470.70446119131</v>
       </c>
       <c r="AC8" t="n">
-        <v>1929.888156132462</v>
+        <v>2234.9038950707</v>
       </c>
       <c r="AD8" t="n">
-        <v>1559302.942254096</v>
+        <v>1805748.280368062</v>
       </c>
       <c r="AE8" t="n">
-        <v>2133507.0771828</v>
+        <v>2470704.46119131</v>
       </c>
       <c r="AF8" t="n">
         <v>4.066905795364382e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>52</v>
+        <v>51.04166666666666</v>
       </c>
       <c r="AH8" t="n">
-        <v>1929888.156132462</v>
+        <v>2234903.8950707</v>
       </c>
     </row>
     <row r="9">
@@ -14590,28 +14590,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1514.54545611408</v>
+        <v>1761.058114035751</v>
       </c>
       <c r="AB9" t="n">
-        <v>2072.267910085099</v>
+        <v>2409.557404024451</v>
       </c>
       <c r="AC9" t="n">
-        <v>1874.493569192855</v>
+        <v>2179.592627219413</v>
       </c>
       <c r="AD9" t="n">
-        <v>1514545.45611408</v>
+        <v>1761058.114035751</v>
       </c>
       <c r="AE9" t="n">
-        <v>2072267.910085099</v>
+        <v>2409557.404024451</v>
       </c>
       <c r="AF9" t="n">
         <v>4.100384831704112e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>51</v>
+        <v>50.625</v>
       </c>
       <c r="AH9" t="n">
-        <v>1874493.569192855</v>
+        <v>2179592.627219413</v>
       </c>
     </row>
     <row r="10">
@@ -14696,28 +14696,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1501.318313745274</v>
+        <v>1747.830971666944</v>
       </c>
       <c r="AB10" t="n">
-        <v>2054.169950355761</v>
+        <v>2391.459444295112</v>
       </c>
       <c r="AC10" t="n">
-        <v>1858.122853339439</v>
+        <v>2163.221911365997</v>
       </c>
       <c r="AD10" t="n">
-        <v>1501318.313745274</v>
+        <v>1747830.971666944</v>
       </c>
       <c r="AE10" t="n">
-        <v>2054169.950355761</v>
+        <v>2391459.444295113</v>
       </c>
       <c r="AF10" t="n">
         <v>4.108674878797759e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>51</v>
+        <v>50.52083333333334</v>
       </c>
       <c r="AH10" t="n">
-        <v>1858122.853339439</v>
+        <v>2163221.911365997</v>
       </c>
     </row>
     <row r="11">
@@ -14802,28 +14802,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1504.081799361244</v>
+        <v>1750.492972056429</v>
       </c>
       <c r="AB11" t="n">
-        <v>2057.951073291913</v>
+        <v>2395.101710667175</v>
       </c>
       <c r="AC11" t="n">
-        <v>1861.543111209404</v>
+        <v>2166.516564947462</v>
       </c>
       <c r="AD11" t="n">
-        <v>1504081.799361244</v>
+        <v>1750492.972056429</v>
       </c>
       <c r="AE11" t="n">
-        <v>2057951.073291913</v>
+        <v>2395101.710667175</v>
       </c>
       <c r="AF11" t="n">
         <v>4.113776446240004e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>51</v>
+        <v>50.46223958333334</v>
       </c>
       <c r="AH11" t="n">
-        <v>1861543.111209404</v>
+        <v>2166516.564947463</v>
       </c>
     </row>
     <row r="12">
@@ -14908,28 +14908,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1510.187236522671</v>
+        <v>1756.598409217856</v>
       </c>
       <c r="AB12" t="n">
-        <v>2066.304801769054</v>
+        <v>2403.455439144316</v>
       </c>
       <c r="AC12" t="n">
-        <v>1869.099571565218</v>
+        <v>2174.073025303277</v>
       </c>
       <c r="AD12" t="n">
-        <v>1510187.236522671</v>
+        <v>1756598.409217856</v>
       </c>
       <c r="AE12" t="n">
-        <v>2066304.801769054</v>
+        <v>2403455.439144316</v>
       </c>
       <c r="AF12" t="n">
         <v>4.113776446240004e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>51</v>
+        <v>50.46223958333334</v>
       </c>
       <c r="AH12" t="n">
-        <v>1869099.571565219</v>
+        <v>2174073.025303277</v>
       </c>
     </row>
   </sheetData>
@@ -15205,28 +15205,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1742.608391343424</v>
+        <v>2038.579842623532</v>
       </c>
       <c r="AB2" t="n">
-        <v>2384.31367949249</v>
+        <v>2789.274876472823</v>
       </c>
       <c r="AC2" t="n">
-        <v>2156.758128326992</v>
+        <v>2523.070397034132</v>
       </c>
       <c r="AD2" t="n">
-        <v>1742608.391343424</v>
+        <v>2038579.842623532</v>
       </c>
       <c r="AE2" t="n">
-        <v>2384313.67949249</v>
+        <v>2789274.876472822</v>
       </c>
       <c r="AF2" t="n">
         <v>4.438031286950151e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>62</v>
+        <v>61.86197916666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>2156758.128326993</v>
+        <v>2523070.397034132</v>
       </c>
     </row>
     <row r="3">
@@ -15311,28 +15311,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1390.643985405296</v>
+        <v>1640.360231759376</v>
       </c>
       <c r="AB3" t="n">
-        <v>1902.740451714235</v>
+        <v>2244.413236679155</v>
       </c>
       <c r="AC3" t="n">
-        <v>1721.145573515624</v>
+        <v>2030.209587424258</v>
       </c>
       <c r="AD3" t="n">
-        <v>1390643.985405297</v>
+        <v>1640360.231759376</v>
       </c>
       <c r="AE3" t="n">
-        <v>1902740.451714235</v>
+        <v>2244413.236679155</v>
       </c>
       <c r="AF3" t="n">
         <v>5.083662786410497e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>55</v>
+        <v>54.00390625</v>
       </c>
       <c r="AH3" t="n">
-        <v>1721145.573515624</v>
+        <v>2030209.587424258</v>
       </c>
     </row>
     <row r="4">
@@ -15417,28 +15417,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1261.967526080389</v>
+        <v>1511.682761404611</v>
       </c>
       <c r="AB4" t="n">
-        <v>1726.67964326116</v>
+        <v>2068.351044890426</v>
       </c>
       <c r="AC4" t="n">
-        <v>1561.887761518414</v>
+        <v>1870.950524115007</v>
       </c>
       <c r="AD4" t="n">
-        <v>1261967.526080389</v>
+        <v>1511682.761404611</v>
       </c>
       <c r="AE4" t="n">
-        <v>1726679.64326116</v>
+        <v>2068351.044890426</v>
       </c>
       <c r="AF4" t="n">
         <v>5.297889306153055e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>52</v>
+        <v>51.82291666666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>1561887.761518414</v>
+        <v>1870950.524115007</v>
       </c>
     </row>
     <row r="5">
@@ -15523,28 +15523,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1257.280001966898</v>
+        <v>1506.99523729112</v>
       </c>
       <c r="AB5" t="n">
-        <v>1720.265965970113</v>
+        <v>2061.937367599379</v>
       </c>
       <c r="AC5" t="n">
-        <v>1556.086196586372</v>
+        <v>1865.148959182965</v>
       </c>
       <c r="AD5" t="n">
-        <v>1257280.001966898</v>
+        <v>1506995.23729112</v>
       </c>
       <c r="AE5" t="n">
-        <v>1720265.965970113</v>
+        <v>2061937.36759938</v>
       </c>
       <c r="AF5" t="n">
         <v>5.317709476286717e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>52</v>
+        <v>51.62760416666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>1556086.196586372</v>
+        <v>1865148.959182965</v>
       </c>
     </row>
     <row r="6">
@@ -15629,28 +15629,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1264.433191871062</v>
+        <v>1514.148427195285</v>
       </c>
       <c r="AB6" t="n">
-        <v>1730.053275973457</v>
+        <v>2071.724677602723</v>
       </c>
       <c r="AC6" t="n">
-        <v>1564.939419459572</v>
+        <v>1874.002182056166</v>
       </c>
       <c r="AD6" t="n">
-        <v>1264433.191871062</v>
+        <v>1514148.427195285</v>
       </c>
       <c r="AE6" t="n">
-        <v>1730053.275973457</v>
+        <v>2071724.677602723</v>
       </c>
       <c r="AF6" t="n">
         <v>5.317709476286717e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>52</v>
+        <v>51.62760416666666</v>
       </c>
       <c r="AH6" t="n">
-        <v>1564939.419459573</v>
+        <v>1874002.182056166</v>
       </c>
     </row>
   </sheetData>
@@ -15926,28 +15926,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>5539.811724747986</v>
+        <v>6034.797272324105</v>
       </c>
       <c r="AB2" t="n">
-        <v>7579.81480104509</v>
+        <v>8257.075864459941</v>
       </c>
       <c r="AC2" t="n">
-        <v>6856.407914769949</v>
+        <v>7469.032132834333</v>
       </c>
       <c r="AD2" t="n">
-        <v>5539811.724747986</v>
+        <v>6034797.272324105</v>
       </c>
       <c r="AE2" t="n">
-        <v>7579814.801045091</v>
+        <v>8257075.86445994</v>
       </c>
       <c r="AF2" t="n">
         <v>1.688104544773996e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>100</v>
+        <v>99.27734375</v>
       </c>
       <c r="AH2" t="n">
-        <v>6856407.914769949</v>
+        <v>7469032.132834333</v>
       </c>
     </row>
     <row r="3">
@@ -16032,28 +16032,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>3031.528201552465</v>
+        <v>3371.170889947356</v>
       </c>
       <c r="AB3" t="n">
-        <v>4147.870626949564</v>
+        <v>4612.584737189377</v>
       </c>
       <c r="AC3" t="n">
-        <v>3752.003675886329</v>
+        <v>4172.366123675186</v>
       </c>
       <c r="AD3" t="n">
-        <v>3031528.201552465</v>
+        <v>3371170.889947356</v>
       </c>
       <c r="AE3" t="n">
-        <v>4147870.626949565</v>
+        <v>4612584.737189377</v>
       </c>
       <c r="AF3" t="n">
         <v>2.483763457231516e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>68</v>
+        <v>67.47395833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>3752003.675886329</v>
+        <v>4172366.123675186</v>
       </c>
     </row>
     <row r="4">
@@ -16138,28 +16138,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2557.414247102704</v>
+        <v>2858.255386121068</v>
       </c>
       <c r="AB4" t="n">
-        <v>3499.166998039902</v>
+        <v>3910.791116619202</v>
       </c>
       <c r="AC4" t="n">
-        <v>3165.211410858568</v>
+        <v>3537.550701278722</v>
       </c>
       <c r="AD4" t="n">
-        <v>2557414.247102704</v>
+        <v>2858255.386121068</v>
       </c>
       <c r="AE4" t="n">
-        <v>3499166.998039902</v>
+        <v>3910791.116619202</v>
       </c>
       <c r="AF4" t="n">
         <v>2.780301492544058e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>61</v>
+        <v>60.2734375</v>
       </c>
       <c r="AH4" t="n">
-        <v>3165211.410858568</v>
+        <v>3537550.701278722</v>
       </c>
     </row>
     <row r="5">
@@ -16244,28 +16244,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>2351.06762818499</v>
+        <v>2632.525075224481</v>
       </c>
       <c r="AB5" t="n">
-        <v>3216.834450666327</v>
+        <v>3601.936946731994</v>
       </c>
       <c r="AC5" t="n">
-        <v>2909.824285550118</v>
+        <v>3258.173139886012</v>
       </c>
       <c r="AD5" t="n">
-        <v>2351067.62818499</v>
+        <v>2632525.075224482</v>
       </c>
       <c r="AE5" t="n">
-        <v>3216834.450666327</v>
+        <v>3601936.946731994</v>
       </c>
       <c r="AF5" t="n">
         <v>2.938866969759791e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>58</v>
+        <v>57.02473958333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>2909824.285550118</v>
+        <v>3258173.139886012</v>
       </c>
     </row>
     <row r="6">
@@ -16350,28 +16350,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>2227.629061121255</v>
+        <v>2499.377579461919</v>
       </c>
       <c r="AB6" t="n">
-        <v>3047.940357484475</v>
+        <v>3419.758668976703</v>
       </c>
       <c r="AC6" t="n">
-        <v>2757.049207577201</v>
+        <v>3093.381701270874</v>
       </c>
       <c r="AD6" t="n">
-        <v>2227629.061121255</v>
+        <v>2499377.579461919</v>
       </c>
       <c r="AE6" t="n">
-        <v>3047940.357484475</v>
+        <v>3419758.668976703</v>
       </c>
       <c r="AF6" t="n">
         <v>3.039257450464558e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>56</v>
+        <v>55.14322916666666</v>
       </c>
       <c r="AH6" t="n">
-        <v>2757049.207577201</v>
+        <v>3093381.701270874</v>
       </c>
     </row>
     <row r="7">
@@ -16456,28 +16456,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>2142.963689310814</v>
+        <v>2414.745362040404</v>
       </c>
       <c r="AB7" t="n">
-        <v>2932.097460600666</v>
+        <v>3303.961135390659</v>
       </c>
       <c r="AC7" t="n">
-        <v>2652.26219418557</v>
+        <v>2988.635721767428</v>
       </c>
       <c r="AD7" t="n">
-        <v>2142963.689310814</v>
+        <v>2414745.362040404</v>
       </c>
       <c r="AE7" t="n">
-        <v>2932097.460600666</v>
+        <v>3303961.135390659</v>
       </c>
       <c r="AF7" t="n">
         <v>3.104125145689175e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>54</v>
+        <v>53.99088541666666</v>
       </c>
       <c r="AH7" t="n">
-        <v>2652262.19418557</v>
+        <v>2988635.721767428</v>
       </c>
     </row>
     <row r="8">
@@ -16562,28 +16562,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>2095.151116921549</v>
+        <v>2357.19070656339</v>
       </c>
       <c r="AB8" t="n">
-        <v>2866.67818971585</v>
+        <v>3225.212316634806</v>
       </c>
       <c r="AC8" t="n">
-        <v>2593.086446697478</v>
+        <v>2917.402579748975</v>
       </c>
       <c r="AD8" t="n">
-        <v>2095151.116921549</v>
+        <v>2357190.706563389</v>
       </c>
       <c r="AE8" t="n">
-        <v>2866678.18971585</v>
+        <v>3225212.316634806</v>
       </c>
       <c r="AF8" t="n">
         <v>3.15045921370676e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>54</v>
+        <v>53.19010416666666</v>
       </c>
       <c r="AH8" t="n">
-        <v>2593086.446697478</v>
+        <v>2917402.579748975</v>
       </c>
     </row>
     <row r="9">
@@ -16668,28 +16668,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>2047.954480061337</v>
+        <v>2310.061389510882</v>
       </c>
       <c r="AB9" t="n">
-        <v>2802.101668995043</v>
+        <v>3160.727905844836</v>
       </c>
       <c r="AC9" t="n">
-        <v>2534.673018480548</v>
+        <v>2859.072470620363</v>
       </c>
       <c r="AD9" t="n">
-        <v>2047954.480061337</v>
+        <v>2310061.389510882</v>
       </c>
       <c r="AE9" t="n">
-        <v>2802101.668995043</v>
+        <v>3160727.905844836</v>
       </c>
       <c r="AF9" t="n">
         <v>3.185981999186908e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>53</v>
+        <v>52.59765625</v>
       </c>
       <c r="AH9" t="n">
-        <v>2534673.018480548</v>
+        <v>2859072.470620363</v>
       </c>
     </row>
     <row r="10">
@@ -16774,28 +16774,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>2015.947345205553</v>
+        <v>2268.312171567347</v>
       </c>
       <c r="AB10" t="n">
-        <v>2758.308095030226</v>
+        <v>3103.604784008984</v>
       </c>
       <c r="AC10" t="n">
-        <v>2495.059041750267</v>
+        <v>2807.401099359721</v>
       </c>
       <c r="AD10" t="n">
-        <v>2015947.345205553</v>
+        <v>2268312.171567347</v>
       </c>
       <c r="AE10" t="n">
-        <v>2758308.095030226</v>
+        <v>3103604.784008984</v>
       </c>
       <c r="AF10" t="n">
         <v>3.215326908931379e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>53</v>
+        <v>52.12239583333334</v>
       </c>
       <c r="AH10" t="n">
-        <v>2495059.041750267</v>
+        <v>2807401.099359721</v>
       </c>
     </row>
     <row r="11">
@@ -16880,28 +16880,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1979.039779201743</v>
+        <v>2241.112523232507</v>
       </c>
       <c r="AB11" t="n">
-        <v>2707.809534976917</v>
+        <v>3066.389025193458</v>
       </c>
       <c r="AC11" t="n">
-        <v>2449.379993393271</v>
+        <v>2773.737160332905</v>
       </c>
       <c r="AD11" t="n">
-        <v>1979039.779201743</v>
+        <v>2241112.523232507</v>
       </c>
       <c r="AE11" t="n">
-        <v>2707809.534976917</v>
+        <v>3066389.025193457</v>
       </c>
       <c r="AF11" t="n">
         <v>3.236949474006252e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>52</v>
+        <v>51.77083333333334</v>
       </c>
       <c r="AH11" t="n">
-        <v>2449379.993393271</v>
+        <v>2773737.160332905</v>
       </c>
     </row>
     <row r="12">
@@ -16986,28 +16986,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1953.11307602643</v>
+        <v>2205.443736969443</v>
       </c>
       <c r="AB12" t="n">
-        <v>2672.335475887036</v>
+        <v>3017.585418232541</v>
       </c>
       <c r="AC12" t="n">
-        <v>2417.291528714774</v>
+        <v>2729.591301124047</v>
       </c>
       <c r="AD12" t="n">
-        <v>1953113.07602643</v>
+        <v>2205443.736969444</v>
       </c>
       <c r="AE12" t="n">
-        <v>2672335.475887036</v>
+        <v>3017585.418232541</v>
       </c>
       <c r="AF12" t="n">
         <v>3.257284981636191e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>52</v>
+        <v>51.45182291666666</v>
       </c>
       <c r="AH12" t="n">
-        <v>2417291.528714774</v>
+        <v>2729591.301124047</v>
       </c>
     </row>
     <row r="13">
@@ -17092,28 +17092,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1933.013598708031</v>
+        <v>2185.344259651042</v>
       </c>
       <c r="AB13" t="n">
-        <v>2644.834484293645</v>
+        <v>2990.084426638973</v>
       </c>
       <c r="AC13" t="n">
-        <v>2392.415193161171</v>
+        <v>2704.714965570399</v>
       </c>
       <c r="AD13" t="n">
-        <v>1933013.598708031</v>
+        <v>2185344.259651042</v>
       </c>
       <c r="AE13" t="n">
-        <v>2644834.484293645</v>
+        <v>2990084.426638972</v>
       </c>
       <c r="AF13" t="n">
         <v>3.272214847997413e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>52</v>
+        <v>51.2109375</v>
       </c>
       <c r="AH13" t="n">
-        <v>2392415.193161171</v>
+        <v>2704714.965570399</v>
       </c>
     </row>
     <row r="14">
@@ -17198,28 +17198,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>1900.706689882036</v>
+        <v>2162.745268494016</v>
       </c>
       <c r="AB14" t="n">
-        <v>2600.630746357692</v>
+        <v>2959.163489940805</v>
       </c>
       <c r="AC14" t="n">
-        <v>2352.43019793349</v>
+        <v>2676.745079672897</v>
       </c>
       <c r="AD14" t="n">
-        <v>1900706.689882036</v>
+        <v>2162745.268494016</v>
       </c>
       <c r="AE14" t="n">
-        <v>2600630.746357692</v>
+        <v>2959163.489940805</v>
       </c>
       <c r="AF14" t="n">
         <v>3.288174360314581e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>51</v>
+        <v>50.97005208333334</v>
       </c>
       <c r="AH14" t="n">
-        <v>2352430.19793349</v>
+        <v>2676745.079672897</v>
       </c>
     </row>
     <row r="15">
@@ -17304,28 +17304,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>1879.980084156926</v>
+        <v>2132.378064907641</v>
       </c>
       <c r="AB15" t="n">
-        <v>2572.271690011288</v>
+        <v>2917.613742287457</v>
       </c>
       <c r="AC15" t="n">
-        <v>2326.777690122601</v>
+        <v>2639.160781620147</v>
       </c>
       <c r="AD15" t="n">
-        <v>1879980.084156926</v>
+        <v>2132378.064907641</v>
       </c>
       <c r="AE15" t="n">
-        <v>2572271.690011288</v>
+        <v>2917613.742287457</v>
       </c>
       <c r="AF15" t="n">
         <v>3.300530111785937e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>51</v>
+        <v>50.77473958333334</v>
       </c>
       <c r="AH15" t="n">
-        <v>2326777.690122601</v>
+        <v>2639160.781620147</v>
       </c>
     </row>
     <row r="16">
@@ -17410,28 +17410,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>1861.73621098486</v>
+        <v>2114.134191735575</v>
       </c>
       <c r="AB16" t="n">
-        <v>2547.309617874387</v>
+        <v>2892.651670150556</v>
       </c>
       <c r="AC16" t="n">
-        <v>2304.197963115957</v>
+        <v>2616.581054613504</v>
       </c>
       <c r="AD16" t="n">
-        <v>1861736.21098486</v>
+        <v>2114134.191735575</v>
       </c>
       <c r="AE16" t="n">
-        <v>2547309.617874387</v>
+        <v>2892651.670150556</v>
       </c>
       <c r="AF16" t="n">
         <v>3.30928210241148e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>51</v>
+        <v>50.63802083333334</v>
       </c>
       <c r="AH16" t="n">
-        <v>2304197.963115958</v>
+        <v>2616581.054613504</v>
       </c>
     </row>
     <row r="17">
@@ -17516,28 +17516,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>1845.113323985255</v>
+        <v>2097.51130473597</v>
       </c>
       <c r="AB17" t="n">
-        <v>2524.56545053151</v>
+        <v>2869.90750280768</v>
       </c>
       <c r="AC17" t="n">
-        <v>2283.624467182646</v>
+        <v>2596.007558680192</v>
       </c>
       <c r="AD17" t="n">
-        <v>1845113.323985255</v>
+        <v>2097511.304735971</v>
       </c>
       <c r="AE17" t="n">
-        <v>2524565.45053151</v>
+        <v>2869907.50280768</v>
       </c>
       <c r="AF17" t="n">
         <v>3.318034093037024e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>51</v>
+        <v>50.5078125</v>
       </c>
       <c r="AH17" t="n">
-        <v>2283624.467182646</v>
+        <v>2596007.558680192</v>
       </c>
     </row>
     <row r="18">
@@ -17622,28 +17622,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>1825.885534965431</v>
+        <v>2078.182030489661</v>
       </c>
       <c r="AB18" t="n">
-        <v>2498.257141324404</v>
+        <v>2843.460337036483</v>
       </c>
       <c r="AC18" t="n">
-        <v>2259.826986082322</v>
+        <v>2572.084473291369</v>
       </c>
       <c r="AD18" t="n">
-        <v>1825885.534965431</v>
+        <v>2078182.030489661</v>
       </c>
       <c r="AE18" t="n">
-        <v>2498257.141324404</v>
+        <v>2843460.337036483</v>
       </c>
       <c r="AF18" t="n">
         <v>3.328073141107501e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>51</v>
+        <v>50.3515625</v>
       </c>
       <c r="AH18" t="n">
-        <v>2259826.986082321</v>
+        <v>2572084.473291369</v>
       </c>
     </row>
     <row r="19">
@@ -17728,28 +17728,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>1811.913756047824</v>
+        <v>2064.210251572054</v>
       </c>
       <c r="AB19" t="n">
-        <v>2479.14033701795</v>
+        <v>2824.34353273003</v>
       </c>
       <c r="AC19" t="n">
-        <v>2242.534662748273</v>
+        <v>2554.79214995732</v>
       </c>
       <c r="AD19" t="n">
-        <v>1811913.756047824</v>
+        <v>2064210.251572054</v>
       </c>
       <c r="AE19" t="n">
-        <v>2479140.33701795</v>
+        <v>2824343.53273003</v>
       </c>
       <c r="AF19" t="n">
         <v>3.332191724931286e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>51</v>
+        <v>50.29296875</v>
       </c>
       <c r="AH19" t="n">
-        <v>2242534.662748273</v>
+        <v>2554792.14995732</v>
       </c>
     </row>
     <row r="20">
@@ -17834,28 +17834,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>1796.846647551957</v>
+        <v>2049.143143076186</v>
       </c>
       <c r="AB20" t="n">
-        <v>2458.524854459991</v>
+        <v>2803.728050172071</v>
       </c>
       <c r="AC20" t="n">
-        <v>2223.886692911634</v>
+        <v>2536.144180120681</v>
       </c>
       <c r="AD20" t="n">
-        <v>1796846.647551957</v>
+        <v>2049143.143076187</v>
       </c>
       <c r="AE20" t="n">
-        <v>2458524.854459991</v>
+        <v>2803728.050172071</v>
       </c>
       <c r="AF20" t="n">
         <v>3.339914069600883e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>51</v>
+        <v>50.17578125</v>
       </c>
       <c r="AH20" t="n">
-        <v>2223886.692911634</v>
+        <v>2536144.180120681</v>
       </c>
     </row>
     <row r="21">
@@ -17940,28 +17940,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>1794.350312250983</v>
+        <v>2037.006209913948</v>
       </c>
       <c r="AB21" t="n">
-        <v>2455.109258370657</v>
+        <v>2787.121762775794</v>
       </c>
       <c r="AC21" t="n">
-        <v>2220.797076519247</v>
+        <v>2521.122773486434</v>
       </c>
       <c r="AD21" t="n">
-        <v>1794350.312250983</v>
+        <v>2037006.209913948</v>
       </c>
       <c r="AE21" t="n">
-        <v>2455109.258370657</v>
+        <v>2787121.762775794</v>
       </c>
       <c r="AF21" t="n">
         <v>3.34171595002379e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>51</v>
+        <v>50.14973958333334</v>
       </c>
       <c r="AH21" t="n">
-        <v>2220797.076519247</v>
+        <v>2521122.773486434</v>
       </c>
     </row>
     <row r="22">
@@ -18046,28 +18046,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>1796.907387220821</v>
+        <v>2039.563284883786</v>
       </c>
       <c r="AB22" t="n">
-        <v>2458.607961154577</v>
+        <v>2790.620465559713</v>
       </c>
       <c r="AC22" t="n">
-        <v>2223.961868019929</v>
+        <v>2524.287564987116</v>
       </c>
       <c r="AD22" t="n">
-        <v>1796907.387220821</v>
+        <v>2039563.284883786</v>
       </c>
       <c r="AE22" t="n">
-        <v>2458607.961154577</v>
+        <v>2790620.465559713</v>
       </c>
       <c r="AF22" t="n">
         <v>3.34171595002379e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>51</v>
+        <v>50.14973958333334</v>
       </c>
       <c r="AH22" t="n">
-        <v>2223961.868019929</v>
+        <v>2524287.564987116</v>
       </c>
     </row>
     <row r="23">
@@ -18152,28 +18152,28 @@
         <v>10</v>
       </c>
       <c r="AA23" t="n">
-        <v>1803.191908528307</v>
+        <v>2045.847806191272</v>
       </c>
       <c r="AB23" t="n">
-        <v>2467.206720460991</v>
+        <v>2799.219224866128</v>
       </c>
       <c r="AC23" t="n">
-        <v>2231.739973806574</v>
+        <v>2532.06567077376</v>
       </c>
       <c r="AD23" t="n">
-        <v>1803191.908528307</v>
+        <v>2045847.806191272</v>
       </c>
       <c r="AE23" t="n">
-        <v>2467206.720460991</v>
+        <v>2799219.224866128</v>
       </c>
       <c r="AF23" t="n">
         <v>3.341201127045816e-06</v>
       </c>
       <c r="AG23" t="n">
-        <v>51</v>
+        <v>50.15625</v>
       </c>
       <c r="AH23" t="n">
-        <v>2231739.973806574</v>
+        <v>2532065.67077376</v>
       </c>
     </row>
   </sheetData>
@@ -18449,28 +18449,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1507.850713720961</v>
+        <v>1783.43477938833</v>
       </c>
       <c r="AB2" t="n">
-        <v>2063.107868191643</v>
+        <v>2440.174144748653</v>
       </c>
       <c r="AC2" t="n">
-        <v>1866.207748841512</v>
+        <v>2207.287349179763</v>
       </c>
       <c r="AD2" t="n">
-        <v>1507850.713720961</v>
+        <v>1783434.77938833</v>
       </c>
       <c r="AE2" t="n">
-        <v>2063107.868191643</v>
+        <v>2440174.144748653</v>
       </c>
       <c r="AF2" t="n">
         <v>5.074738109356448e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>60</v>
+        <v>59.19921875</v>
       </c>
       <c r="AH2" t="n">
-        <v>1866207.748841512</v>
+        <v>2207287.349179763</v>
       </c>
     </row>
     <row r="3">
@@ -18555,28 +18555,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1220.285784305452</v>
+        <v>1477.489802216707</v>
       </c>
       <c r="AB3" t="n">
-        <v>1669.648845296024</v>
+        <v>2021.56672964264</v>
       </c>
       <c r="AC3" t="n">
-        <v>1510.299902867843</v>
+        <v>1828.631238252271</v>
       </c>
       <c r="AD3" t="n">
-        <v>1220285.784305452</v>
+        <v>1477489.802216707</v>
       </c>
       <c r="AE3" t="n">
-        <v>1669648.845296024</v>
+        <v>2021566.72964264</v>
       </c>
       <c r="AF3" t="n">
         <v>5.685663119066208e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>53</v>
+        <v>52.83854166666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>1510299.902867843</v>
+        <v>1828631.238252271</v>
       </c>
     </row>
     <row r="4">
@@ -18661,28 +18661,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1200.630282044285</v>
+        <v>1448.611627203488</v>
       </c>
       <c r="AB4" t="n">
-        <v>1642.755319962736</v>
+        <v>1982.054336574388</v>
       </c>
       <c r="AC4" t="n">
-        <v>1485.973057847064</v>
+        <v>1792.889852522461</v>
       </c>
       <c r="AD4" t="n">
-        <v>1200630.282044285</v>
+        <v>1448611.627203488</v>
       </c>
       <c r="AE4" t="n">
-        <v>1642755.319962736</v>
+        <v>1982054.336574388</v>
       </c>
       <c r="AF4" t="n">
         <v>5.748416745441229e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>53</v>
+        <v>52.25911458333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>1485973.057847064</v>
+        <v>1792889.852522461</v>
       </c>
     </row>
   </sheetData>
@@ -18958,28 +18958,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3930.421293861393</v>
+        <v>4352.10883885666</v>
       </c>
       <c r="AB2" t="n">
-        <v>5377.775812211137</v>
+        <v>5954.747314815208</v>
       </c>
       <c r="AC2" t="n">
-        <v>4864.528436449261</v>
+        <v>5386.434588629366</v>
       </c>
       <c r="AD2" t="n">
-        <v>3930421.293861393</v>
+        <v>4352108.83885666</v>
       </c>
       <c r="AE2" t="n">
-        <v>5377775.812211137</v>
+        <v>5954747.314815207</v>
       </c>
       <c r="AF2" t="n">
         <v>2.2100148374267e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>85</v>
+        <v>84.49869791666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>4864528.43644926</v>
+        <v>5386434.588629366</v>
       </c>
     </row>
     <row r="3">
@@ -19064,28 +19064,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2460.131618785816</v>
+        <v>2766.927654442013</v>
       </c>
       <c r="AB3" t="n">
-        <v>3366.060614170067</v>
+        <v>3785.832485040748</v>
       </c>
       <c r="AC3" t="n">
-        <v>3044.808513449292</v>
+        <v>3424.517946117582</v>
       </c>
       <c r="AD3" t="n">
-        <v>2460131.618785816</v>
+        <v>2766927.654442013</v>
       </c>
       <c r="AE3" t="n">
-        <v>3366060.614170067</v>
+        <v>3785832.485040748</v>
       </c>
       <c r="AF3" t="n">
         <v>2.980436622414126e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>63</v>
+        <v>62.65625</v>
       </c>
       <c r="AH3" t="n">
-        <v>3044808.513449292</v>
+        <v>3424517.946117582</v>
       </c>
     </row>
     <row r="4">
@@ -19170,28 +19170,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2140.715481757963</v>
+        <v>2418.678866255679</v>
       </c>
       <c r="AB4" t="n">
-        <v>2929.021363842938</v>
+        <v>3309.343129391957</v>
       </c>
       <c r="AC4" t="n">
-        <v>2649.479675785071</v>
+        <v>2993.504065814916</v>
       </c>
       <c r="AD4" t="n">
-        <v>2140715.481757963</v>
+        <v>2418678.866255679</v>
       </c>
       <c r="AE4" t="n">
-        <v>2929021.363842938</v>
+        <v>3309343.129391957</v>
       </c>
       <c r="AF4" t="n">
         <v>3.260668224771801e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>58</v>
+        <v>57.265625</v>
       </c>
       <c r="AH4" t="n">
-        <v>2649479.675785071</v>
+        <v>2993504.065814917</v>
       </c>
     </row>
     <row r="5">
@@ -19276,28 +19276,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1989.648937553109</v>
+        <v>2267.611311020968</v>
       </c>
       <c r="AB5" t="n">
-        <v>2722.32545347629</v>
+        <v>3102.645835689642</v>
       </c>
       <c r="AC5" t="n">
-        <v>2462.510533004283</v>
+        <v>2806.533671722086</v>
       </c>
       <c r="AD5" t="n">
-        <v>1989648.937553109</v>
+        <v>2267611.311020968</v>
       </c>
       <c r="AE5" t="n">
-        <v>2722325.45347629</v>
+        <v>3102645.835689642</v>
       </c>
       <c r="AF5" t="n">
         <v>3.404082555558739e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>55</v>
+        <v>54.85677083333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>2462510.533004283</v>
+        <v>2806533.671722086</v>
       </c>
     </row>
     <row r="6">
@@ -19382,28 +19382,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1906.611788844752</v>
+        <v>2174.918398721311</v>
       </c>
       <c r="AB6" t="n">
-        <v>2608.710363273061</v>
+        <v>2975.819303758393</v>
       </c>
       <c r="AC6" t="n">
-        <v>2359.738707550271</v>
+        <v>2691.811285996317</v>
       </c>
       <c r="AD6" t="n">
-        <v>1906611.788844753</v>
+        <v>2174918.398721311</v>
       </c>
       <c r="AE6" t="n">
-        <v>2608710.363273061</v>
+        <v>2975819.303758394</v>
       </c>
       <c r="AF6" t="n">
         <v>3.491852126000344e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>54</v>
+        <v>53.4765625</v>
       </c>
       <c r="AH6" t="n">
-        <v>2359738.70755027</v>
+        <v>2691811.285996316</v>
       </c>
     </row>
     <row r="7">
@@ -19488,28 +19488,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1846.051572828346</v>
+        <v>2104.905389566577</v>
       </c>
       <c r="AB7" t="n">
-        <v>2525.849203991244</v>
+        <v>2880.024415876916</v>
       </c>
       <c r="AC7" t="n">
-        <v>2284.785701013943</v>
+        <v>2605.158927765278</v>
       </c>
       <c r="AD7" t="n">
-        <v>1846051.572828346</v>
+        <v>2104905.389566578</v>
       </c>
       <c r="AE7" t="n">
-        <v>2525849.203991245</v>
+        <v>2880024.415876917</v>
       </c>
       <c r="AF7" t="n">
         <v>3.550652001622988e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>53</v>
+        <v>52.59114583333334</v>
       </c>
       <c r="AH7" t="n">
-        <v>2284785.701013943</v>
+        <v>2605158.927765278</v>
       </c>
     </row>
     <row r="8">
@@ -19594,28 +19594,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1794.296335391399</v>
+        <v>2053.11598671085</v>
       </c>
       <c r="AB8" t="n">
-        <v>2455.035404850084</v>
+        <v>2809.163870102509</v>
       </c>
       <c r="AC8" t="n">
-        <v>2220.730271475023</v>
+        <v>2541.061213026178</v>
       </c>
       <c r="AD8" t="n">
-        <v>1794296.335391399</v>
+        <v>2053115.98671085</v>
       </c>
       <c r="AE8" t="n">
-        <v>2455035.404850084</v>
+        <v>2809163.870102508</v>
       </c>
       <c r="AF8" t="n">
         <v>3.594536786843791e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>52</v>
+        <v>51.94661458333334</v>
       </c>
       <c r="AH8" t="n">
-        <v>2220730.271475023</v>
+        <v>2541061.213026179</v>
       </c>
     </row>
     <row r="9">
@@ -19700,28 +19700,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1757.369429307246</v>
+        <v>2006.56748245418</v>
       </c>
       <c r="AB9" t="n">
-        <v>2404.510382845626</v>
+        <v>2745.47415300346</v>
       </c>
       <c r="AC9" t="n">
-        <v>2175.027286658356</v>
+        <v>2483.449953137983</v>
       </c>
       <c r="AD9" t="n">
-        <v>1757369.429307246</v>
+        <v>2006567.48245418</v>
       </c>
       <c r="AE9" t="n">
-        <v>2404510.382845626</v>
+        <v>2745474.15300346</v>
       </c>
       <c r="AF9" t="n">
         <v>3.629529883555803e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>52</v>
+        <v>51.45182291666666</v>
       </c>
       <c r="AH9" t="n">
-        <v>2175027.286658356</v>
+        <v>2483449.953137984</v>
       </c>
     </row>
     <row r="10">
@@ -19806,28 +19806,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1730.70604478846</v>
+        <v>1979.904097935394</v>
       </c>
       <c r="AB10" t="n">
-        <v>2368.028363841517</v>
+        <v>2708.992133999351</v>
       </c>
       <c r="AC10" t="n">
-        <v>2142.027060345165</v>
+        <v>2450.449726824791</v>
       </c>
       <c r="AD10" t="n">
-        <v>1730706.04478846</v>
+        <v>1979904.097935394</v>
       </c>
       <c r="AE10" t="n">
-        <v>2368028.363841517</v>
+        <v>2708992.13399935</v>
       </c>
       <c r="AF10" t="n">
         <v>3.653336662466435e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>52</v>
+        <v>51.11328125</v>
       </c>
       <c r="AH10" t="n">
-        <v>2142027.060345165</v>
+        <v>2450449.726824792</v>
       </c>
     </row>
     <row r="11">
@@ -19912,28 +19912,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1690.291772454663</v>
+        <v>1939.557145409301</v>
       </c>
       <c r="AB11" t="n">
-        <v>2312.731773482555</v>
+        <v>2653.78765357123</v>
       </c>
       <c r="AC11" t="n">
-        <v>2092.00789896081</v>
+        <v>2400.513884528756</v>
       </c>
       <c r="AD11" t="n">
-        <v>1690291.772454663</v>
+        <v>1939557.145409301</v>
       </c>
       <c r="AE11" t="n">
-        <v>2312731.773482555</v>
+        <v>2653787.65357123</v>
       </c>
       <c r="AF11" t="n">
         <v>3.676569784053919e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>51</v>
+        <v>50.78776041666666</v>
       </c>
       <c r="AH11" t="n">
-        <v>2092007.89896081</v>
+        <v>2400513.884528756</v>
       </c>
     </row>
     <row r="12">
@@ -20018,28 +20018,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1664.408597604409</v>
+        <v>1913.673970559048</v>
       </c>
       <c r="AB12" t="n">
-        <v>2277.317271767353</v>
+        <v>2618.373151856028</v>
       </c>
       <c r="AC12" t="n">
-        <v>2059.973307584742</v>
+        <v>2368.479293152687</v>
       </c>
       <c r="AD12" t="n">
-        <v>1664408.597604409</v>
+        <v>1913673.970559048</v>
       </c>
       <c r="AE12" t="n">
-        <v>2277317.271767353</v>
+        <v>2618373.151856028</v>
       </c>
       <c r="AF12" t="n">
         <v>3.693492675086778e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>51</v>
+        <v>50.55989583333334</v>
       </c>
       <c r="AH12" t="n">
-        <v>2059973.307584742</v>
+        <v>2368479.293152687</v>
       </c>
     </row>
     <row r="13">
@@ -20124,28 +20124,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1637.604564022414</v>
+        <v>1886.768451750567</v>
       </c>
       <c r="AB13" t="n">
-        <v>2240.642810509964</v>
+        <v>2581.559834034549</v>
       </c>
       <c r="AC13" t="n">
-        <v>2026.799005436827</v>
+        <v>2335.179386716274</v>
       </c>
       <c r="AD13" t="n">
-        <v>1637604.564022414</v>
+        <v>1886768.451750567</v>
       </c>
       <c r="AE13" t="n">
-        <v>2240642.810509963</v>
+        <v>2581559.834034549</v>
       </c>
       <c r="AF13" t="n">
         <v>3.708981422811766e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>51</v>
+        <v>50.34505208333334</v>
       </c>
       <c r="AH13" t="n">
-        <v>2026799.005436827</v>
+        <v>2335179.386716274</v>
       </c>
     </row>
     <row r="14">
@@ -20230,28 +20230,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>1629.637453199171</v>
+        <v>1878.801340927324</v>
       </c>
       <c r="AB14" t="n">
-        <v>2229.741857997479</v>
+        <v>2570.658881522065</v>
       </c>
       <c r="AC14" t="n">
-        <v>2016.938424532552</v>
+        <v>2325.318805811999</v>
       </c>
       <c r="AD14" t="n">
-        <v>1629637.453199171</v>
+        <v>1878801.340927324</v>
       </c>
       <c r="AE14" t="n">
-        <v>2229741.857997479</v>
+        <v>2570658.881522065</v>
       </c>
       <c r="AF14" t="n">
         <v>3.713857510058522e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>51</v>
+        <v>50.27994791666666</v>
       </c>
       <c r="AH14" t="n">
-        <v>2016938.424532552</v>
+        <v>2325318.805811998</v>
       </c>
     </row>
     <row r="15">
@@ -20336,28 +20336,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>1629.840514432469</v>
+        <v>1879.004402160622</v>
       </c>
       <c r="AB15" t="n">
-        <v>2230.019695335307</v>
+        <v>2570.936718859893</v>
       </c>
       <c r="AC15" t="n">
-        <v>2017.189745464805</v>
+        <v>2325.570126744252</v>
       </c>
       <c r="AD15" t="n">
-        <v>1629840.514432469</v>
+        <v>1879004.402160622</v>
       </c>
       <c r="AE15" t="n">
-        <v>2230019.695335307</v>
+        <v>2570936.718859893</v>
       </c>
       <c r="AF15" t="n">
         <v>3.716438968012688e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>51</v>
+        <v>50.24739583333334</v>
       </c>
       <c r="AH15" t="n">
-        <v>2017189.745464805</v>
+        <v>2325570.126744252</v>
       </c>
     </row>
   </sheetData>
@@ -20633,28 +20633,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>4671.204763194761</v>
+        <v>5124.636197501921</v>
       </c>
       <c r="AB2" t="n">
-        <v>6391.348436013262</v>
+        <v>7011.753328415425</v>
       </c>
       <c r="AC2" t="n">
-        <v>5781.367111593783</v>
+        <v>6342.561431808797</v>
       </c>
       <c r="AD2" t="n">
-        <v>4671204.76319476</v>
+        <v>5124636.197501921</v>
       </c>
       <c r="AE2" t="n">
-        <v>6391348.436013262</v>
+        <v>7011753.328415425</v>
       </c>
       <c r="AF2" t="n">
         <v>1.926322393287552e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>92</v>
+        <v>91.49739583333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>5781367.111593783</v>
+        <v>6342561.431808798</v>
       </c>
     </row>
     <row r="3">
@@ -20739,28 +20739,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2730.44203024756</v>
+        <v>3058.476608727837</v>
       </c>
       <c r="AB3" t="n">
-        <v>3735.911244385758</v>
+        <v>4184.742626526728</v>
       </c>
       <c r="AC3" t="n">
-        <v>3379.361118605804</v>
+        <v>3785.356663574023</v>
       </c>
       <c r="AD3" t="n">
-        <v>2730442.03024756</v>
+        <v>3058476.608727837</v>
       </c>
       <c r="AE3" t="n">
-        <v>3735911.244385758</v>
+        <v>4184742.626526727</v>
       </c>
       <c r="AF3" t="n">
         <v>2.714178776206283e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>65</v>
+        <v>64.94140625</v>
       </c>
       <c r="AH3" t="n">
-        <v>3379361.118605804</v>
+        <v>3785356.663574023</v>
       </c>
     </row>
     <row r="4">
@@ -20845,28 +20845,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2340.785910206368</v>
+        <v>2630.284457790486</v>
       </c>
       <c r="AB4" t="n">
-        <v>3202.766550530591</v>
+        <v>3598.871235109737</v>
       </c>
       <c r="AC4" t="n">
-        <v>2897.099006058917</v>
+        <v>3255.40001547823</v>
       </c>
       <c r="AD4" t="n">
-        <v>2340785.910206368</v>
+        <v>2630284.457790486</v>
       </c>
       <c r="AE4" t="n">
-        <v>3202766.550530591</v>
+        <v>3598871.235109737</v>
       </c>
       <c r="AF4" t="n">
         <v>3.002247226867977e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>59</v>
+        <v>58.7109375</v>
       </c>
       <c r="AH4" t="n">
-        <v>2897099.006058916</v>
+        <v>3255400.01547823</v>
       </c>
     </row>
     <row r="5">
@@ -20951,28 +20951,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>2164.465115637163</v>
+        <v>2444.278407369073</v>
       </c>
       <c r="AB5" t="n">
-        <v>2961.51666067636</v>
+        <v>3344.369550915351</v>
       </c>
       <c r="AC5" t="n">
-        <v>2678.873667096146</v>
+        <v>3025.187614828009</v>
       </c>
       <c r="AD5" t="n">
-        <v>2164465.115637163</v>
+        <v>2444278.407369073</v>
       </c>
       <c r="AE5" t="n">
-        <v>2961516.66067636</v>
+        <v>3344369.550915351</v>
       </c>
       <c r="AF5" t="n">
         <v>3.153320718850332e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>56</v>
+        <v>55.8984375</v>
       </c>
       <c r="AH5" t="n">
-        <v>2678873.667096146</v>
+        <v>3025187.614828009</v>
       </c>
     </row>
     <row r="6">
@@ -21057,28 +21057,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>2069.176336354627</v>
+        <v>2339.271217845402</v>
       </c>
       <c r="AB6" t="n">
-        <v>2831.138349017745</v>
+        <v>3200.694081618807</v>
       </c>
       <c r="AC6" t="n">
-        <v>2560.93847851512</v>
+        <v>2895.224330671344</v>
       </c>
       <c r="AD6" t="n">
-        <v>2069176.336354627</v>
+        <v>2339271.217845402</v>
       </c>
       <c r="AE6" t="n">
-        <v>2831138.349017745</v>
+        <v>3200694.081618807</v>
       </c>
       <c r="AF6" t="n">
         <v>3.245643408395105e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>55</v>
+        <v>54.30989583333334</v>
       </c>
       <c r="AH6" t="n">
-        <v>2560938.47851512</v>
+        <v>2895224.330671344</v>
       </c>
     </row>
     <row r="7">
@@ -21163,28 +21163,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>2000.134303759683</v>
+        <v>2260.612260235808</v>
       </c>
       <c r="AB7" t="n">
-        <v>2736.671994101834</v>
+        <v>3093.069425629059</v>
       </c>
       <c r="AC7" t="n">
-        <v>2475.487859928021</v>
+        <v>2797.871220797108</v>
       </c>
       <c r="AD7" t="n">
-        <v>2000134.303759682</v>
+        <v>2260612.260235808</v>
       </c>
       <c r="AE7" t="n">
-        <v>2736671.994101834</v>
+        <v>3093069.425629058</v>
       </c>
       <c r="AF7" t="n">
         <v>3.308996808258673e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>54</v>
+        <v>53.26822916666666</v>
       </c>
       <c r="AH7" t="n">
-        <v>2475487.859928021</v>
+        <v>2797871.220797108</v>
       </c>
     </row>
     <row r="8">
@@ -21269,28 +21269,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1945.377874876275</v>
+        <v>2205.923151160106</v>
       </c>
       <c r="AB8" t="n">
-        <v>2661.751832420404</v>
+        <v>3018.241373878466</v>
       </c>
       <c r="AC8" t="n">
-        <v>2407.71797332636</v>
+        <v>2730.184653283764</v>
       </c>
       <c r="AD8" t="n">
-        <v>1945377.874876275</v>
+        <v>2205923.151160106</v>
       </c>
       <c r="AE8" t="n">
-        <v>2661751.832420404</v>
+        <v>3018241.373878466</v>
       </c>
       <c r="AF8" t="n">
         <v>3.35637648764382e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>53</v>
+        <v>52.51953125</v>
       </c>
       <c r="AH8" t="n">
-        <v>2407717.97332636</v>
+        <v>2730184.653283765</v>
       </c>
     </row>
     <row r="9">
@@ -21375,28 +21375,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1911.310121408456</v>
+        <v>2162.171152869931</v>
       </c>
       <c r="AB9" t="n">
-        <v>2615.138829162525</v>
+        <v>2958.377959615737</v>
       </c>
       <c r="AC9" t="n">
-        <v>2365.553649677652</v>
+        <v>2676.034519259555</v>
       </c>
       <c r="AD9" t="n">
-        <v>1911310.121408456</v>
+        <v>2162171.15286993</v>
       </c>
       <c r="AE9" t="n">
-        <v>2615138.829162525</v>
+        <v>2958377.959615737</v>
       </c>
       <c r="AF9" t="n">
         <v>3.389136151675836e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>53</v>
+        <v>52.00520833333334</v>
       </c>
       <c r="AH9" t="n">
-        <v>2365553.649677652</v>
+        <v>2676034.519259555</v>
       </c>
     </row>
     <row r="10">
@@ -21481,28 +21481,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1872.483501573092</v>
+        <v>2132.994612438139</v>
       </c>
       <c r="AB10" t="n">
-        <v>2562.014534994204</v>
+        <v>2918.457329818841</v>
       </c>
       <c r="AC10" t="n">
-        <v>2317.49946358434</v>
+        <v>2639.923858341519</v>
       </c>
       <c r="AD10" t="n">
-        <v>1872483.501573092</v>
+        <v>2132994.612438139</v>
       </c>
       <c r="AE10" t="n">
-        <v>2562014.534994204</v>
+        <v>2918457.329818841</v>
       </c>
       <c r="AF10" t="n">
         <v>3.41539803110646e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>52</v>
+        <v>51.60807291666666</v>
       </c>
       <c r="AH10" t="n">
-        <v>2317499.46358434</v>
+        <v>2639923.858341519</v>
       </c>
     </row>
     <row r="11">
@@ -21587,28 +21587,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1843.667511001031</v>
+        <v>2094.494377043725</v>
       </c>
       <c r="AB11" t="n">
-        <v>2522.587225421728</v>
+        <v>2865.779609241692</v>
       </c>
       <c r="AC11" t="n">
-        <v>2281.835041100885</v>
+        <v>2592.273625482608</v>
       </c>
       <c r="AD11" t="n">
-        <v>1843667.511001031</v>
+        <v>2094494.377043725</v>
       </c>
       <c r="AE11" t="n">
-        <v>2522587.225421728</v>
+        <v>2865779.609241692</v>
       </c>
       <c r="AF11" t="n">
         <v>3.437869536186273e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>52</v>
+        <v>51.26953125</v>
       </c>
       <c r="AH11" t="n">
-        <v>2281835.041100885</v>
+        <v>2592273.625482608</v>
       </c>
     </row>
     <row r="12">
@@ -21693,28 +21693,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1807.587500236807</v>
+        <v>2068.064445683073</v>
       </c>
       <c r="AB12" t="n">
-        <v>2473.22096295638</v>
+        <v>2829.61701114777</v>
       </c>
       <c r="AC12" t="n">
-        <v>2237.180225439246</v>
+        <v>2559.562334996244</v>
       </c>
       <c r="AD12" t="n">
-        <v>1807587.500236807</v>
+        <v>2068064.445683073</v>
       </c>
       <c r="AE12" t="n">
-        <v>2473220.96295638</v>
+        <v>2829617.01114777</v>
       </c>
       <c r="AF12" t="n">
         <v>3.458716595115738e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>51</v>
+        <v>50.96354166666666</v>
       </c>
       <c r="AH12" t="n">
-        <v>2237180.225439246</v>
+        <v>2559562.334996244</v>
       </c>
     </row>
     <row r="13">
@@ -21799,28 +21799,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1783.625969162839</v>
+        <v>2034.520155013237</v>
       </c>
       <c r="AB13" t="n">
-        <v>2440.435739032834</v>
+        <v>2783.72023278364</v>
       </c>
       <c r="AC13" t="n">
-        <v>2207.523977272612</v>
+        <v>2518.045880742654</v>
       </c>
       <c r="AD13" t="n">
-        <v>1783625.969162839</v>
+        <v>2034520.155013237</v>
       </c>
       <c r="AE13" t="n">
-        <v>2440435.739032834</v>
+        <v>2783720.23278364</v>
       </c>
       <c r="AF13" t="n">
         <v>3.471982905343579e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>51</v>
+        <v>50.76822916666666</v>
       </c>
       <c r="AH13" t="n">
-        <v>2207523.977272612</v>
+        <v>2518045.880742654</v>
       </c>
     </row>
     <row r="14">
@@ -21905,28 +21905,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>1763.589559870769</v>
+        <v>2014.483745721167</v>
       </c>
       <c r="AB14" t="n">
-        <v>2413.021039895431</v>
+        <v>2756.305533646238</v>
       </c>
       <c r="AC14" t="n">
-        <v>2182.725698544111</v>
+        <v>2493.247602014153</v>
       </c>
       <c r="AD14" t="n">
-        <v>1763589.559870769</v>
+        <v>2014483.745721167</v>
       </c>
       <c r="AE14" t="n">
-        <v>2413021.039895432</v>
+        <v>2756305.533646238</v>
       </c>
       <c r="AF14" t="n">
         <v>3.48524921557142e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>51</v>
+        <v>50.57291666666666</v>
       </c>
       <c r="AH14" t="n">
-        <v>2182725.698544111</v>
+        <v>2493247.602014153</v>
       </c>
     </row>
     <row r="15">
@@ -22011,28 +22011,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>1741.39321234297</v>
+        <v>1992.185912966883</v>
       </c>
       <c r="AB15" t="n">
-        <v>2382.651017974155</v>
+        <v>2725.796655160872</v>
       </c>
       <c r="AC15" t="n">
-        <v>2155.254148890408</v>
+        <v>2465.650448071951</v>
       </c>
       <c r="AD15" t="n">
-        <v>1741393.21234297</v>
+        <v>1992185.912966883</v>
       </c>
       <c r="AE15" t="n">
-        <v>2382651.017974155</v>
+        <v>2725796.655160872</v>
       </c>
       <c r="AF15" t="n">
         <v>3.497432561699029e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>51</v>
+        <v>50.39713541666666</v>
       </c>
       <c r="AH15" t="n">
-        <v>2155254.148890408</v>
+        <v>2465650.448071951</v>
       </c>
     </row>
     <row r="16">
@@ -22117,28 +22117,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>1721.968283663979</v>
+        <v>1972.760984287892</v>
       </c>
       <c r="AB16" t="n">
-        <v>2356.072973588188</v>
+        <v>2699.218610774904</v>
       </c>
       <c r="AC16" t="n">
-        <v>2131.212675758118</v>
+        <v>2441.608974939661</v>
       </c>
       <c r="AD16" t="n">
-        <v>1721968.283663979</v>
+        <v>1972760.984287892</v>
       </c>
       <c r="AE16" t="n">
-        <v>2356072.973588188</v>
+        <v>2699218.610774904</v>
       </c>
       <c r="AF16" t="n">
         <v>3.506908497576058e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>51</v>
+        <v>50.26041666666666</v>
       </c>
       <c r="AH16" t="n">
-        <v>2131212.675758118</v>
+        <v>2441608.974939661</v>
       </c>
     </row>
     <row r="17">
@@ -22223,28 +22223,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>1708.774914853285</v>
+        <v>1959.567615477198</v>
       </c>
       <c r="AB17" t="n">
-        <v>2338.021224331043</v>
+        <v>2681.16686151776</v>
       </c>
       <c r="AC17" t="n">
-        <v>2114.883760114285</v>
+        <v>2425.280059295829</v>
       </c>
       <c r="AD17" t="n">
-        <v>1708774.914853285</v>
+        <v>1959567.615477198</v>
       </c>
       <c r="AE17" t="n">
-        <v>2338021.224331043</v>
+        <v>2681166.86151776</v>
       </c>
       <c r="AF17" t="n">
         <v>3.510969612951928e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>51</v>
+        <v>50.20182291666666</v>
       </c>
       <c r="AH17" t="n">
-        <v>2114883.760114286</v>
+        <v>2425280.059295829</v>
       </c>
     </row>
     <row r="18">
@@ -22329,28 +22329,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>1712.761524185843</v>
+        <v>1963.554224809756</v>
       </c>
       <c r="AB18" t="n">
-        <v>2343.475879096641</v>
+        <v>2686.621516283357</v>
       </c>
       <c r="AC18" t="n">
-        <v>2119.81783028471</v>
+        <v>2430.214129466254</v>
       </c>
       <c r="AD18" t="n">
-        <v>1712761.524185844</v>
+        <v>1963554.224809756</v>
       </c>
       <c r="AE18" t="n">
-        <v>2343475.879096641</v>
+        <v>2686621.516283357</v>
       </c>
       <c r="AF18" t="n">
         <v>3.510157389876755e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>51</v>
+        <v>50.21484375</v>
       </c>
       <c r="AH18" t="n">
-        <v>2119817.830284711</v>
+        <v>2430214.129466254</v>
       </c>
     </row>
     <row r="19">
@@ -22435,28 +22435,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>1717.200718283365</v>
+        <v>1967.993418907278</v>
       </c>
       <c r="AB19" t="n">
-        <v>2349.549780304292</v>
+        <v>2692.695417491008</v>
       </c>
       <c r="AC19" t="n">
-        <v>2125.312046885877</v>
+        <v>2435.708346067421</v>
       </c>
       <c r="AD19" t="n">
-        <v>1717200.718283365</v>
+        <v>1967993.418907278</v>
       </c>
       <c r="AE19" t="n">
-        <v>2349549.780304292</v>
+        <v>2692695.417491009</v>
       </c>
       <c r="AF19" t="n">
         <v>3.510428130901812e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>51</v>
+        <v>50.21484375</v>
       </c>
       <c r="AH19" t="n">
-        <v>2125312.046885877</v>
+        <v>2435708.346067421</v>
       </c>
     </row>
     <row r="20">
@@ -22541,28 +22541,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>1723.055703426465</v>
+        <v>1973.848404050378</v>
       </c>
       <c r="AB20" t="n">
-        <v>2357.560829280795</v>
+        <v>2700.706466467512</v>
       </c>
       <c r="AC20" t="n">
-        <v>2132.558532591641</v>
+        <v>2442.954831773184</v>
       </c>
       <c r="AD20" t="n">
-        <v>1723055.703426465</v>
+        <v>1973848.404050378</v>
       </c>
       <c r="AE20" t="n">
-        <v>2357560.829280795</v>
+        <v>2700706.466467512</v>
       </c>
       <c r="AF20" t="n">
         <v>3.510157389876755e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>51</v>
+        <v>50.21484375</v>
       </c>
       <c r="AH20" t="n">
-        <v>2132558.532591641</v>
+        <v>2442954.831773184</v>
       </c>
     </row>
   </sheetData>
@@ -22838,28 +22838,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>6581.678507104589</v>
+        <v>7118.49878018174</v>
       </c>
       <c r="AB2" t="n">
-        <v>9005.342896583943</v>
+        <v>9739.844077047139</v>
       </c>
       <c r="AC2" t="n">
-        <v>8145.885609611768</v>
+        <v>8810.28702829041</v>
       </c>
       <c r="AD2" t="n">
-        <v>6581678.507104589</v>
+        <v>7118498.780181739</v>
       </c>
       <c r="AE2" t="n">
-        <v>9005342.896583943</v>
+        <v>9739844.077047139</v>
       </c>
       <c r="AF2" t="n">
         <v>1.482122551611146e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>109</v>
+        <v>108.10546875</v>
       </c>
       <c r="AH2" t="n">
-        <v>8145885.609611768</v>
+        <v>8810287.02829041</v>
       </c>
     </row>
     <row r="3">
@@ -22944,28 +22944,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>3346.680064404673</v>
+        <v>3698.006472923171</v>
       </c>
       <c r="AB3" t="n">
-        <v>4579.075309222909</v>
+        <v>5059.775600785194</v>
       </c>
       <c r="AC3" t="n">
-        <v>4142.054788483062</v>
+        <v>4576.877718885721</v>
       </c>
       <c r="AD3" t="n">
-        <v>3346680.064404673</v>
+        <v>3698006.472923171</v>
       </c>
       <c r="AE3" t="n">
-        <v>4579075.309222909</v>
+        <v>5059775.600785194</v>
       </c>
       <c r="AF3" t="n">
         <v>2.286190033529714e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>71</v>
+        <v>70.08463541666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>4142054.788483062</v>
+        <v>4576877.718885721</v>
       </c>
     </row>
     <row r="4">
@@ -23050,28 +23050,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2763.892657717989</v>
+        <v>3076.235046137106</v>
       </c>
       <c r="AB4" t="n">
-        <v>3781.679868628334</v>
+        <v>4209.040504037058</v>
       </c>
       <c r="AC4" t="n">
-        <v>3420.761649587334</v>
+        <v>3807.335585757051</v>
       </c>
       <c r="AD4" t="n">
-        <v>2763892.657717989</v>
+        <v>3076235.046137106</v>
       </c>
       <c r="AE4" t="n">
-        <v>3781679.868628334</v>
+        <v>4209040.504037058</v>
       </c>
       <c r="AF4" t="n">
         <v>2.593099170337934e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>62</v>
+        <v>61.79036458333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>3420761.649587334</v>
+        <v>3807335.585757052</v>
       </c>
     </row>
     <row r="5">
@@ -23156,28 +23156,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>2528.859931207405</v>
+        <v>2821.609329865275</v>
       </c>
       <c r="AB5" t="n">
-        <v>3460.097723304441</v>
+        <v>3860.650365740122</v>
       </c>
       <c r="AC5" t="n">
-        <v>3129.87085286979</v>
+        <v>3492.195313290559</v>
       </c>
       <c r="AD5" t="n">
-        <v>2528859.931207405</v>
+        <v>2821609.329865275</v>
       </c>
       <c r="AE5" t="n">
-        <v>3460097.723304441</v>
+        <v>3860650.365740122</v>
       </c>
       <c r="AF5" t="n">
         <v>2.754798691495111e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>59</v>
+        <v>58.1640625</v>
       </c>
       <c r="AH5" t="n">
-        <v>3129870.85286979</v>
+        <v>3492195.313290559</v>
       </c>
     </row>
     <row r="6">
@@ -23262,28 +23262,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>2393.816058329345</v>
+        <v>2676.802622010444</v>
       </c>
       <c r="AB6" t="n">
-        <v>3275.324738717472</v>
+        <v>3662.519439632053</v>
       </c>
       <c r="AC6" t="n">
-        <v>2962.732342601295</v>
+        <v>3312.973724691749</v>
       </c>
       <c r="AD6" t="n">
-        <v>2393816.058329345</v>
+        <v>2676802.622010444</v>
       </c>
       <c r="AE6" t="n">
-        <v>3275324.738717472</v>
+        <v>3662519.439632053</v>
       </c>
       <c r="AF6" t="n">
         <v>2.855707068472954e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>57</v>
+        <v>56.10677083333334</v>
       </c>
       <c r="AH6" t="n">
-        <v>2962732.342601296</v>
+        <v>3312973.72469175</v>
       </c>
     </row>
     <row r="7">
@@ -23368,28 +23368,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>2298.20096572785</v>
+        <v>2581.220683797872</v>
       </c>
       <c r="AB7" t="n">
-        <v>3144.499950779921</v>
+        <v>3531.740014992095</v>
       </c>
       <c r="AC7" t="n">
-        <v>2844.393288810766</v>
+        <v>3194.67570478936</v>
       </c>
       <c r="AD7" t="n">
-        <v>2298200.965727849</v>
+        <v>2581220.683797872</v>
       </c>
       <c r="AE7" t="n">
-        <v>3144499.950779921</v>
+        <v>3531740.014992096</v>
       </c>
       <c r="AF7" t="n">
         <v>2.924373988416413e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>55</v>
+        <v>54.79166666666666</v>
       </c>
       <c r="AH7" t="n">
-        <v>2844393.288810766</v>
+        <v>3194675.70478936</v>
       </c>
     </row>
     <row r="8">
@@ -23474,28 +23474,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>2229.519631842702</v>
+        <v>2502.810680354734</v>
       </c>
       <c r="AB8" t="n">
-        <v>3050.527119751654</v>
+        <v>3424.455989075975</v>
       </c>
       <c r="AC8" t="n">
-        <v>2759.389092884144</v>
+        <v>3097.630715732601</v>
       </c>
       <c r="AD8" t="n">
-        <v>2229519.631842703</v>
+        <v>2502810.680354734</v>
       </c>
       <c r="AE8" t="n">
-        <v>3050527.119751655</v>
+        <v>3424455.989075975</v>
       </c>
       <c r="AF8" t="n">
         <v>2.978519946794768e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>54</v>
+        <v>53.79557291666666</v>
       </c>
       <c r="AH8" t="n">
-        <v>2759389.092884144</v>
+        <v>3097630.715732601</v>
       </c>
     </row>
     <row r="9">
@@ -23580,28 +23580,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>2188.134153872805</v>
+        <v>2451.629213019145</v>
       </c>
       <c r="AB9" t="n">
-        <v>2993.901682994636</v>
+        <v>3354.427247500438</v>
       </c>
       <c r="AC9" t="n">
-        <v>2708.16790833703</v>
+        <v>3034.28541896708</v>
       </c>
       <c r="AD9" t="n">
-        <v>2188134.153872805</v>
+        <v>2451629.213019145</v>
       </c>
       <c r="AE9" t="n">
-        <v>2993901.682994636</v>
+        <v>3354427.247500438</v>
       </c>
       <c r="AF9" t="n">
         <v>3.015929881674359e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>54</v>
+        <v>53.125</v>
       </c>
       <c r="AH9" t="n">
-        <v>2708167.908337031</v>
+        <v>3034285.41896708</v>
       </c>
     </row>
     <row r="10">
@@ -23686,28 +23686,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>2145.696086319546</v>
+        <v>2409.25846527359</v>
       </c>
       <c r="AB10" t="n">
-        <v>2935.836046732863</v>
+        <v>3296.453721169502</v>
       </c>
       <c r="AC10" t="n">
-        <v>2655.643974904448</v>
+        <v>2981.844804622816</v>
       </c>
       <c r="AD10" t="n">
-        <v>2145696.086319546</v>
+        <v>2409258.46527359</v>
       </c>
       <c r="AE10" t="n">
-        <v>2935836.046732862</v>
+        <v>3296453.721169502</v>
       </c>
       <c r="AF10" t="n">
         <v>3.043987332834051e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>53</v>
+        <v>52.64322916666666</v>
       </c>
       <c r="AH10" t="n">
-        <v>2655643.974904448</v>
+        <v>2981844.804622816</v>
       </c>
     </row>
     <row r="11">
@@ -23792,28 +23792,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>2118.141014058685</v>
+        <v>2381.601907786243</v>
       </c>
       <c r="AB11" t="n">
-        <v>2898.13398122156</v>
+        <v>3258.612799094109</v>
       </c>
       <c r="AC11" t="n">
-        <v>2621.540141610363</v>
+        <v>2947.615367040232</v>
       </c>
       <c r="AD11" t="n">
-        <v>2118141.014058684</v>
+        <v>2381601.907786244</v>
       </c>
       <c r="AE11" t="n">
-        <v>2898133.98122156</v>
+        <v>3258612.799094109</v>
       </c>
       <c r="AF11" t="n">
         <v>3.068599132096939e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>53</v>
+        <v>52.22005208333334</v>
       </c>
       <c r="AH11" t="n">
-        <v>2621540.141610363</v>
+        <v>2947615.367040232</v>
       </c>
     </row>
     <row r="12">
@@ -23898,28 +23898,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>2082.323205076229</v>
+        <v>2345.851418611493</v>
       </c>
       <c r="AB12" t="n">
-        <v>2849.126474801555</v>
+        <v>3209.697402604942</v>
       </c>
       <c r="AC12" t="n">
-        <v>2577.209842820616</v>
+        <v>2903.368387338803</v>
       </c>
       <c r="AD12" t="n">
-        <v>2082323.205076229</v>
+        <v>2345851.418611493</v>
       </c>
       <c r="AE12" t="n">
-        <v>2849126.474801555</v>
+        <v>3209697.402604942</v>
       </c>
       <c r="AF12" t="n">
         <v>3.089026925485137e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>52</v>
+        <v>51.86848958333334</v>
       </c>
       <c r="AH12" t="n">
-        <v>2577209.842820616</v>
+        <v>2903368.387338803</v>
       </c>
     </row>
     <row r="13">
@@ -24004,28 +24004,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>2061.231285284617</v>
+        <v>2324.759498819881</v>
       </c>
       <c r="AB13" t="n">
-        <v>2820.267579632842</v>
+        <v>3180.838507436228</v>
       </c>
       <c r="AC13" t="n">
-        <v>2551.105200103092</v>
+        <v>2877.263744621278</v>
       </c>
       <c r="AD13" t="n">
-        <v>2061231.285284617</v>
+        <v>2324759.498819881</v>
       </c>
       <c r="AE13" t="n">
-        <v>2820267.579632842</v>
+        <v>3180838.507436228</v>
       </c>
       <c r="AF13" t="n">
         <v>3.104286241028128e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>52</v>
+        <v>51.61458333333334</v>
       </c>
       <c r="AH13" t="n">
-        <v>2551105.200103092</v>
+        <v>2877263.744621278</v>
       </c>
     </row>
     <row r="14">
@@ -24110,28 +24110,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>2041.489535645455</v>
+        <v>2295.221759815023</v>
       </c>
       <c r="AB14" t="n">
-        <v>2793.256046832014</v>
+        <v>3140.423669816704</v>
       </c>
       <c r="AC14" t="n">
-        <v>2526.671610081849</v>
+        <v>2840.706042381582</v>
       </c>
       <c r="AD14" t="n">
-        <v>2041489.535645455</v>
+        <v>2295221.759815023</v>
       </c>
       <c r="AE14" t="n">
-        <v>2793256.046832014</v>
+        <v>3140423.669816704</v>
       </c>
       <c r="AF14" t="n">
         <v>3.118068848615346e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>52</v>
+        <v>51.38671875</v>
       </c>
       <c r="AH14" t="n">
-        <v>2526671.61008185</v>
+        <v>2840706.042381582</v>
       </c>
     </row>
     <row r="15">
@@ -24216,28 +24216,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>2023.84276722619</v>
+        <v>2277.574991395759</v>
       </c>
       <c r="AB15" t="n">
-        <v>2769.110959760299</v>
+        <v>3116.278582744987</v>
       </c>
       <c r="AC15" t="n">
-        <v>2504.830896232417</v>
+        <v>2818.865328532148</v>
       </c>
       <c r="AD15" t="n">
-        <v>2023842.76722619</v>
+        <v>2277574.991395759</v>
       </c>
       <c r="AE15" t="n">
-        <v>2769110.959760299</v>
+        <v>3116278.582744987</v>
       </c>
       <c r="AF15" t="n">
         <v>3.130128630254161e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>52</v>
+        <v>51.19140625</v>
       </c>
       <c r="AH15" t="n">
-        <v>2504830.896232417</v>
+        <v>2818865.328532149</v>
       </c>
     </row>
     <row r="16">
@@ -24322,28 +24322,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>1995.349634074654</v>
+        <v>2258.843682191137</v>
       </c>
       <c r="AB16" t="n">
-        <v>2730.12539795405</v>
+        <v>3090.649579124182</v>
       </c>
       <c r="AC16" t="n">
-        <v>2469.566061728377</v>
+        <v>2795.682321046382</v>
       </c>
       <c r="AD16" t="n">
-        <v>1995349.634074654</v>
+        <v>2258843.682191137</v>
       </c>
       <c r="AE16" t="n">
-        <v>2730125.39795405</v>
+        <v>3090649.579124182</v>
       </c>
       <c r="AF16" t="n">
         <v>3.142434529885605e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>51</v>
+        <v>50.98958333333334</v>
       </c>
       <c r="AH16" t="n">
-        <v>2469566.061728376</v>
+        <v>2795682.321046382</v>
       </c>
     </row>
     <row r="17">
@@ -24428,28 +24428,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>1979.781315551667</v>
+        <v>2243.275363668149</v>
       </c>
       <c r="AB17" t="n">
-        <v>2708.824137725157</v>
+        <v>3069.34831889529</v>
       </c>
       <c r="AC17" t="n">
-        <v>2450.297763879224</v>
+        <v>2776.414023197229</v>
       </c>
       <c r="AD17" t="n">
-        <v>1979781.315551667</v>
+        <v>2243275.363668149</v>
       </c>
       <c r="AE17" t="n">
-        <v>2708824.137725158</v>
+        <v>3069348.31889529</v>
       </c>
       <c r="AF17" t="n">
         <v>3.151048659627616e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>51</v>
+        <v>50.85286458333334</v>
       </c>
       <c r="AH17" t="n">
-        <v>2450297.763879224</v>
+        <v>2776414.023197229</v>
       </c>
     </row>
     <row r="18">
@@ -24534,28 +24534,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>1961.658204753483</v>
+        <v>2215.457748730756</v>
       </c>
       <c r="AB18" t="n">
-        <v>2684.027297995863</v>
+        <v>3031.287030911388</v>
       </c>
       <c r="AC18" t="n">
-        <v>2427.86749973111</v>
+        <v>2741.985251119159</v>
       </c>
       <c r="AD18" t="n">
-        <v>1961658.204753483</v>
+        <v>2215457.748730756</v>
       </c>
       <c r="AE18" t="n">
-        <v>2684027.297995863</v>
+        <v>3031287.030911388</v>
       </c>
       <c r="AF18" t="n">
         <v>3.160893379332772e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>51</v>
+        <v>50.69661458333334</v>
       </c>
       <c r="AH18" t="n">
-        <v>2427867.499731109</v>
+        <v>2741985.251119159</v>
       </c>
     </row>
     <row r="19">
@@ -24640,28 +24640,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>1946.204597472142</v>
+        <v>2200.004141449415</v>
       </c>
       <c r="AB19" t="n">
-        <v>2662.882990748496</v>
+        <v>3010.14272366402</v>
       </c>
       <c r="AC19" t="n">
-        <v>2408.741175491209</v>
+        <v>2722.858926879259</v>
       </c>
       <c r="AD19" t="n">
-        <v>1946204.597472142</v>
+        <v>2200004.141449415</v>
       </c>
       <c r="AE19" t="n">
-        <v>2662882.990748496</v>
+        <v>3010142.72366402</v>
       </c>
       <c r="AF19" t="n">
         <v>3.166061857177978e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>51</v>
+        <v>50.61197916666666</v>
       </c>
       <c r="AH19" t="n">
-        <v>2408741.175491209</v>
+        <v>2722858.926879259</v>
       </c>
     </row>
     <row r="20">
@@ -24746,28 +24746,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>1928.503189688039</v>
+        <v>2182.201248438824</v>
       </c>
       <c r="AB20" t="n">
-        <v>2638.66314368729</v>
+        <v>2985.784020038548</v>
       </c>
       <c r="AC20" t="n">
-        <v>2386.832836640756</v>
+        <v>2700.82498374026</v>
       </c>
       <c r="AD20" t="n">
-        <v>1928503.189688039</v>
+        <v>2182201.248438824</v>
       </c>
       <c r="AE20" t="n">
-        <v>2638663.14368729</v>
+        <v>2985784.020038548</v>
       </c>
       <c r="AF20" t="n">
         <v>3.175906576883134e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>51</v>
+        <v>50.45572916666666</v>
       </c>
       <c r="AH20" t="n">
-        <v>2386832.836640756</v>
+        <v>2700824.98374026</v>
       </c>
     </row>
     <row r="21">
@@ -24852,28 +24852,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>1915.241623989665</v>
+        <v>2168.93968274045</v>
       </c>
       <c r="AB21" t="n">
-        <v>2620.518084439788</v>
+        <v>2967.638960791046</v>
       </c>
       <c r="AC21" t="n">
-        <v>2370.419516381085</v>
+        <v>2684.411663480589</v>
       </c>
       <c r="AD21" t="n">
-        <v>1915241.623989665</v>
+        <v>2168939.68274045</v>
       </c>
       <c r="AE21" t="n">
-        <v>2620518.084439788</v>
+        <v>2967638.960791046</v>
       </c>
       <c r="AF21" t="n">
         <v>3.181813408706227e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>51</v>
+        <v>50.35807291666666</v>
       </c>
       <c r="AH21" t="n">
-        <v>2370419.516381085</v>
+        <v>2684411.663480589</v>
       </c>
     </row>
     <row r="22">
@@ -24958,28 +24958,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>1904.37203969049</v>
+        <v>2158.070098441275</v>
       </c>
       <c r="AB22" t="n">
-        <v>2605.645839669441</v>
+        <v>2952.766716020698</v>
       </c>
       <c r="AC22" t="n">
-        <v>2356.966657778293</v>
+        <v>2670.958804877797</v>
       </c>
       <c r="AD22" t="n">
-        <v>1904372.03969049</v>
+        <v>2158070.098441275</v>
       </c>
       <c r="AE22" t="n">
-        <v>2605645.839669441</v>
+        <v>2952766.716020698</v>
       </c>
       <c r="AF22" t="n">
         <v>3.184766824617773e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>51</v>
+        <v>50.3125</v>
       </c>
       <c r="AH22" t="n">
-        <v>2356966.657778293</v>
+        <v>2670958.804877797</v>
       </c>
     </row>
     <row r="23">
@@ -25064,28 +25064,28 @@
         <v>10</v>
       </c>
       <c r="AA23" t="n">
-        <v>1892.857887841934</v>
+        <v>2146.555946592719</v>
       </c>
       <c r="AB23" t="n">
-        <v>2589.891669141717</v>
+        <v>2937.012545492975</v>
       </c>
       <c r="AC23" t="n">
-        <v>2342.716043174618</v>
+        <v>2656.708190274122</v>
       </c>
       <c r="AD23" t="n">
-        <v>1892857.887841934</v>
+        <v>2146555.946592718</v>
       </c>
       <c r="AE23" t="n">
-        <v>2589891.669141717</v>
+        <v>2937012.545492975</v>
       </c>
       <c r="AF23" t="n">
         <v>3.191165892426124e-06</v>
       </c>
       <c r="AG23" t="n">
-        <v>51</v>
+        <v>50.20833333333334</v>
       </c>
       <c r="AH23" t="n">
-        <v>2342716.043174618</v>
+        <v>2656708.190274122</v>
       </c>
     </row>
     <row r="24">
@@ -25170,28 +25170,28 @@
         <v>10</v>
       </c>
       <c r="AA24" t="n">
-        <v>1883.118880616035</v>
+        <v>2136.81693936682</v>
       </c>
       <c r="AB24" t="n">
-        <v>2576.566329800567</v>
+        <v>2923.687206151825</v>
       </c>
       <c r="AC24" t="n">
-        <v>2330.662455517957</v>
+        <v>2644.65460261746</v>
       </c>
       <c r="AD24" t="n">
-        <v>1883118.880616035</v>
+        <v>2136816.93936682</v>
       </c>
       <c r="AE24" t="n">
-        <v>2576566.329800568</v>
+        <v>2923687.206151825</v>
       </c>
       <c r="AF24" t="n">
         <v>3.194119308337672e-06</v>
       </c>
       <c r="AG24" t="n">
-        <v>51</v>
+        <v>50.16276041666666</v>
       </c>
       <c r="AH24" t="n">
-        <v>2330662.455517957</v>
+        <v>2644654.60261746</v>
       </c>
     </row>
     <row r="25">
@@ -25276,28 +25276,28 @@
         <v>10</v>
       </c>
       <c r="AA25" t="n">
-        <v>1877.640940483778</v>
+        <v>2121.644495095353</v>
       </c>
       <c r="AB25" t="n">
-        <v>2569.07117044195</v>
+        <v>2902.927598538604</v>
       </c>
       <c r="AC25" t="n">
-        <v>2323.882623649004</v>
+        <v>2625.876262818553</v>
       </c>
       <c r="AD25" t="n">
-        <v>1877640.940483778</v>
+        <v>2121644.495095353</v>
       </c>
       <c r="AE25" t="n">
-        <v>2569071.17044195</v>
+        <v>2902927.598538604</v>
       </c>
       <c r="AF25" t="n">
         <v>3.196334370271331e-06</v>
       </c>
       <c r="AG25" t="n">
-        <v>51</v>
+        <v>50.13020833333334</v>
       </c>
       <c r="AH25" t="n">
-        <v>2323882.623649004</v>
+        <v>2625876.262818553</v>
       </c>
     </row>
     <row r="26">
@@ -25382,28 +25382,28 @@
         <v>10</v>
       </c>
       <c r="AA26" t="n">
-        <v>1880.153913901103</v>
+        <v>2124.157468512678</v>
       </c>
       <c r="AB26" t="n">
-        <v>2572.509531536098</v>
+        <v>2906.365959632752</v>
       </c>
       <c r="AC26" t="n">
-        <v>2326.992832386096</v>
+        <v>2628.986471555645</v>
       </c>
       <c r="AD26" t="n">
-        <v>1880153.913901103</v>
+        <v>2124157.468512679</v>
       </c>
       <c r="AE26" t="n">
-        <v>2572509.531536098</v>
+        <v>2906365.959632752</v>
       </c>
       <c r="AF26" t="n">
         <v>3.19658048826396e-06</v>
       </c>
       <c r="AG26" t="n">
-        <v>51</v>
+        <v>50.12369791666666</v>
       </c>
       <c r="AH26" t="n">
-        <v>2326992.832386096</v>
+        <v>2628986.471555645</v>
       </c>
     </row>
   </sheetData>
@@ -25679,28 +25679,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3293.310647278185</v>
+        <v>3673.964676201162</v>
       </c>
       <c r="AB2" t="n">
-        <v>4506.052918217931</v>
+        <v>5026.880553860925</v>
       </c>
       <c r="AC2" t="n">
-        <v>4076.001551988033</v>
+        <v>4547.122129071417</v>
       </c>
       <c r="AD2" t="n">
-        <v>3293310.647278185</v>
+        <v>3673964.676201161</v>
       </c>
       <c r="AE2" t="n">
-        <v>4506052.918217931</v>
+        <v>5026880.553860925</v>
       </c>
       <c r="AF2" t="n">
         <v>2.555524369380214e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>79</v>
+        <v>78.17057291666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>4076001.551988033</v>
+        <v>4547122.129071416</v>
       </c>
     </row>
     <row r="3">
@@ -25785,28 +25785,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2195.59246761194</v>
+        <v>2490.568818632062</v>
       </c>
       <c r="AB3" t="n">
-        <v>3004.106476890272</v>
+        <v>3407.706133794192</v>
       </c>
       <c r="AC3" t="n">
-        <v>2717.398771025672</v>
+        <v>3082.479443130342</v>
       </c>
       <c r="AD3" t="n">
-        <v>2195592.46761194</v>
+        <v>2490568.818632062</v>
       </c>
       <c r="AE3" t="n">
-        <v>3004106.476890272</v>
+        <v>3407706.133794192</v>
       </c>
       <c r="AF3" t="n">
         <v>3.306318958391305e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>61</v>
+        <v>60.41666666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>2717398.771025672</v>
+        <v>3082479.443130342</v>
       </c>
     </row>
     <row r="4">
@@ -25891,28 +25891,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1934.011830420144</v>
+        <v>2210.016017269561</v>
       </c>
       <c r="AB4" t="n">
-        <v>2646.200308961033</v>
+        <v>3023.841413853931</v>
       </c>
       <c r="AC4" t="n">
-        <v>2393.650665439251</v>
+        <v>2735.250233303677</v>
       </c>
       <c r="AD4" t="n">
-        <v>1934011.830420144</v>
+        <v>2210016.017269561</v>
       </c>
       <c r="AE4" t="n">
-        <v>2646200.308961033</v>
+        <v>3023841.413853932</v>
       </c>
       <c r="AF4" t="n">
         <v>3.572027219152893e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>56</v>
+        <v>55.92447916666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>2393650.665439251</v>
+        <v>2735250.233303677</v>
       </c>
     </row>
     <row r="5">
@@ -25997,28 +25997,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1812.321233660217</v>
+        <v>2078.805678520425</v>
       </c>
       <c r="AB5" t="n">
-        <v>2479.69786586387</v>
+        <v>2844.313639785583</v>
       </c>
       <c r="AC5" t="n">
-        <v>2243.038981823634</v>
+        <v>2572.856338023712</v>
       </c>
       <c r="AD5" t="n">
-        <v>1812321.233660217</v>
+        <v>2078805.678520425</v>
       </c>
       <c r="AE5" t="n">
-        <v>2479697.865863869</v>
+        <v>2844313.639785583</v>
       </c>
       <c r="AF5" t="n">
         <v>3.710404154029887e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>54</v>
+        <v>53.83463541666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>2243038.981823634</v>
+        <v>2572856.338023712</v>
       </c>
     </row>
     <row r="6">
@@ -26103,28 +26103,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1736.394872797555</v>
+        <v>1993.393741087338</v>
       </c>
       <c r="AB6" t="n">
-        <v>2375.81206929694</v>
+        <v>2727.449258880895</v>
       </c>
       <c r="AC6" t="n">
-        <v>2149.067899876422</v>
+        <v>2467.145329612378</v>
       </c>
       <c r="AD6" t="n">
-        <v>1736394.872797555</v>
+        <v>1993393.741087338</v>
       </c>
       <c r="AE6" t="n">
-        <v>2375812.06929694</v>
+        <v>2727449.258880895</v>
       </c>
       <c r="AF6" t="n">
         <v>3.796621268664998e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>53</v>
+        <v>52.6171875</v>
       </c>
       <c r="AH6" t="n">
-        <v>2149067.899876421</v>
+        <v>2467145.329612378</v>
       </c>
     </row>
     <row r="7">
@@ -26209,28 +26209,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1680.900477067276</v>
+        <v>1937.865179938279</v>
       </c>
       <c r="AB7" t="n">
-        <v>2299.882188818821</v>
+        <v>2651.472631769528</v>
       </c>
       <c r="AC7" t="n">
-        <v>2080.384660622878</v>
+        <v>2398.419805158655</v>
       </c>
       <c r="AD7" t="n">
-        <v>1680900.477067276</v>
+        <v>1937865.179938279</v>
       </c>
       <c r="AE7" t="n">
-        <v>2299882.188818821</v>
+        <v>2651472.631769528</v>
       </c>
       <c r="AF7" t="n">
         <v>3.850008378794924e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>52</v>
+        <v>51.88151041666666</v>
       </c>
       <c r="AH7" t="n">
-        <v>2080384.660622878</v>
+        <v>2398419.805158655</v>
       </c>
     </row>
     <row r="8">
@@ -26315,28 +26315,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1640.690621513846</v>
+        <v>1888.102428006718</v>
       </c>
       <c r="AB8" t="n">
-        <v>2244.865290516988</v>
+        <v>2583.385039199094</v>
       </c>
       <c r="AC8" t="n">
-        <v>2030.61849787827</v>
+        <v>2336.830396861606</v>
       </c>
       <c r="AD8" t="n">
-        <v>1640690.621513846</v>
+        <v>1888102.428006718</v>
       </c>
       <c r="AE8" t="n">
-        <v>2244865.290516988</v>
+        <v>2583385.039199094</v>
       </c>
       <c r="AF8" t="n">
         <v>3.892349879932452e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>52</v>
+        <v>51.32161458333334</v>
       </c>
       <c r="AH8" t="n">
-        <v>2030618.49787827</v>
+        <v>2336830.396861606</v>
       </c>
     </row>
     <row r="9">
@@ -26421,28 +26421,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1598.07120079293</v>
+        <v>1855.001738245152</v>
       </c>
       <c r="AB9" t="n">
-        <v>2186.55151885049</v>
+        <v>2538.095215167949</v>
       </c>
       <c r="AC9" t="n">
-        <v>1977.870110735729</v>
+        <v>2295.862970071327</v>
       </c>
       <c r="AD9" t="n">
-        <v>1598071.20079293</v>
+        <v>1855001.738245151</v>
       </c>
       <c r="AE9" t="n">
-        <v>2186551.51885049</v>
+        <v>2538095.215167949</v>
       </c>
       <c r="AF9" t="n">
         <v>3.922418482189537e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>51</v>
+        <v>50.92447916666666</v>
       </c>
       <c r="AH9" t="n">
-        <v>1977870.110735729</v>
+        <v>2295862.970071327</v>
       </c>
     </row>
     <row r="10">
@@ -26527,28 +26527,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1565.220930597804</v>
+        <v>1812.700056898381</v>
       </c>
       <c r="AB10" t="n">
-        <v>2141.60432991788</v>
+        <v>2480.216188530827</v>
       </c>
       <c r="AC10" t="n">
-        <v>1937.212618431072</v>
+        <v>2243.507836502728</v>
       </c>
       <c r="AD10" t="n">
-        <v>1565220.930597804</v>
+        <v>1812700.056898381</v>
       </c>
       <c r="AE10" t="n">
-        <v>2141604.32991788</v>
+        <v>2480216.188530827</v>
       </c>
       <c r="AF10" t="n">
         <v>3.947271102422434e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>51</v>
+        <v>50.60546875</v>
       </c>
       <c r="AH10" t="n">
-        <v>1937212.618431072</v>
+        <v>2243507.836502728</v>
       </c>
     </row>
     <row r="11">
@@ -26633,28 +26633,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1542.812140890958</v>
+        <v>1790.18978196505</v>
       </c>
       <c r="AB11" t="n">
-        <v>2110.943635234944</v>
+        <v>2449.416637283802</v>
       </c>
       <c r="AC11" t="n">
-        <v>1909.47813741612</v>
+        <v>2215.647751199277</v>
       </c>
       <c r="AD11" t="n">
-        <v>1542812.140890958</v>
+        <v>1790189.78196505</v>
       </c>
       <c r="AE11" t="n">
-        <v>2110943.635234944</v>
+        <v>2449416.637283802</v>
       </c>
       <c r="AF11" t="n">
         <v>3.961078113662932e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>51</v>
+        <v>50.4296875</v>
       </c>
       <c r="AH11" t="n">
-        <v>1909478.13741612</v>
+        <v>2215647.751199277</v>
       </c>
     </row>
     <row r="12">
@@ -26739,28 +26739,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1543.390670304122</v>
+        <v>1790.768311378214</v>
       </c>
       <c r="AB12" t="n">
-        <v>2111.735204700951</v>
+        <v>2450.20820674981</v>
       </c>
       <c r="AC12" t="n">
-        <v>1910.194160603267</v>
+        <v>2216.363774386423</v>
       </c>
       <c r="AD12" t="n">
-        <v>1543390.670304122</v>
+        <v>1790768.311378214</v>
       </c>
       <c r="AE12" t="n">
-        <v>2111735.204700951</v>
+        <v>2450208.206749809</v>
       </c>
       <c r="AF12" t="n">
         <v>3.96598727321511e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>51</v>
+        <v>50.36458333333334</v>
       </c>
       <c r="AH12" t="n">
-        <v>1910194.160603267</v>
+        <v>2216363.774386423</v>
       </c>
     </row>
     <row r="13">
@@ -26845,28 +26845,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1548.540434118492</v>
+        <v>1795.918075192583</v>
       </c>
       <c r="AB13" t="n">
-        <v>2118.781338743317</v>
+        <v>2457.254340792174</v>
       </c>
       <c r="AC13" t="n">
-        <v>1916.56782150194</v>
+        <v>2222.737435285097</v>
       </c>
       <c r="AD13" t="n">
-        <v>1548540.434118492</v>
+        <v>1795918.075192583</v>
       </c>
       <c r="AE13" t="n">
-        <v>2118781.338743317</v>
+        <v>2457254.340792174</v>
       </c>
       <c r="AF13" t="n">
         <v>3.965066805799076e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>51</v>
+        <v>50.37760416666666</v>
       </c>
       <c r="AH13" t="n">
-        <v>1916567.82150194</v>
+        <v>2222737.435285097</v>
       </c>
     </row>
   </sheetData>
@@ -27142,28 +27142,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2466.869329108476</v>
+        <v>2805.234599542201</v>
       </c>
       <c r="AB2" t="n">
-        <v>3375.279446680333</v>
+        <v>3838.245737309973</v>
       </c>
       <c r="AC2" t="n">
-        <v>3053.14751352349</v>
+        <v>3471.928951152691</v>
       </c>
       <c r="AD2" t="n">
-        <v>2466869.329108476</v>
+        <v>2805234.599542201</v>
       </c>
       <c r="AE2" t="n">
-        <v>3375279.446680333</v>
+        <v>3838245.737309973</v>
       </c>
       <c r="AF2" t="n">
         <v>3.261315034684833e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>70</v>
+        <v>69.64192708333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>3053147.513523491</v>
+        <v>3471928.951152691</v>
       </c>
     </row>
     <row r="3">
@@ -27248,28 +27248,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1806.545774594341</v>
+        <v>2079.071357058614</v>
       </c>
       <c r="AB3" t="n">
-        <v>2471.795627974667</v>
+        <v>2844.677152882443</v>
       </c>
       <c r="AC3" t="n">
-        <v>2235.890922427717</v>
+        <v>2573.185157940802</v>
       </c>
       <c r="AD3" t="n">
-        <v>1806545.774594341</v>
+        <v>2079071.357058614</v>
       </c>
       <c r="AE3" t="n">
-        <v>2471795.627974667</v>
+        <v>2844677.152882443</v>
       </c>
       <c r="AF3" t="n">
         <v>3.967444862477099e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>58</v>
+        <v>57.24609375</v>
       </c>
       <c r="AH3" t="n">
-        <v>2235890.922427717</v>
+        <v>2573185.157940802</v>
       </c>
     </row>
     <row r="4">
@@ -27354,28 +27354,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1620.085625736854</v>
+        <v>1883.243429221403</v>
       </c>
       <c r="AB4" t="n">
-        <v>2216.67262626665</v>
+        <v>2576.736742697128</v>
       </c>
       <c r="AC4" t="n">
-        <v>2005.116501935331</v>
+        <v>2330.816604446846</v>
       </c>
       <c r="AD4" t="n">
-        <v>1620085.625736854</v>
+        <v>1883243.429221403</v>
       </c>
       <c r="AE4" t="n">
-        <v>2216672.62626665</v>
+        <v>2576736.742697128</v>
       </c>
       <c r="AF4" t="n">
         <v>4.216892899468932e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>54</v>
+        <v>53.86067708333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>2005116.501935331</v>
+        <v>2330816.604446846</v>
       </c>
     </row>
     <row r="5">
@@ -27460,28 +27460,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1532.644983960048</v>
+        <v>1786.334534268246</v>
       </c>
       <c r="AB5" t="n">
-        <v>2097.032482578766</v>
+        <v>2444.141717303511</v>
       </c>
       <c r="AC5" t="n">
-        <v>1896.894645645023</v>
+        <v>2210.876262178509</v>
       </c>
       <c r="AD5" t="n">
-        <v>1532644.983960048</v>
+        <v>1786334.534268246</v>
       </c>
       <c r="AE5" t="n">
-        <v>2097032.482578766</v>
+        <v>2444141.717303511</v>
       </c>
       <c r="AF5" t="n">
         <v>4.342489113898386e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>53</v>
+        <v>52.3046875</v>
       </c>
       <c r="AH5" t="n">
-        <v>1896894.645645023</v>
+        <v>2210876.262178509</v>
       </c>
     </row>
     <row r="6">
@@ -27566,28 +27566,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1462.933747339646</v>
+        <v>1707.256529697978</v>
       </c>
       <c r="AB6" t="n">
-        <v>2001.650493192026</v>
+        <v>2335.943702775126</v>
       </c>
       <c r="AC6" t="n">
-        <v>1810.61577945589</v>
+        <v>2113.004514299845</v>
       </c>
       <c r="AD6" t="n">
-        <v>1462933.747339646</v>
+        <v>1707256.529697978</v>
       </c>
       <c r="AE6" t="n">
-        <v>2001650.493192026</v>
+        <v>2335943.702775126</v>
       </c>
       <c r="AF6" t="n">
         <v>4.421684504663626e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>52</v>
+        <v>51.3671875</v>
       </c>
       <c r="AH6" t="n">
-        <v>1810615.77945589</v>
+        <v>2113004.514299845</v>
       </c>
     </row>
     <row r="7">
@@ -27672,28 +27672,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1412.605592637627</v>
+        <v>1666.328297334749</v>
       </c>
       <c r="AB7" t="n">
-        <v>1932.789291607241</v>
+        <v>2279.94388962958</v>
       </c>
       <c r="AC7" t="n">
-        <v>1748.326594303054</v>
+        <v>2062.349244724679</v>
       </c>
       <c r="AD7" t="n">
-        <v>1412605.592637627</v>
+        <v>1666328.297334749</v>
       </c>
       <c r="AE7" t="n">
-        <v>1932789.291607241</v>
+        <v>2279943.88962958</v>
       </c>
       <c r="AF7" t="n">
         <v>4.46878308507467e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>51</v>
+        <v>50.82682291666666</v>
       </c>
       <c r="AH7" t="n">
-        <v>1748326.594303054</v>
+        <v>2062349.244724679</v>
       </c>
     </row>
     <row r="8">
@@ -27778,28 +27778,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1407.53816677077</v>
+        <v>1651.928268936807</v>
       </c>
       <c r="AB8" t="n">
-        <v>1925.855815977157</v>
+        <v>2260.241135491098</v>
       </c>
       <c r="AC8" t="n">
-        <v>1742.05483985591</v>
+        <v>2044.526893788185</v>
       </c>
       <c r="AD8" t="n">
-        <v>1407538.16677077</v>
+        <v>1651928.268936807</v>
       </c>
       <c r="AE8" t="n">
-        <v>1925855.815977157</v>
+        <v>2260241.135491098</v>
       </c>
       <c r="AF8" t="n">
         <v>4.476109530916389e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>51</v>
+        <v>50.7421875</v>
       </c>
       <c r="AH8" t="n">
-        <v>1742054.83985591</v>
+        <v>2044526.893788185</v>
       </c>
     </row>
     <row r="9">
@@ -27884,28 +27884,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1413.66163375117</v>
+        <v>1658.051735917206</v>
       </c>
       <c r="AB9" t="n">
-        <v>1934.234213648035</v>
+        <v>2268.619533161977</v>
       </c>
       <c r="AC9" t="n">
-        <v>1749.633615012235</v>
+        <v>2052.10566894451</v>
       </c>
       <c r="AD9" t="n">
-        <v>1413661.63375117</v>
+        <v>1658051.735917206</v>
       </c>
       <c r="AE9" t="n">
-        <v>1934234.213648035</v>
+        <v>2268619.533161977</v>
       </c>
       <c r="AF9" t="n">
         <v>4.475411774169558e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>51</v>
+        <v>50.75520833333334</v>
       </c>
       <c r="AH9" t="n">
-        <v>1749633.615012235</v>
+        <v>2052105.66894451</v>
       </c>
     </row>
   </sheetData>
@@ -52410,28 +52410,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1982.253855762789</v>
+        <v>2289.215129900052</v>
       </c>
       <c r="AB2" t="n">
-        <v>2712.207176322792</v>
+        <v>3132.20513377323</v>
       </c>
       <c r="AC2" t="n">
-        <v>2453.357930021224</v>
+        <v>2833.27187188331</v>
       </c>
       <c r="AD2" t="n">
-        <v>1982253.855762789</v>
+        <v>2289215.129900052</v>
       </c>
       <c r="AE2" t="n">
-        <v>2712207.176322792</v>
+        <v>3132205.13377323</v>
       </c>
       <c r="AF2" t="n">
         <v>3.95919284833834e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>65</v>
+        <v>64.42708333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>2453357.930021224</v>
+        <v>2833271.87188331</v>
       </c>
     </row>
     <row r="3">
@@ -52516,28 +52516,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1536.307611093612</v>
+        <v>1796.773213561391</v>
       </c>
       <c r="AB3" t="n">
-        <v>2102.043850606613</v>
+        <v>2458.424378834419</v>
       </c>
       <c r="AC3" t="n">
-        <v>1901.42773574179</v>
+        <v>2223.795806538748</v>
       </c>
       <c r="AD3" t="n">
-        <v>1536307.611093612</v>
+        <v>1796773.213561391</v>
       </c>
       <c r="AE3" t="n">
-        <v>2102043.850606612</v>
+        <v>2458424.378834419</v>
       </c>
       <c r="AF3" t="n">
         <v>4.627220934079743e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>56</v>
+        <v>55.13020833333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>1901427.73574179</v>
+        <v>2223795.806538749</v>
       </c>
     </row>
     <row r="4">
@@ -52622,28 +52622,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1392.976027902326</v>
+        <v>1644.101497533673</v>
       </c>
       <c r="AB4" t="n">
-        <v>1905.931255141125</v>
+        <v>2249.532201564545</v>
       </c>
       <c r="AC4" t="n">
-        <v>1724.031851141773</v>
+        <v>2034.840005485499</v>
       </c>
       <c r="AD4" t="n">
-        <v>1392976.027902327</v>
+        <v>1644101.497533673</v>
       </c>
       <c r="AE4" t="n">
-        <v>1905931.255141125</v>
+        <v>2249532.201564545</v>
       </c>
       <c r="AF4" t="n">
         <v>4.859561494105931e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>53</v>
+        <v>52.49348958333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>1724031.851141773</v>
+        <v>2034840.005485499</v>
       </c>
     </row>
     <row r="5">
@@ -52728,28 +52728,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1317.794703053441</v>
+        <v>1559.648370685916</v>
       </c>
       <c r="AB5" t="n">
-        <v>1803.064849716914</v>
+        <v>2133.979707602443</v>
       </c>
       <c r="AC5" t="n">
-        <v>1630.982871077342</v>
+        <v>1930.315679368196</v>
       </c>
       <c r="AD5" t="n">
-        <v>1317794.703053441</v>
+        <v>1559648.370685916</v>
       </c>
       <c r="AE5" t="n">
-        <v>1803064.849716914</v>
+        <v>2133979.707602443</v>
       </c>
       <c r="AF5" t="n">
         <v>4.970442402179137e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>52</v>
+        <v>51.32161458333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>1630982.871077341</v>
+        <v>1930315.679368196</v>
       </c>
     </row>
     <row r="6">
@@ -52834,28 +52834,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1315.752844808105</v>
+        <v>1557.60651244058</v>
       </c>
       <c r="AB6" t="n">
-        <v>1800.271089185216</v>
+        <v>2131.185947070745</v>
       </c>
       <c r="AC6" t="n">
-        <v>1628.455743129721</v>
+        <v>1927.788551420575</v>
       </c>
       <c r="AD6" t="n">
-        <v>1315752.844808105</v>
+        <v>1557606.512440579</v>
       </c>
       <c r="AE6" t="n">
-        <v>1800271.089185216</v>
+        <v>2131185.947070745</v>
       </c>
       <c r="AF6" t="n">
         <v>4.980237535401153e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>52</v>
+        <v>51.21744791666666</v>
       </c>
       <c r="AH6" t="n">
-        <v>1628455.743129721</v>
+        <v>1927788.551420575</v>
       </c>
     </row>
   </sheetData>
@@ -53131,28 +53131,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1248.607073281978</v>
+        <v>1512.885170750191</v>
       </c>
       <c r="AB2" t="n">
-        <v>1708.399282320795</v>
+        <v>2069.996234403605</v>
       </c>
       <c r="AC2" t="n">
-        <v>1545.35205256955</v>
+        <v>1872.438699050086</v>
       </c>
       <c r="AD2" t="n">
-        <v>1248607.073281978</v>
+        <v>1512885.170750191</v>
       </c>
       <c r="AE2" t="n">
-        <v>1708399.282320795</v>
+        <v>2069996.234403605</v>
       </c>
       <c r="AF2" t="n">
         <v>5.990893650244364e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>57</v>
+        <v>56.31510416666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>1545352.05256955</v>
+        <v>1872438.699050086</v>
       </c>
     </row>
     <row r="3">
@@ -53237,28 +53237,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1131.02364348734</v>
+        <v>1377.100475469956</v>
       </c>
       <c r="AB3" t="n">
-        <v>1547.516446260959</v>
+        <v>1884.209623923213</v>
       </c>
       <c r="AC3" t="n">
-        <v>1399.823648582786</v>
+        <v>1704.383301920798</v>
       </c>
       <c r="AD3" t="n">
-        <v>1131023.64348734</v>
+        <v>1377100.475469956</v>
       </c>
       <c r="AE3" t="n">
-        <v>1547516.446260959</v>
+        <v>1884209.623923213</v>
       </c>
       <c r="AF3" t="n">
         <v>6.323058932642654e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>54</v>
+        <v>53.35286458333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>1399823.648582786</v>
+        <v>1704383.301920798</v>
       </c>
     </row>
   </sheetData>
@@ -53534,28 +53534,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>4281.209257612673</v>
+        <v>4723.612614779542</v>
       </c>
       <c r="AB2" t="n">
-        <v>5857.739379888409</v>
+        <v>6463.055170622798</v>
       </c>
       <c r="AC2" t="n">
-        <v>5298.684954860492</v>
+        <v>5846.230256093218</v>
       </c>
       <c r="AD2" t="n">
-        <v>4281209.257612674</v>
+        <v>4723612.614779542</v>
       </c>
       <c r="AE2" t="n">
-        <v>5857739.379888409</v>
+        <v>6463055.170622798</v>
       </c>
       <c r="AF2" t="n">
         <v>2.062249696432948e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>88</v>
+        <v>87.890625</v>
       </c>
       <c r="AH2" t="n">
-        <v>5298684.954860493</v>
+        <v>5846230.256093218</v>
       </c>
     </row>
     <row r="3">
@@ -53640,28 +53640,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2594.161646302825</v>
+        <v>2911.567676808431</v>
       </c>
       <c r="AB3" t="n">
-        <v>3549.446410806346</v>
+        <v>3983.735344709928</v>
       </c>
       <c r="AC3" t="n">
-        <v>3210.692227038181</v>
+        <v>3603.533234618335</v>
       </c>
       <c r="AD3" t="n">
-        <v>2594161.646302825</v>
+        <v>2911567.676808431</v>
       </c>
       <c r="AE3" t="n">
-        <v>3549446.410806346</v>
+        <v>3983735.344709928</v>
       </c>
       <c r="AF3" t="n">
         <v>2.841439342803873e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>64</v>
+        <v>63.78255208333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>3210692.22703818</v>
+        <v>3603533.234618335</v>
       </c>
     </row>
     <row r="4">
@@ -53746,28 +53746,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2236.24496225927</v>
+        <v>2524.789687188224</v>
       </c>
       <c r="AB4" t="n">
-        <v>3059.72901352824</v>
+        <v>3454.528635870905</v>
       </c>
       <c r="AC4" t="n">
-        <v>2767.712770833631</v>
+        <v>3124.833271324647</v>
       </c>
       <c r="AD4" t="n">
-        <v>2236244.96225927</v>
+        <v>2524789.687188224</v>
       </c>
       <c r="AE4" t="n">
-        <v>3059729.01352824</v>
+        <v>3454528.635870905</v>
       </c>
       <c r="AF4" t="n">
         <v>3.124831647200302e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>58</v>
+        <v>57.99479166666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>2767712.770833631</v>
+        <v>3124833.271324647</v>
       </c>
     </row>
     <row r="5">
@@ -53852,28 +53852,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>2083.124800544789</v>
+        <v>2352.395500700387</v>
       </c>
       <c r="AB5" t="n">
-        <v>2850.223253085534</v>
+        <v>3218.651304423494</v>
       </c>
       <c r="AC5" t="n">
-        <v>2578.20194612451</v>
+        <v>2911.467741334672</v>
       </c>
       <c r="AD5" t="n">
-        <v>2083124.800544789</v>
+        <v>2352395.500700387</v>
       </c>
       <c r="AE5" t="n">
-        <v>2850223.253085534</v>
+        <v>3218651.304423494</v>
       </c>
       <c r="AF5" t="n">
         <v>3.272373809607086e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>56</v>
+        <v>55.38411458333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>2578201.94612451</v>
+        <v>2911467.741334672</v>
       </c>
     </row>
     <row r="6">
@@ -53958,28 +53958,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1981.806721621847</v>
+        <v>2251.110576166369</v>
       </c>
       <c r="AB6" t="n">
-        <v>2711.595387664988</v>
+        <v>3080.068802300535</v>
       </c>
       <c r="AC6" t="n">
-        <v>2452.80452961427</v>
+        <v>2786.11135871257</v>
       </c>
       <c r="AD6" t="n">
-        <v>1981806.721621847</v>
+        <v>2251110.576166369</v>
       </c>
       <c r="AE6" t="n">
-        <v>2711595.387664988</v>
+        <v>3080068.802300535</v>
       </c>
       <c r="AF6" t="n">
         <v>3.364518065751701e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>54</v>
+        <v>53.8671875</v>
       </c>
       <c r="AH6" t="n">
-        <v>2452804.52961427</v>
+        <v>2786111.35871257</v>
       </c>
     </row>
     <row r="7">
@@ -54064,28 +54064,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1919.197485073922</v>
+        <v>2188.467174199661</v>
       </c>
       <c r="AB7" t="n">
-        <v>2625.930668095542</v>
+        <v>2994.357336097661</v>
       </c>
       <c r="AC7" t="n">
-        <v>2375.315530649343</v>
+        <v>2708.580074547416</v>
       </c>
       <c r="AD7" t="n">
-        <v>1919197.485073922</v>
+        <v>2188467.174199661</v>
       </c>
       <c r="AE7" t="n">
-        <v>2625930.668095542</v>
+        <v>2994357.33609766</v>
       </c>
       <c r="AF7" t="n">
         <v>3.423813312152918e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>53</v>
+        <v>52.93619791666666</v>
       </c>
       <c r="AH7" t="n">
-        <v>2375315.530649343</v>
+        <v>2708580.074547416</v>
       </c>
     </row>
     <row r="8">
@@ -54170,28 +54170,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1873.4781396725</v>
+        <v>2133.094239217098</v>
       </c>
       <c r="AB8" t="n">
-        <v>2563.375442722149</v>
+        <v>2918.593643573035</v>
       </c>
       <c r="AC8" t="n">
-        <v>2318.730488188776</v>
+        <v>2640.047162502331</v>
       </c>
       <c r="AD8" t="n">
-        <v>1873478.1396725</v>
+        <v>2133094.239217098</v>
       </c>
       <c r="AE8" t="n">
-        <v>2563375.442722149</v>
+        <v>2918593.643573035</v>
       </c>
       <c r="AF8" t="n">
         <v>3.470581393821483e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>53</v>
+        <v>52.22005208333334</v>
       </c>
       <c r="AH8" t="n">
-        <v>2318730.488188776</v>
+        <v>2640047.162502331</v>
       </c>
     </row>
     <row r="9">
@@ -54276,28 +54276,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1829.35670043825</v>
+        <v>2089.040119790553</v>
       </c>
       <c r="AB9" t="n">
-        <v>2503.006543061327</v>
+        <v>2858.316853843055</v>
       </c>
       <c r="AC9" t="n">
-        <v>2264.1231115833</v>
+        <v>2585.523104985174</v>
       </c>
       <c r="AD9" t="n">
-        <v>1829356.70043825</v>
+        <v>2089040.119790553</v>
       </c>
       <c r="AE9" t="n">
-        <v>2503006.543061327</v>
+        <v>2858316.853843055</v>
       </c>
       <c r="AF9" t="n">
         <v>3.504543929318895e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>52</v>
+        <v>51.71223958333334</v>
       </c>
       <c r="AH9" t="n">
-        <v>2264123.1115833</v>
+        <v>2585523.104985174</v>
       </c>
     </row>
     <row r="10">
@@ -54382,28 +54382,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1797.913779813424</v>
+        <v>2047.943609584585</v>
       </c>
       <c r="AB10" t="n">
-        <v>2459.984951898682</v>
+        <v>2802.086795529179</v>
       </c>
       <c r="AC10" t="n">
-        <v>2225.207440700035</v>
+        <v>2534.659564517391</v>
       </c>
       <c r="AD10" t="n">
-        <v>1797913.779813424</v>
+        <v>2047943.609584585</v>
       </c>
       <c r="AE10" t="n">
-        <v>2459984.951898682</v>
+        <v>2802086.795529179</v>
       </c>
       <c r="AF10" t="n">
         <v>3.532660454607735e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>52</v>
+        <v>51.30208333333334</v>
       </c>
       <c r="AH10" t="n">
-        <v>2225207.440700036</v>
+        <v>2534659.564517391</v>
       </c>
     </row>
     <row r="11">
@@ -54488,28 +54488,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1772.197522974688</v>
+        <v>2022.227352745849</v>
       </c>
       <c r="AB11" t="n">
-        <v>2424.798834770743</v>
+        <v>2766.900678401239</v>
       </c>
       <c r="AC11" t="n">
-        <v>2193.379437206761</v>
+        <v>2502.831561024116</v>
       </c>
       <c r="AD11" t="n">
-        <v>1772197.522974688</v>
+        <v>2022227.352745849</v>
       </c>
       <c r="AE11" t="n">
-        <v>2424798.834770743</v>
+        <v>2766900.678401239</v>
       </c>
       <c r="AF11" t="n">
         <v>3.551590392425964e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>52</v>
+        <v>51.02864583333334</v>
       </c>
       <c r="AH11" t="n">
-        <v>2193379.437206761</v>
+        <v>2502831.561024116</v>
       </c>
     </row>
     <row r="12">
@@ -54594,28 +54594,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1737.435152646864</v>
+        <v>1987.53230222573</v>
       </c>
       <c r="AB12" t="n">
-        <v>2377.235426080672</v>
+        <v>2719.42937964201</v>
       </c>
       <c r="AC12" t="n">
-        <v>2150.355413486408</v>
+        <v>2459.890856392082</v>
       </c>
       <c r="AD12" t="n">
-        <v>1737435.152646864</v>
+        <v>1987532.30222573</v>
       </c>
       <c r="AE12" t="n">
-        <v>2377235.426080672</v>
+        <v>2719429.37964201</v>
       </c>
       <c r="AF12" t="n">
         <v>3.570520330244193e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>51</v>
+        <v>50.75520833333334</v>
       </c>
       <c r="AH12" t="n">
-        <v>2150355.413486408</v>
+        <v>2459890.856392082</v>
       </c>
     </row>
     <row r="13">
@@ -54700,28 +54700,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1712.524786728069</v>
+        <v>1962.621936306936</v>
       </c>
       <c r="AB13" t="n">
-        <v>2343.151964462794</v>
+        <v>2685.345918024132</v>
       </c>
       <c r="AC13" t="n">
-        <v>2119.524829608901</v>
+        <v>2429.060272514575</v>
       </c>
       <c r="AD13" t="n">
-        <v>1712524.786728069</v>
+        <v>1962621.936306936</v>
       </c>
       <c r="AE13" t="n">
-        <v>2343151.964462794</v>
+        <v>2685345.918024132</v>
       </c>
       <c r="AF13" t="n">
         <v>3.585552927923375e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>51</v>
+        <v>50.546875</v>
       </c>
       <c r="AH13" t="n">
-        <v>2119524.829608901</v>
+        <v>2429060.272514575</v>
       </c>
     </row>
     <row r="14">
@@ -54806,28 +54806,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>1693.806621175369</v>
+        <v>1943.80228552775</v>
       </c>
       <c r="AB14" t="n">
-        <v>2317.540944566407</v>
+        <v>2659.596041563655</v>
       </c>
       <c r="AC14" t="n">
-        <v>2096.358089506133</v>
+        <v>2405.767928123308</v>
       </c>
       <c r="AD14" t="n">
-        <v>1693806.621175369</v>
+        <v>1943802.28552775</v>
       </c>
       <c r="AE14" t="n">
-        <v>2317540.944566407</v>
+        <v>2659596.041563655</v>
       </c>
       <c r="AF14" t="n">
         <v>3.595853041148e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>51</v>
+        <v>50.40364583333334</v>
       </c>
       <c r="AH14" t="n">
-        <v>2096358.089506133</v>
+        <v>2405767.928123308</v>
       </c>
     </row>
     <row r="15">
@@ -54912,28 +54912,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>1672.624590509959</v>
+        <v>1922.62025486234</v>
       </c>
       <c r="AB15" t="n">
-        <v>2288.558755724752</v>
+        <v>2630.613852722001</v>
       </c>
       <c r="AC15" t="n">
-        <v>2070.141920090768</v>
+        <v>2379.551758707943</v>
       </c>
       <c r="AD15" t="n">
-        <v>1672624.590509959</v>
+        <v>1922620.25486234</v>
       </c>
       <c r="AE15" t="n">
-        <v>2288558.755724752</v>
+        <v>2630613.852722</v>
       </c>
       <c r="AF15" t="n">
         <v>3.606431535811128e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>51</v>
+        <v>50.25390625</v>
       </c>
       <c r="AH15" t="n">
-        <v>2070141.920090768</v>
+        <v>2379551.758707943</v>
       </c>
     </row>
     <row r="16">
@@ -55018,28 +55018,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>1671.768177617806</v>
+        <v>1921.763841970187</v>
       </c>
       <c r="AB16" t="n">
-        <v>2287.386973823438</v>
+        <v>2629.442070820686</v>
       </c>
       <c r="AC16" t="n">
-        <v>2069.081971409509</v>
+        <v>2378.491810026684</v>
       </c>
       <c r="AD16" t="n">
-        <v>1671768.177617806</v>
+        <v>1921763.841970187</v>
       </c>
       <c r="AE16" t="n">
-        <v>2287386.973823438</v>
+        <v>2629442.070820686</v>
       </c>
       <c r="AF16" t="n">
         <v>3.607545061565141e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>51</v>
+        <v>50.234375</v>
       </c>
       <c r="AH16" t="n">
-        <v>2069081.971409509</v>
+        <v>2378491.810026684</v>
       </c>
     </row>
     <row r="17">
@@ -55124,28 +55124,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>1674.7210901858</v>
+        <v>1924.716754538181</v>
       </c>
       <c r="AB17" t="n">
-        <v>2291.427279072276</v>
+        <v>2633.482376069524</v>
       </c>
       <c r="AC17" t="n">
-        <v>2072.736675596002</v>
+        <v>2382.146514213177</v>
       </c>
       <c r="AD17" t="n">
-        <v>1674721.0901858</v>
+        <v>1924716.754538181</v>
       </c>
       <c r="AE17" t="n">
-        <v>2291427.279072276</v>
+        <v>2633482.376069524</v>
       </c>
       <c r="AF17" t="n">
         <v>3.608658587319154e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>51</v>
+        <v>50.22135416666666</v>
       </c>
       <c r="AH17" t="n">
-        <v>2072736.675596002</v>
+        <v>2382146.514213177</v>
       </c>
     </row>
     <row r="18">
@@ -55230,28 +55230,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>1680.627229722103</v>
+        <v>1930.622894074484</v>
       </c>
       <c r="AB18" t="n">
-        <v>2299.508319746333</v>
+        <v>2641.563416743581</v>
       </c>
       <c r="AC18" t="n">
-        <v>2080.046473089938</v>
+        <v>2389.456311707114</v>
       </c>
       <c r="AD18" t="n">
-        <v>1680627.229722103</v>
+        <v>1930622.894074484</v>
       </c>
       <c r="AE18" t="n">
-        <v>2299508.319746333</v>
+        <v>2641563.416743581</v>
       </c>
       <c r="AF18" t="n">
         <v>3.608380205880651e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>51</v>
+        <v>50.22786458333334</v>
       </c>
       <c r="AH18" t="n">
-        <v>2080046.473089939</v>
+        <v>2389456.311707114</v>
       </c>
     </row>
   </sheetData>
@@ -55527,28 +55527,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>6035.341017090336</v>
+        <v>6551.298112279652</v>
       </c>
       <c r="AB2" t="n">
-        <v>8257.819840037426</v>
+        <v>8963.775100096036</v>
       </c>
       <c r="AC2" t="n">
-        <v>7469.705104426879</v>
+        <v>8108.284985279899</v>
       </c>
       <c r="AD2" t="n">
-        <v>6035341.017090336</v>
+        <v>6551298.112279652</v>
       </c>
       <c r="AE2" t="n">
-        <v>8257819.840037425</v>
+        <v>8963775.100096036</v>
       </c>
       <c r="AF2" t="n">
         <v>1.58120894993723e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>104</v>
+        <v>103.5677083333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>7469705.104426879</v>
+        <v>8108284.985279899</v>
       </c>
     </row>
     <row r="3">
@@ -55633,28 +55633,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>3179.964581528557</v>
+        <v>3530.369921818772</v>
       </c>
       <c r="AB3" t="n">
-        <v>4350.967830583776</v>
+        <v>4830.407875961462</v>
       </c>
       <c r="AC3" t="n">
-        <v>3935.7175674544</v>
+        <v>4369.400527799552</v>
       </c>
       <c r="AD3" t="n">
-        <v>3179964.581528557</v>
+        <v>3530369.921818772</v>
       </c>
       <c r="AE3" t="n">
-        <v>4350967.830583776</v>
+        <v>4830407.875961462</v>
       </c>
       <c r="AF3" t="n">
         <v>2.382378295395403e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>69</v>
+        <v>68.74348958333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>3935717.5674544</v>
+        <v>4369400.527799552</v>
       </c>
     </row>
     <row r="4">
@@ -55739,28 +55739,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2652.516971530278</v>
+        <v>2963.976996648654</v>
       </c>
       <c r="AB4" t="n">
-        <v>3629.290741237805</v>
+        <v>4055.444088251334</v>
       </c>
       <c r="AC4" t="n">
-        <v>3282.916326635479</v>
+        <v>3668.398196319999</v>
       </c>
       <c r="AD4" t="n">
-        <v>2652516.971530278</v>
+        <v>2963976.996648654</v>
       </c>
       <c r="AE4" t="n">
-        <v>3629290.741237805</v>
+        <v>4055444.088251334</v>
       </c>
       <c r="AF4" t="n">
         <v>2.685237916096075e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>61</v>
+        <v>60.98307291666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>3282916.326635479</v>
+        <v>3668398.196319999</v>
       </c>
     </row>
     <row r="5">
@@ -55845,28 +55845,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>2433.462842110948</v>
+        <v>2725.484375062184</v>
       </c>
       <c r="AB5" t="n">
-        <v>3329.571217380119</v>
+        <v>3729.127961844816</v>
       </c>
       <c r="AC5" t="n">
-        <v>3011.801613475789</v>
+        <v>3373.225223030172</v>
       </c>
       <c r="AD5" t="n">
-        <v>2433462.842110948</v>
+        <v>2725484.375062183</v>
       </c>
       <c r="AE5" t="n">
-        <v>3329571.217380119</v>
+        <v>3729127.961844816</v>
       </c>
       <c r="AF5" t="n">
         <v>2.844465607045848e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>58</v>
+        <v>57.578125</v>
       </c>
       <c r="AH5" t="n">
-        <v>3011801.613475788</v>
+        <v>3373225.223030172</v>
       </c>
     </row>
     <row r="6">
@@ -55951,28 +55951,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>2305.216488996162</v>
+        <v>2587.501693154438</v>
       </c>
       <c r="AB6" t="n">
-        <v>3154.098899218671</v>
+        <v>3540.333969092327</v>
       </c>
       <c r="AC6" t="n">
-        <v>2853.07612708273</v>
+        <v>3202.449463971955</v>
       </c>
       <c r="AD6" t="n">
-        <v>2305216.488996162</v>
+        <v>2587501.693154438</v>
       </c>
       <c r="AE6" t="n">
-        <v>3154098.899218671</v>
+        <v>3540333.969092327</v>
       </c>
       <c r="AF6" t="n">
         <v>2.944831876696652e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>56</v>
+        <v>55.61197916666666</v>
       </c>
       <c r="AH6" t="n">
-        <v>2853076.12708273</v>
+        <v>3202449.463971955</v>
       </c>
     </row>
     <row r="7">
@@ -56057,28 +56057,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>2224.000210854673</v>
+        <v>2496.481766412285</v>
       </c>
       <c r="AB7" t="n">
-        <v>3042.975204456164</v>
+        <v>3415.796489807939</v>
       </c>
       <c r="AC7" t="n">
-        <v>2752.557921785276</v>
+        <v>3089.797666921023</v>
       </c>
       <c r="AD7" t="n">
-        <v>2224000.210854673</v>
+        <v>2496481.766412285</v>
       </c>
       <c r="AE7" t="n">
-        <v>3042975.204456164</v>
+        <v>3415796.489807939</v>
       </c>
       <c r="AF7" t="n">
         <v>3.012245812201452e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>55</v>
+        <v>54.36848958333334</v>
       </c>
       <c r="AH7" t="n">
-        <v>2752557.921785275</v>
+        <v>3089797.666921023</v>
       </c>
     </row>
     <row r="8">
@@ -56163,28 +56163,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>2165.592806265347</v>
+        <v>2438.141681630666</v>
       </c>
       <c r="AB8" t="n">
-        <v>2963.059616744041</v>
+        <v>3335.973012026831</v>
       </c>
       <c r="AC8" t="n">
-        <v>2680.269365602281</v>
+        <v>3017.592429826393</v>
       </c>
       <c r="AD8" t="n">
-        <v>2165592.806265348</v>
+        <v>2438141.681630666</v>
       </c>
       <c r="AE8" t="n">
-        <v>2963059.616744041</v>
+        <v>3335973.012026831</v>
       </c>
       <c r="AF8" t="n">
         <v>3.059284640333533e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>54</v>
+        <v>53.52864583333334</v>
       </c>
       <c r="AH8" t="n">
-        <v>2680269.36560228</v>
+        <v>3017592.429826393</v>
       </c>
     </row>
     <row r="9">
@@ -56269,28 +56269,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>2112.9307438955</v>
+        <v>2385.445453842038</v>
       </c>
       <c r="AB9" t="n">
-        <v>2891.005059723394</v>
+        <v>3263.871708372932</v>
       </c>
       <c r="AC9" t="n">
-        <v>2615.091594374478</v>
+        <v>2952.372373398409</v>
       </c>
       <c r="AD9" t="n">
-        <v>2112930.7438955</v>
+        <v>2385445.453842038</v>
       </c>
       <c r="AE9" t="n">
-        <v>2891005.059723394</v>
+        <v>3263871.708372932</v>
       </c>
       <c r="AF9" t="n">
         <v>3.09902867693711e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>53</v>
+        <v>52.84505208333334</v>
       </c>
       <c r="AH9" t="n">
-        <v>2615091.594374478</v>
+        <v>2952372.373398409</v>
       </c>
     </row>
     <row r="10">
@@ -56375,28 +56375,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>2081.010276146922</v>
+        <v>2343.755502911577</v>
       </c>
       <c r="AB10" t="n">
-        <v>2847.33006751814</v>
+        <v>3206.829678279043</v>
       </c>
       <c r="AC10" t="n">
-        <v>2575.584882127057</v>
+        <v>2900.774354597691</v>
       </c>
       <c r="AD10" t="n">
-        <v>2081010.276146922</v>
+        <v>2343755.502911577</v>
       </c>
       <c r="AE10" t="n">
-        <v>2847330.06751814</v>
+        <v>3206829.678279043</v>
       </c>
       <c r="AF10" t="n">
         <v>3.126195486767403e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>53</v>
+        <v>52.38932291666666</v>
       </c>
       <c r="AH10" t="n">
-        <v>2575584.882127057</v>
+        <v>2900774.354597691</v>
       </c>
     </row>
     <row r="11">
@@ -56481,28 +56481,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>2041.040570701802</v>
+        <v>2303.853117274161</v>
       </c>
       <c r="AB11" t="n">
-        <v>2792.641753189173</v>
+        <v>3152.233473880913</v>
       </c>
       <c r="AC11" t="n">
-        <v>2526.115943762115</v>
+        <v>2851.388735321066</v>
       </c>
       <c r="AD11" t="n">
-        <v>2041040.570701802</v>
+        <v>2303853.117274161</v>
       </c>
       <c r="AE11" t="n">
-        <v>2792641.753189173</v>
+        <v>3152233.473880913</v>
       </c>
       <c r="AF11" t="n">
         <v>3.151601484849436e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>52</v>
+        <v>51.96614583333334</v>
       </c>
       <c r="AH11" t="n">
-        <v>2526115.943762115</v>
+        <v>2851388.735321066</v>
       </c>
     </row>
     <row r="12">
@@ -56587,28 +56587,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>2019.274283112609</v>
+        <v>2282.086829684968</v>
       </c>
       <c r="AB12" t="n">
-        <v>2762.860158248803</v>
+        <v>3122.451878940542</v>
       </c>
       <c r="AC12" t="n">
-        <v>2499.176662444123</v>
+        <v>2824.449454003074</v>
       </c>
       <c r="AD12" t="n">
-        <v>2019274.283112609</v>
+        <v>2282086.829684968</v>
       </c>
       <c r="AE12" t="n">
-        <v>2762860.158248803</v>
+        <v>3122451.878940541</v>
       </c>
       <c r="AF12" t="n">
         <v>3.170970414080293e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>52</v>
+        <v>51.64713541666666</v>
       </c>
       <c r="AH12" t="n">
-        <v>2499176.662444123</v>
+        <v>2824449.454003074</v>
       </c>
     </row>
     <row r="13">
@@ -56693,28 +56693,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1994.952029932193</v>
+        <v>2247.995093322668</v>
       </c>
       <c r="AB13" t="n">
-        <v>2729.581378425276</v>
+        <v>3075.80606122838</v>
       </c>
       <c r="AC13" t="n">
-        <v>2469.073962659893</v>
+        <v>2782.255447665547</v>
       </c>
       <c r="AD13" t="n">
-        <v>1994952.029932193</v>
+        <v>2247995.093322668</v>
       </c>
       <c r="AE13" t="n">
-        <v>2729581.378425276</v>
+        <v>3075806.06122838</v>
       </c>
       <c r="AF13" t="n">
         <v>3.186817719814631e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>52</v>
+        <v>51.38671875</v>
       </c>
       <c r="AH13" t="n">
-        <v>2469073.962659894</v>
+        <v>2782255.447665547</v>
       </c>
     </row>
     <row r="14">
@@ -56799,28 +56799,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>1975.752915199457</v>
+        <v>2228.795978589933</v>
       </c>
       <c r="AB14" t="n">
-        <v>2703.312302642785</v>
+        <v>3049.536985445886</v>
       </c>
       <c r="AC14" t="n">
-        <v>2445.311970601203</v>
+        <v>2758.493455606856</v>
       </c>
       <c r="AD14" t="n">
-        <v>1975752.915199457</v>
+        <v>2228795.978589933</v>
       </c>
       <c r="AE14" t="n">
-        <v>2703312.302642785</v>
+        <v>3049536.985445886</v>
       </c>
       <c r="AF14" t="n">
         <v>3.201155758336174e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>52</v>
+        <v>51.15885416666666</v>
       </c>
       <c r="AH14" t="n">
-        <v>2445311.970601203</v>
+        <v>2758493.455606855</v>
       </c>
     </row>
     <row r="15">
@@ -56905,28 +56905,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>1946.682690212746</v>
+        <v>2209.461071366324</v>
       </c>
       <c r="AB15" t="n">
-        <v>2663.537138328153</v>
+        <v>3023.082112386638</v>
       </c>
       <c r="AC15" t="n">
-        <v>2409.332892143966</v>
+        <v>2734.563398502735</v>
       </c>
       <c r="AD15" t="n">
-        <v>1946682.690212746</v>
+        <v>2209461.071366324</v>
       </c>
       <c r="AE15" t="n">
-        <v>2663537.138328153</v>
+        <v>3023082.112386638</v>
       </c>
       <c r="AF15" t="n">
         <v>3.213984529644923e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>51</v>
+        <v>50.95703125</v>
       </c>
       <c r="AH15" t="n">
-        <v>2409332.892143966</v>
+        <v>2734563.398502735</v>
       </c>
     </row>
     <row r="16">
@@ -57011,28 +57011,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>1930.105440877466</v>
+        <v>2183.215824075643</v>
       </c>
       <c r="AB16" t="n">
-        <v>2640.855414450998</v>
+        <v>2987.172207184763</v>
       </c>
       <c r="AC16" t="n">
-        <v>2388.815880159647</v>
+        <v>2702.080684253573</v>
       </c>
       <c r="AD16" t="n">
-        <v>1930105.440877466</v>
+        <v>2183215.824075643</v>
       </c>
       <c r="AE16" t="n">
-        <v>2640855.414450998</v>
+        <v>2987172.207184763</v>
       </c>
       <c r="AF16" t="n">
         <v>3.222788588386222e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>51</v>
+        <v>50.81380208333334</v>
       </c>
       <c r="AH16" t="n">
-        <v>2388815.880159647</v>
+        <v>2702080.684253572</v>
       </c>
     </row>
     <row r="17">
@@ -57117,28 +57117,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>1914.995415233101</v>
+        <v>2168.105798431277</v>
       </c>
       <c r="AB17" t="n">
-        <v>2620.181210757092</v>
+        <v>2966.498003490857</v>
       </c>
       <c r="AC17" t="n">
-        <v>2370.114793449861</v>
+        <v>2683.379597543786</v>
       </c>
       <c r="AD17" t="n">
-        <v>1914995.415233101</v>
+        <v>2168105.798431277</v>
       </c>
       <c r="AE17" t="n">
-        <v>2620181.210757092</v>
+        <v>2966498.003490857</v>
       </c>
       <c r="AF17" t="n">
         <v>3.232850369804849e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>51</v>
+        <v>50.65755208333334</v>
       </c>
       <c r="AH17" t="n">
-        <v>2370114.793449861</v>
+        <v>2683379.597543786</v>
       </c>
     </row>
     <row r="18">
@@ -57223,28 +57223,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>1896.561852185134</v>
+        <v>2149.672235383311</v>
       </c>
       <c r="AB18" t="n">
-        <v>2594.959596563458</v>
+        <v>2941.276389297223</v>
       </c>
       <c r="AC18" t="n">
-        <v>2347.300294716109</v>
+        <v>2660.565098810035</v>
       </c>
       <c r="AD18" t="n">
-        <v>1896561.852185134</v>
+        <v>2149672.235383311</v>
       </c>
       <c r="AE18" t="n">
-        <v>2594959.596563458</v>
+        <v>2941276.389297223</v>
       </c>
       <c r="AF18" t="n">
         <v>3.241151339475217e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>51</v>
+        <v>50.52734375</v>
       </c>
       <c r="AH18" t="n">
-        <v>2347300.29471611</v>
+        <v>2660565.098810035</v>
       </c>
     </row>
     <row r="19">
@@ -57329,28 +57329,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>1876.460411508081</v>
+        <v>2129.469309479774</v>
       </c>
       <c r="AB19" t="n">
-        <v>2567.455918616139</v>
+        <v>2913.633854785815</v>
       </c>
       <c r="AC19" t="n">
-        <v>2322.421529190428</v>
+        <v>2635.560728995855</v>
       </c>
       <c r="AD19" t="n">
-        <v>1876460.411508081</v>
+        <v>2129469.309479774</v>
       </c>
       <c r="AE19" t="n">
-        <v>2567455.918616139</v>
+        <v>2913633.854785815</v>
       </c>
       <c r="AF19" t="n">
         <v>3.247691497397323e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>51</v>
+        <v>50.42317708333334</v>
       </c>
       <c r="AH19" t="n">
-        <v>2322421.529190429</v>
+        <v>2635560.728995855</v>
       </c>
     </row>
     <row r="20">
@@ -57435,28 +57435,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>1865.405659793432</v>
+        <v>2118.414557765124</v>
       </c>
       <c r="AB20" t="n">
-        <v>2552.330319618932</v>
+        <v>2898.508255788607</v>
       </c>
       <c r="AC20" t="n">
-        <v>2308.739496132603</v>
+        <v>2621.878695938029</v>
       </c>
       <c r="AD20" t="n">
-        <v>1865405.659793432</v>
+        <v>2118414.557765124</v>
       </c>
       <c r="AE20" t="n">
-        <v>2552330.319618932</v>
+        <v>2898508.255788607</v>
       </c>
       <c r="AF20" t="n">
         <v>3.252470843571171e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>51</v>
+        <v>50.3515625</v>
       </c>
       <c r="AH20" t="n">
-        <v>2308739.496132602</v>
+        <v>2621878.695938028</v>
       </c>
     </row>
     <row r="21">
@@ -57541,28 +57541,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>1849.322932925554</v>
+        <v>2102.331830897246</v>
       </c>
       <c r="AB21" t="n">
-        <v>2530.325223198466</v>
+        <v>2876.503159368141</v>
       </c>
       <c r="AC21" t="n">
-        <v>2288.83453523016</v>
+        <v>2601.973735035586</v>
       </c>
       <c r="AD21" t="n">
-        <v>1849322.932925554</v>
+        <v>2102331.830897246</v>
       </c>
       <c r="AE21" t="n">
-        <v>2530325.223198466</v>
+        <v>2876503.159368142</v>
       </c>
       <c r="AF21" t="n">
         <v>3.259262546028745e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>51</v>
+        <v>50.24739583333334</v>
       </c>
       <c r="AH21" t="n">
-        <v>2288834.53523016</v>
+        <v>2601973.735035586</v>
       </c>
     </row>
     <row r="22">
@@ -57647,28 +57647,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>1836.078495712125</v>
+        <v>2079.419395728419</v>
       </c>
       <c r="AB22" t="n">
-        <v>2512.20359989972</v>
+        <v>2845.153354744853</v>
       </c>
       <c r="AC22" t="n">
-        <v>2272.442414225188</v>
+        <v>2573.615911765817</v>
       </c>
       <c r="AD22" t="n">
-        <v>1836078.495712125</v>
+        <v>2079419.395728419</v>
       </c>
       <c r="AE22" t="n">
-        <v>2512203.59989972</v>
+        <v>2845153.354744853</v>
       </c>
       <c r="AF22" t="n">
         <v>3.265802703950852e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>51</v>
+        <v>50.14322916666666</v>
       </c>
       <c r="AH22" t="n">
-        <v>2272442.414225188</v>
+        <v>2573615.911765817</v>
       </c>
     </row>
     <row r="23">
@@ -57753,28 +57753,28 @@
         <v>10</v>
       </c>
       <c r="AA23" t="n">
-        <v>1838.53583010325</v>
+        <v>2091.544728074942</v>
       </c>
       <c r="AB23" t="n">
-        <v>2515.565833223601</v>
+        <v>2861.743769393277</v>
       </c>
       <c r="AC23" t="n">
-        <v>2275.483760719561</v>
+        <v>2588.622960524987</v>
       </c>
       <c r="AD23" t="n">
-        <v>1838535.83010325</v>
+        <v>2091544.728074942</v>
       </c>
       <c r="AE23" t="n">
-        <v>2515565.833223601</v>
+        <v>2861743.769393276</v>
       </c>
       <c r="AF23" t="n">
         <v>3.264041892202593e-06</v>
       </c>
       <c r="AG23" t="n">
-        <v>51</v>
+        <v>50.17578125</v>
       </c>
       <c r="AH23" t="n">
-        <v>2275483.760719561</v>
+        <v>2588622.960524987</v>
       </c>
     </row>
     <row r="24">
@@ -57859,28 +57859,28 @@
         <v>10</v>
       </c>
       <c r="AA24" t="n">
-        <v>1839.557897896495</v>
+        <v>2082.898797912788</v>
       </c>
       <c r="AB24" t="n">
-        <v>2516.964271468766</v>
+        <v>2849.914026313898</v>
       </c>
       <c r="AC24" t="n">
-        <v>2276.748733981329</v>
+        <v>2577.922231521957</v>
       </c>
       <c r="AD24" t="n">
-        <v>1839557.897896494</v>
+        <v>2082898.797912788</v>
       </c>
       <c r="AE24" t="n">
-        <v>2516964.271468766</v>
+        <v>2849914.026313898</v>
       </c>
       <c r="AF24" t="n">
         <v>3.267311971163647e-06</v>
       </c>
       <c r="AG24" t="n">
-        <v>51</v>
+        <v>50.12369791666666</v>
       </c>
       <c r="AH24" t="n">
-        <v>2276748.733981329</v>
+        <v>2577922.231521957</v>
       </c>
     </row>
   </sheetData>
@@ -58156,28 +58156,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1049.44454496812</v>
+        <v>1311.236625504936</v>
       </c>
       <c r="AB2" t="n">
-        <v>1435.896324651142</v>
+        <v>1794.091798693087</v>
       </c>
       <c r="AC2" t="n">
-        <v>1298.856394719585</v>
+        <v>1622.866195449472</v>
       </c>
       <c r="AD2" t="n">
-        <v>1049444.54496812</v>
+        <v>1311236.625504936</v>
       </c>
       <c r="AE2" t="n">
-        <v>1435896.324651142</v>
+        <v>1794091.798693086</v>
       </c>
       <c r="AF2" t="n">
         <v>7.114589396167201e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>56</v>
+        <v>55.84635416666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>1298856.394719585</v>
+        <v>1622866.195449472</v>
       </c>
     </row>
     <row r="3">
@@ -58262,28 +58262,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1060.029243072922</v>
+        <v>1321.821323609738</v>
       </c>
       <c r="AB3" t="n">
-        <v>1450.378775562056</v>
+        <v>1808.574249604001</v>
       </c>
       <c r="AC3" t="n">
-        <v>1311.956660841809</v>
+        <v>1635.966461571696</v>
       </c>
       <c r="AD3" t="n">
-        <v>1060029.243072922</v>
+        <v>1321821.323609738</v>
       </c>
       <c r="AE3" t="n">
-        <v>1450378.775562056</v>
+        <v>1808574.249604001</v>
       </c>
       <c r="AF3" t="n">
         <v>7.114589396167201e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>56</v>
+        <v>55.84635416666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>1311956.660841809</v>
+        <v>1635966.461571696</v>
       </c>
     </row>
   </sheetData>
@@ -58559,28 +58559,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2729.666506578038</v>
+        <v>3078.92584677181</v>
       </c>
       <c r="AB2" t="n">
-        <v>3734.850138687429</v>
+        <v>4212.722176175205</v>
       </c>
       <c r="AC2" t="n">
-        <v>3378.401283346051</v>
+        <v>3810.665884273593</v>
       </c>
       <c r="AD2" t="n">
-        <v>2729666.506578038</v>
+        <v>3078925.84677181</v>
       </c>
       <c r="AE2" t="n">
-        <v>3734850.138687429</v>
+        <v>4212722.176175205</v>
       </c>
       <c r="AF2" t="n">
         <v>2.991888132089907e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>73</v>
+        <v>72.39583333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>3378401.283346051</v>
+        <v>3810665.884273593</v>
       </c>
     </row>
     <row r="3">
@@ -58665,28 +58665,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1935.316270364687</v>
+        <v>2218.473855534859</v>
       </c>
       <c r="AB3" t="n">
-        <v>2647.985101240985</v>
+        <v>3035.413801302004</v>
       </c>
       <c r="AC3" t="n">
-        <v>2395.265119648977</v>
+        <v>2745.718168335653</v>
       </c>
       <c r="AD3" t="n">
-        <v>1935316.270364687</v>
+        <v>2218473.855534859</v>
       </c>
       <c r="AE3" t="n">
-        <v>2647985.101240986</v>
+        <v>3035413.801302004</v>
       </c>
       <c r="AF3" t="n">
         <v>3.71715401977544e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>59</v>
+        <v>58.26822916666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>2395265.119648977</v>
+        <v>2745718.168335653</v>
       </c>
     </row>
     <row r="4">
@@ -58771,28 +58771,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1730.460626556289</v>
+        <v>1994.833481231915</v>
       </c>
       <c r="AB4" t="n">
-        <v>2367.692571789173</v>
+        <v>2729.419174863557</v>
       </c>
       <c r="AC4" t="n">
-        <v>2141.723315815009</v>
+        <v>2468.92723957845</v>
       </c>
       <c r="AD4" t="n">
-        <v>1730460.626556289</v>
+        <v>1994833.481231915</v>
       </c>
       <c r="AE4" t="n">
-        <v>2367692.571789172</v>
+        <v>2729419.174863557</v>
       </c>
       <c r="AF4" t="n">
         <v>3.968668245046203e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>55</v>
+        <v>54.57682291666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>2141723.315815009</v>
+        <v>2468927.23957845</v>
       </c>
     </row>
     <row r="5">
@@ -58877,28 +58877,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1628.021603421049</v>
+        <v>1892.326127259113</v>
       </c>
       <c r="AB5" t="n">
-        <v>2227.530981044792</v>
+        <v>2589.164090852682</v>
       </c>
       <c r="AC5" t="n">
-        <v>2014.938550573244</v>
+        <v>2342.057903936326</v>
       </c>
       <c r="AD5" t="n">
-        <v>1628021.603421049</v>
+        <v>1892326.127259114</v>
       </c>
       <c r="AE5" t="n">
-        <v>2227530.981044792</v>
+        <v>2589164.090852682</v>
       </c>
       <c r="AF5" t="n">
         <v>4.097086883874926e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>53</v>
+        <v>52.86458333333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>2014938.550573244</v>
+        <v>2342057.903936326</v>
       </c>
     </row>
     <row r="6">
@@ -58983,28 +58983,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1558.697855043691</v>
+        <v>1813.593436440022</v>
       </c>
       <c r="AB6" t="n">
-        <v>2132.679170166959</v>
+        <v>2481.438549832824</v>
       </c>
       <c r="AC6" t="n">
-        <v>1929.139263400239</v>
+        <v>2244.613537357657</v>
       </c>
       <c r="AD6" t="n">
-        <v>1558697.855043691</v>
+        <v>1813593.436440022</v>
       </c>
       <c r="AE6" t="n">
-        <v>2132679.17016696</v>
+        <v>2481438.549832824</v>
       </c>
       <c r="AF6" t="n">
         <v>4.179594195868509e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>52</v>
+        <v>51.82291666666666</v>
       </c>
       <c r="AH6" t="n">
-        <v>1929139.263400239</v>
+        <v>2244613.537357657</v>
       </c>
     </row>
     <row r="7">
@@ -59089,28 +59089,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1512.117302745423</v>
+        <v>1757.536621892316</v>
       </c>
       <c r="AB7" t="n">
-        <v>2068.945603523536</v>
+        <v>2404.739143116534</v>
       </c>
       <c r="AC7" t="n">
-        <v>1871.488338906641</v>
+        <v>2175.234214370076</v>
       </c>
       <c r="AD7" t="n">
-        <v>1512117.302745423</v>
+        <v>1757536.621892316</v>
       </c>
       <c r="AE7" t="n">
-        <v>2068945.603523536</v>
+        <v>2404739.143116534</v>
       </c>
       <c r="AF7" t="n">
         <v>4.233490101283673e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>52</v>
+        <v>51.15885416666666</v>
       </c>
       <c r="AH7" t="n">
-        <v>1871488.338906641</v>
+        <v>2175234.214370076</v>
       </c>
     </row>
     <row r="8">
@@ -59195,28 +59195,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1463.594085298058</v>
+        <v>1709.080724252655</v>
       </c>
       <c r="AB8" t="n">
-        <v>2002.55399671878</v>
+        <v>2338.439646242619</v>
       </c>
       <c r="AC8" t="n">
-        <v>1811.433053874126</v>
+        <v>2115.26224842588</v>
       </c>
       <c r="AD8" t="n">
-        <v>1463594.085298058</v>
+        <v>1709080.724252655</v>
       </c>
       <c r="AE8" t="n">
-        <v>2002553.99671878</v>
+        <v>2338439.646242619</v>
       </c>
       <c r="AF8" t="n">
         <v>4.272082231087123e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>51</v>
+        <v>50.703125</v>
       </c>
       <c r="AH8" t="n">
-        <v>1811433.053874125</v>
+        <v>2115262.24842588</v>
       </c>
     </row>
     <row r="9">
@@ -59301,28 +59301,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1453.190782780816</v>
+        <v>1698.677421735413</v>
       </c>
       <c r="AB9" t="n">
-        <v>1988.319739253375</v>
+        <v>2324.205388777214</v>
       </c>
       <c r="AC9" t="n">
-        <v>1798.557293963313</v>
+        <v>2102.386488515067</v>
       </c>
       <c r="AD9" t="n">
-        <v>1453190.782780816</v>
+        <v>1698677.421735413</v>
       </c>
       <c r="AE9" t="n">
-        <v>1988319.739253375</v>
+        <v>2324205.388777215</v>
       </c>
       <c r="AF9" t="n">
         <v>4.283061026634657e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>51</v>
+        <v>50.57291666666666</v>
       </c>
       <c r="AH9" t="n">
-        <v>1798557.293963313</v>
+        <v>2102386.488515067</v>
       </c>
     </row>
     <row r="10">
@@ -59407,28 +59407,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1459.384983703773</v>
+        <v>1704.87162265837</v>
       </c>
       <c r="AB10" t="n">
-        <v>1996.794918225023</v>
+        <v>2332.680567748862</v>
       </c>
       <c r="AC10" t="n">
-        <v>1806.223613748895</v>
+        <v>2110.05280830065</v>
       </c>
       <c r="AD10" t="n">
-        <v>1459384.983703773</v>
+        <v>1704871.62265837</v>
       </c>
       <c r="AE10" t="n">
-        <v>1996794.918225023</v>
+        <v>2332680.567748862</v>
       </c>
       <c r="AF10" t="n">
         <v>4.282728335860489e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>51</v>
+        <v>50.57291666666666</v>
       </c>
       <c r="AH10" t="n">
-        <v>1806223.613748895</v>
+        <v>2110052.80830065</v>
       </c>
     </row>
   </sheetData>
@@ -59704,28 +59704,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3604.447271229345</v>
+        <v>4005.585269028432</v>
       </c>
       <c r="AB2" t="n">
-        <v>4931.763773487023</v>
+        <v>5480.618479035238</v>
       </c>
       <c r="AC2" t="n">
-        <v>4461.083160719165</v>
+        <v>4957.555943492254</v>
       </c>
       <c r="AD2" t="n">
-        <v>3604447.271229345</v>
+        <v>4005585.269028432</v>
       </c>
       <c r="AE2" t="n">
-        <v>4931763.773487023</v>
+        <v>5480618.479035238</v>
       </c>
       <c r="AF2" t="n">
         <v>2.372294120448739e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>82</v>
+        <v>81.29557291666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>4461083.160719165</v>
+        <v>4957555.943492254</v>
       </c>
     </row>
     <row r="3">
@@ -59810,28 +59810,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2326.883053087834</v>
+        <v>2632.573056622182</v>
       </c>
       <c r="AB3" t="n">
-        <v>3183.744048070243</v>
+        <v>3602.002596997119</v>
       </c>
       <c r="AC3" t="n">
-        <v>2879.891984535134</v>
+        <v>3258.232524581973</v>
       </c>
       <c r="AD3" t="n">
-        <v>2326883.053087833</v>
+        <v>2632573.056622182</v>
       </c>
       <c r="AE3" t="n">
-        <v>3183744.048070244</v>
+        <v>3602002.596997119</v>
       </c>
       <c r="AF3" t="n">
         <v>3.134817230592977e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>62</v>
+        <v>61.5234375</v>
       </c>
       <c r="AH3" t="n">
-        <v>2879891.984535134</v>
+        <v>3258232.524581973</v>
       </c>
     </row>
     <row r="4">
@@ -59916,28 +59916,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2038.328454384994</v>
+        <v>2315.387779490759</v>
       </c>
       <c r="AB4" t="n">
-        <v>2788.930915994389</v>
+        <v>3168.015707599046</v>
       </c>
       <c r="AC4" t="n">
-        <v>2522.759263661008</v>
+        <v>2865.664734803645</v>
       </c>
       <c r="AD4" t="n">
-        <v>2038328.454384994</v>
+        <v>2315387.77949076</v>
       </c>
       <c r="AE4" t="n">
-        <v>2788930.915994389</v>
+        <v>3168015.707599046</v>
       </c>
       <c r="AF4" t="n">
         <v>3.407358513162013e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>57</v>
+        <v>56.6015625</v>
       </c>
       <c r="AH4" t="n">
-        <v>2522759.263661008</v>
+        <v>2865664.734803645</v>
       </c>
     </row>
     <row r="5">
@@ -60022,28 +60022,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1905.289269855533</v>
+        <v>2172.692161785688</v>
       </c>
       <c r="AB5" t="n">
-        <v>2606.900834446591</v>
+        <v>2972.773268168432</v>
       </c>
       <c r="AC5" t="n">
-        <v>2358.101877615309</v>
+        <v>2689.055959767923</v>
       </c>
       <c r="AD5" t="n">
-        <v>1905289.269855533</v>
+        <v>2172692.161785688</v>
       </c>
       <c r="AE5" t="n">
-        <v>2606900.834446591</v>
+        <v>2972773.268168432</v>
       </c>
       <c r="AF5" t="n">
         <v>3.550146445986225e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>55</v>
+        <v>54.32291666666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>2358101.877615309</v>
+        <v>2689055.959767923</v>
       </c>
     </row>
     <row r="6">
@@ -60128,28 +60128,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1828.045546028203</v>
+        <v>2085.927655428016</v>
       </c>
       <c r="AB6" t="n">
-        <v>2501.21256375345</v>
+        <v>2854.058242789997</v>
       </c>
       <c r="AC6" t="n">
-        <v>2262.500347142702</v>
+        <v>2581.670929794022</v>
       </c>
       <c r="AD6" t="n">
-        <v>1828045.546028203</v>
+        <v>2085927.655428017</v>
       </c>
       <c r="AE6" t="n">
-        <v>2501212.56375345</v>
+        <v>2854058.242789997</v>
       </c>
       <c r="AF6" t="n">
         <v>3.635167476526784e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>54</v>
+        <v>53.05989583333334</v>
       </c>
       <c r="AH6" t="n">
-        <v>2262500.347142702</v>
+        <v>2581670.929794021</v>
       </c>
     </row>
     <row r="7">
@@ -60234,28 +60234,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1767.149408639856</v>
+        <v>2024.997352620889</v>
       </c>
       <c r="AB7" t="n">
-        <v>2417.89178203074</v>
+        <v>2770.690714434039</v>
       </c>
       <c r="AC7" t="n">
-        <v>2187.131583886155</v>
+        <v>2506.259881337294</v>
       </c>
       <c r="AD7" t="n">
-        <v>1767149.408639856</v>
+        <v>2024997.352620889</v>
       </c>
       <c r="AE7" t="n">
-        <v>2417891.78203074</v>
+        <v>2770690.714434039</v>
       </c>
       <c r="AF7" t="n">
         <v>3.694415581433096e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>53</v>
+        <v>52.20703125</v>
       </c>
       <c r="AH7" t="n">
-        <v>2187131.583886155</v>
+        <v>2506259.881337294</v>
       </c>
     </row>
     <row r="8">
@@ -60340,28 +60340,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1718.261805618523</v>
+        <v>1976.17706940726</v>
       </c>
       <c r="AB8" t="n">
-        <v>2351.001606808123</v>
+        <v>2703.892649142264</v>
       </c>
       <c r="AC8" t="n">
-        <v>2126.625313105835</v>
+        <v>2445.836929645293</v>
       </c>
       <c r="AD8" t="n">
-        <v>1718261.805618523</v>
+        <v>1976177.069407261</v>
       </c>
       <c r="AE8" t="n">
-        <v>2351001.606808123</v>
+        <v>2703892.649142264</v>
       </c>
       <c r="AF8" t="n">
         <v>3.736481735916578e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>52</v>
+        <v>51.61458333333334</v>
       </c>
       <c r="AH8" t="n">
-        <v>2126625.313105835</v>
+        <v>2445836.929645293</v>
       </c>
     </row>
     <row r="9">
@@ -60446,28 +60446,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1684.412791445055</v>
+        <v>1932.739952895746</v>
       </c>
       <c r="AB9" t="n">
-        <v>2304.687892302872</v>
+        <v>2644.460070020877</v>
       </c>
       <c r="AC9" t="n">
-        <v>2084.731714511257</v>
+        <v>2392.076512461103</v>
       </c>
       <c r="AD9" t="n">
-        <v>1684412.791445055</v>
+        <v>1932739.952895747</v>
       </c>
       <c r="AE9" t="n">
-        <v>2304687.892302872</v>
+        <v>2644460.070020877</v>
       </c>
       <c r="AF9" t="n">
         <v>3.768475712565986e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>52</v>
+        <v>51.17838541666666</v>
       </c>
       <c r="AH9" t="n">
-        <v>2084731.714511258</v>
+        <v>2392076.512461103</v>
       </c>
     </row>
     <row r="10">
@@ -60552,28 +60552,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1646.024172701594</v>
+        <v>1903.90527107155</v>
       </c>
       <c r="AB10" t="n">
-        <v>2252.162890551736</v>
+        <v>2605.007186252629</v>
       </c>
       <c r="AC10" t="n">
-        <v>2037.219625207948</v>
+        <v>2356.388956547227</v>
       </c>
       <c r="AD10" t="n">
-        <v>1646024.172701594</v>
+        <v>1903905.27107155</v>
       </c>
       <c r="AE10" t="n">
-        <v>2252162.890551737</v>
+        <v>2605007.186252629</v>
       </c>
       <c r="AF10" t="n">
         <v>3.790989992430385e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>51</v>
+        <v>50.87890625</v>
       </c>
       <c r="AH10" t="n">
-        <v>2037219.625207948</v>
+        <v>2356388.956547227</v>
       </c>
     </row>
     <row r="11">
@@ -60658,28 +60658,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1613.555271584799</v>
+        <v>1861.949752843195</v>
       </c>
       <c r="AB11" t="n">
-        <v>2207.737507616916</v>
+        <v>2547.601795265763</v>
       </c>
       <c r="AC11" t="n">
-        <v>1997.03413846901</v>
+        <v>2304.462255507175</v>
       </c>
       <c r="AD11" t="n">
-        <v>1613555.271584799</v>
+        <v>1861949.752843195</v>
       </c>
       <c r="AE11" t="n">
-        <v>2207737.507616917</v>
+        <v>2547601.795265763</v>
       </c>
       <c r="AF11" t="n">
         <v>3.814985474917441e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>51</v>
+        <v>50.55338541666666</v>
       </c>
       <c r="AH11" t="n">
-        <v>1997034.13846901</v>
+        <v>2304462.255507174</v>
       </c>
     </row>
     <row r="12">
@@ -60764,28 +60764,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1588.943067067679</v>
+        <v>1837.23606309959</v>
       </c>
       <c r="AB12" t="n">
-        <v>2174.062003582762</v>
+        <v>2513.787434667519</v>
       </c>
       <c r="AC12" t="n">
-        <v>1966.572577276009</v>
+        <v>2273.875090025674</v>
       </c>
       <c r="AD12" t="n">
-        <v>1588943.067067679</v>
+        <v>1837236.06309959</v>
       </c>
       <c r="AE12" t="n">
-        <v>2174062.003582762</v>
+        <v>2513787.434667519</v>
       </c>
       <c r="AF12" t="n">
         <v>3.828908779570425e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>51</v>
+        <v>50.37109375</v>
       </c>
       <c r="AH12" t="n">
-        <v>1966572.577276009</v>
+        <v>2273875.090025674</v>
       </c>
     </row>
     <row r="13">
@@ -60870,28 +60870,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1584.323879199587</v>
+        <v>1832.616875231497</v>
       </c>
       <c r="AB13" t="n">
-        <v>2167.741826957452</v>
+        <v>2507.467258042209</v>
       </c>
       <c r="AC13" t="n">
-        <v>1960.855589437395</v>
+        <v>2268.15810218706</v>
       </c>
       <c r="AD13" t="n">
-        <v>1584323.879199587</v>
+        <v>1832616.875231497</v>
       </c>
       <c r="AE13" t="n">
-        <v>2167741.826957452</v>
+        <v>2507467.258042209</v>
       </c>
       <c r="AF13" t="n">
         <v>3.834833590061055e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>51</v>
+        <v>50.29296875</v>
       </c>
       <c r="AH13" t="n">
-        <v>1960855.589437395</v>
+        <v>2268158.10218706</v>
       </c>
     </row>
     <row r="14">
@@ -60976,28 +60976,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>1590.595545934494</v>
+        <v>1838.888541966405</v>
       </c>
       <c r="AB14" t="n">
-        <v>2176.322998070561</v>
+        <v>2516.048429155318</v>
       </c>
       <c r="AC14" t="n">
-        <v>1968.617785623218</v>
+        <v>2275.920298372883</v>
       </c>
       <c r="AD14" t="n">
-        <v>1590595.545934494</v>
+        <v>1838888.541966405</v>
       </c>
       <c r="AE14" t="n">
-        <v>2176322.998070561</v>
+        <v>2516048.429155319</v>
       </c>
       <c r="AF14" t="n">
         <v>3.834537349536524e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>51</v>
+        <v>50.29947916666666</v>
       </c>
       <c r="AH14" t="n">
-        <v>1968617.785623218</v>
+        <v>2275920.298372883</v>
       </c>
     </row>
   </sheetData>
